--- a/Templates/Template.xlsx
+++ b/Templates/Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchell\Documents\Survey123 Samples and Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\applications\Survey123templates\Survey123Community\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13180" tabRatio="203"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11590" tabRatio="203"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="types" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Reserved">types!$A$165:$A$795</definedName>
-    <definedName name="Special">types!$A$154:$A$162</definedName>
+    <definedName name="Reserved">types!$A$166:$A$796</definedName>
+    <definedName name="Special">types!$A$155:$A$163</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="889">
   <si>
     <t>type</t>
   </si>
@@ -2692,6 +2692,12 @@
   </si>
   <si>
     <t>Applies to integer and decimal fields. Adds buttons to increase and decrease value.</t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>Applies to integer and decimal fields. Displays a custom calculator widget.</t>
   </si>
 </sst>
 </file>
@@ -3500,7 +3506,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3690,13 +3696,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$126:$A$130</xm:f>
+            <xm:f>types!$A$127:$A$131</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$47</xm:f>
+            <xm:f>types!$A$35:$A$48</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -3892,11 +3898,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E795"/>
+  <dimension ref="A2:E796"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4212,4106 +4216,4114 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B43" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B44" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>884</v>
       </c>
       <c r="B45" t="s">
-        <v>310</v>
+        <v>886</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>269</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>120</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B58" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:3" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
-        <v>214</v>
-      </c>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+    <row r="74" spans="1:3" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B75" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="22"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>199</v>
-      </c>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>202</v>
+        <v>309</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B84" s="19" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B87" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B90" s="10" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="25" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="25" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
+    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B127" t="s">
-        <v>236</v>
+        <v>231</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="B128" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B129" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
+    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A133" s="23" t="s">
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A134" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B133" s="23" t="s">
+      <c r="B134" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C133" s="30"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C134" s="1"/>
+      <c r="C134" s="30"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>873</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="32" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
-        <v>68</v>
+        <v>876</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
-        <v>877</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
-        <v>134</v>
+        <v>877</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
-        <v>878</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="32" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A164" s="16" t="s">
+    <row r="165" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A165" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="6" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>319</v>
+        <v>507</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>508</v>
+        <v>319</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>321</v>
+        <v>510</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>511</v>
+        <v>322</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>323</v>
+        <v>514</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>515</v>
+        <v>324</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>325</v>
+        <v>518</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>519</v>
+        <v>325</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>334</v>
+        <v>533</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>534</v>
+        <v>334</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>335</v>
+        <v>543</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>544</v>
+        <v>335</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>340</v>
+        <v>546</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>547</v>
+        <v>340</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>341</v>
+        <v>551</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>552</v>
+        <v>341</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>344</v>
+        <v>560</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>561</v>
+        <v>344</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>345</v>
+        <v>564</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>565</v>
+        <v>345</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>348</v>
+        <v>565</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>566</v>
+        <v>348</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>349</v>
+        <v>570</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>571</v>
+        <v>350</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>352</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>574</v>
+        <v>352</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>353</v>
+        <v>578</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>579</v>
+        <v>354</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>355</v>
+        <v>579</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>580</v>
+        <v>355</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>361</v>
+        <v>585</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>586</v>
+        <v>361</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>364</v>
+        <v>592</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>593</v>
+        <v>364</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>366</v>
+        <v>598</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>599</v>
+        <v>366</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>371</v>
+        <v>614</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>615</v>
+        <v>371</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>372</v>
+        <v>615</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>616</v>
+        <v>372</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>375</v>
+        <v>621</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>622</v>
+        <v>375</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>376</v>
+        <v>622</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>623</v>
+        <v>376</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="31" t="b">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="31" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>625</v>
+        <v>382</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>384</v>
+        <v>629</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>630</v>
+        <v>385</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>388</v>
+        <v>634</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>635</v>
+        <v>388</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>389</v>
+        <v>635</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>636</v>
+        <v>389</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>391</v>
+        <v>641</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>642</v>
+        <v>393</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>394</v>
+        <v>643</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>644</v>
+        <v>394</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>400</v>
+        <v>651</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>652</v>
+        <v>400</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>402</v>
+        <v>654</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>655</v>
+        <v>402</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>404</v>
+        <v>657</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>658</v>
+        <v>404</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>405</v>
+        <v>658</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>659</v>
+        <v>406</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>407</v>
+        <v>659</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>660</v>
+        <v>407</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>410</v>
+        <v>667</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>668</v>
+        <v>410</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>411</v>
+        <v>669</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>670</v>
+        <v>411</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>414</v>
+        <v>683</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>684</v>
+        <v>414</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>418</v>
+        <v>706</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>707</v>
+        <v>418</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>419</v>
+        <v>709</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>710</v>
+        <v>419</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>424</v>
+        <v>716</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>717</v>
+        <v>424</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>425</v>
+        <v>717</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>718</v>
+        <v>432</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>433</v>
+        <v>720</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>721</v>
+        <v>433</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>434</v>
+        <v>721</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>722</v>
+        <v>434</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>435</v>
+        <v>735</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>736</v>
+        <v>435</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>439</v>
+        <v>746</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>747</v>
+        <v>443</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>448</v>
+        <v>749</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>750</v>
+        <v>448</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>450</v>
+        <v>761</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>762</v>
+        <v>450</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>452</v>
+        <v>762</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>763</v>
+        <v>452</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>455</v>
+        <v>767</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>768</v>
+        <v>455</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>463</v>
+        <v>781</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>782</v>
+        <v>463</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>467</v>
+        <v>785</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>786</v>
+        <v>467</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>471</v>
+        <v>788</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>789</v>
+        <v>471</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>473</v>
+        <v>813</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>814</v>
+        <v>473</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>474</v>
+        <v>814</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>815</v>
+        <v>475</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>477</v>
+        <v>815</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>816</v>
+        <v>477</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>478</v>
+        <v>818</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>819</v>
+        <v>478</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" t="b">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>486</v>
+        <v>835</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>836</v>
+        <v>487</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>492</v>
+        <v>842</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>843</v>
+        <v>492</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>497</v>
+        <v>854</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>855</v>
+        <v>497</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>498</v>
+        <v>855</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>856</v>
+        <v>498</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>500</v>
+        <v>857</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>858</v>
+        <v>500</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
         <v>871</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A75">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:A83">
+  <conditionalFormatting sqref="A77:A84">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A75:A83">
-      <formula1>LEN(A75)=LEN(SUBSTITUTE(A75," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A76:A84">
+      <formula1>LEN(A76)=LEN(SUBSTITUTE(A76," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B75 B77:B86"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B76 B78:B87"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Templates/Template.xlsx
+++ b/Templates/Template.xlsx
@@ -18,8 +18,8 @@
     <sheet name="types" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Reserved">types!$A$166:$A$796</definedName>
-    <definedName name="Special">types!$A$155:$A$163</definedName>
+    <definedName name="Reserved">types!$A$167:$A$797</definedName>
+    <definedName name="Special">types!$A$156:$A$164</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="892">
   <si>
     <t>type</t>
   </si>
@@ -2698,6 +2698,15 @@
   </si>
   <si>
     <t>Applies to integer and decimal fields. Displays a custom calculator widget.</t>
+  </si>
+  <si>
+    <t>esriFieldTypeGUID</t>
+  </si>
+  <si>
+    <t>Globally Unique Identifier</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
 </sst>
 </file>
@@ -3696,7 +3705,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$127:$A$131</xm:f>
+            <xm:f>types!$A$127:$A$132</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
@@ -3844,7 +3853,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3857,9 +3866,10 @@
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="24.54296875" customWidth="1"/>
     <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -3875,13 +3885,16 @@
       <c r="E1" s="13" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="13" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="12"/>
     </row>
   </sheetData>
@@ -3898,9 +3911,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E796"/>
+  <dimension ref="A2:E797"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4920,3395 +4933,3403 @@
         <v>881</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A133" s="15" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A134" s="23" t="s">
+    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A135" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B134" s="23" t="s">
+      <c r="B135" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C134" s="30"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C135" s="1"/>
+      <c r="C135" s="30"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A154" s="15" t="s">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>873</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="32" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
-        <v>68</v>
+        <v>876</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
-        <v>877</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
-        <v>134</v>
+        <v>877</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
-        <v>878</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="32" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A165" s="16" t="s">
+    <row r="166" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A166" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="6" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>319</v>
+        <v>507</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>508</v>
+        <v>319</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>321</v>
+        <v>510</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>511</v>
+        <v>322</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>323</v>
+        <v>514</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>515</v>
+        <v>324</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>325</v>
+        <v>518</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>519</v>
+        <v>325</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>334</v>
+        <v>533</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>534</v>
+        <v>334</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>335</v>
+        <v>543</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>544</v>
+        <v>335</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>340</v>
+        <v>546</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>547</v>
+        <v>340</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>341</v>
+        <v>551</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>552</v>
+        <v>341</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>344</v>
+        <v>560</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>561</v>
+        <v>344</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>345</v>
+        <v>564</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>565</v>
+        <v>345</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>348</v>
+        <v>565</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>566</v>
+        <v>348</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>349</v>
+        <v>570</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>571</v>
+        <v>350</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>352</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>574</v>
+        <v>352</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>353</v>
+        <v>578</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>579</v>
+        <v>354</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>355</v>
+        <v>579</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>580</v>
+        <v>355</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>361</v>
+        <v>585</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>586</v>
+        <v>361</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>364</v>
+        <v>592</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>593</v>
+        <v>364</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>366</v>
+        <v>598</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>599</v>
+        <v>366</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>371</v>
+        <v>614</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>615</v>
+        <v>371</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>372</v>
+        <v>615</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>616</v>
+        <v>372</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>375</v>
+        <v>621</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>622</v>
+        <v>375</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>376</v>
+        <v>622</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>623</v>
+        <v>376</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="31" t="b">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="31" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>625</v>
+        <v>382</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>384</v>
+        <v>629</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>630</v>
+        <v>385</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>388</v>
+        <v>634</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>635</v>
+        <v>388</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>389</v>
+        <v>635</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>636</v>
+        <v>389</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>391</v>
+        <v>641</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>642</v>
+        <v>393</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>394</v>
+        <v>643</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>644</v>
+        <v>394</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>400</v>
+        <v>651</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>652</v>
+        <v>400</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>402</v>
+        <v>654</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>655</v>
+        <v>402</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>404</v>
+        <v>657</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>658</v>
+        <v>404</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>405</v>
+        <v>658</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>659</v>
+        <v>406</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>407</v>
+        <v>659</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>660</v>
+        <v>407</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>410</v>
+        <v>667</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>668</v>
+        <v>410</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>411</v>
+        <v>669</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>670</v>
+        <v>411</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>414</v>
+        <v>683</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>684</v>
+        <v>414</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>418</v>
+        <v>706</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>707</v>
+        <v>418</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>419</v>
+        <v>709</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>710</v>
+        <v>419</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>424</v>
+        <v>716</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>717</v>
+        <v>424</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>425</v>
+        <v>717</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>718</v>
+        <v>432</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>433</v>
+        <v>720</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>721</v>
+        <v>433</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>434</v>
+        <v>721</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>722</v>
+        <v>434</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>435</v>
+        <v>735</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>736</v>
+        <v>435</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>439</v>
+        <v>746</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>747</v>
+        <v>443</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>448</v>
+        <v>749</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>750</v>
+        <v>448</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>450</v>
+        <v>761</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>762</v>
+        <v>450</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>452</v>
+        <v>762</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>763</v>
+        <v>452</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>455</v>
+        <v>767</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>768</v>
+        <v>455</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>463</v>
+        <v>781</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>782</v>
+        <v>463</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>467</v>
+        <v>785</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>786</v>
+        <v>467</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>471</v>
+        <v>788</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>789</v>
+        <v>471</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>473</v>
+        <v>813</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>814</v>
+        <v>473</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>474</v>
+        <v>814</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>815</v>
+        <v>475</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>477</v>
+        <v>815</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>816</v>
+        <v>477</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>478</v>
+        <v>818</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>819</v>
+        <v>478</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" t="b">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>486</v>
+        <v>835</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>836</v>
+        <v>487</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>492</v>
+        <v>842</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>843</v>
+        <v>492</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>497</v>
+        <v>854</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>855</v>
+        <v>497</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>498</v>
+        <v>855</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>856</v>
+        <v>498</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>500</v>
+        <v>857</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>858</v>
+        <v>500</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
         <v>871</v>
       </c>
     </row>

--- a/Templates/Template.xlsx
+++ b/Templates/Template.xlsx
@@ -18,8 +18,8 @@
     <sheet name="types" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Reserved">types!$A$167:$A$797</definedName>
-    <definedName name="Special">types!$A$156:$A$164</definedName>
+    <definedName name="Reserved">types!$A$169:$A$799</definedName>
+    <definedName name="Special">types!$A$158:$A$166</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="896">
   <si>
     <t>type</t>
   </si>
@@ -2707,6 +2707,18 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>Applies to groups and repeats. The question group will start off collapsed, instead of expanded.</t>
+  </si>
+  <si>
+    <t>minimal compact</t>
+  </si>
+  <si>
+    <t>Applies to repeats. Applie sboth horizontal and compact appearance types simultaneously.</t>
   </si>
 </sst>
 </file>
@@ -3515,7 +3527,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3705,13 +3717,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$127:$A$132</xm:f>
+            <xm:f>types!$A$129:$A$134</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$48</xm:f>
+            <xm:f>types!$A$35:$A$50</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -3911,9 +3923,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E797"/>
+  <dimension ref="A2:E799"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4275,4076 +4287,4092 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>892</v>
+      </c>
+      <c r="B49" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>894</v>
+      </c>
+      <c r="B50" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>119</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>120</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>101</v>
+        <v>63</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="7"/>
-    </row>
-    <row r="74" spans="1:3" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="7"/>
-    </row>
-    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B77" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="22"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>200</v>
-      </c>
+      <c r="C77" s="22"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>216</v>
+        <v>309</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B86" s="19" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B89" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+    <row r="91" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+    <row r="92" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B92" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="25" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="25" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
+    <row r="128" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A128" s="16" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B128" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B130" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>880</v>
+        <v>234</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>881</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B132" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
+    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
+    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A137" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B137" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C135" s="30"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C137" s="1"/>
+      <c r="C137" s="30"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A155" s="15" t="s">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B157" t="s">
         <v>873</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="32" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="32" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
-        <v>68</v>
+        <v>875</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
-        <v>136</v>
+        <v>877</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
-        <v>878</v>
+        <v>134</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="32" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A166" s="16" t="s">
+    <row r="168" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A168" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B168" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="6" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="6" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>319</v>
+        <v>506</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>509</v>
+        <v>319</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>321</v>
+        <v>509</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>322</v>
+        <v>510</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>511</v>
+        <v>321</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>512</v>
+        <v>322</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>323</v>
+        <v>513</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>324</v>
+        <v>514</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>515</v>
+        <v>323</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>516</v>
+        <v>324</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>325</v>
+        <v>517</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>520</v>
+        <v>325</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>334</v>
+        <v>532</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>535</v>
+        <v>334</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>335</v>
+        <v>542</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>545</v>
+        <v>335</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>340</v>
+        <v>545</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>548</v>
+        <v>340</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>341</v>
+        <v>550</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>553</v>
+        <v>341</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>344</v>
+        <v>559</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>562</v>
+        <v>344</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>345</v>
+        <v>563</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>567</v>
+        <v>348</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>349</v>
+        <v>569</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>350</v>
+        <v>570</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>571</v>
+        <v>349</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>572</v>
+        <v>350</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>352</v>
+        <v>572</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>575</v>
+        <v>352</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>353</v>
+        <v>577</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>354</v>
+        <v>578</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>579</v>
+        <v>353</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>581</v>
+        <v>355</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>361</v>
+        <v>584</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>587</v>
+        <v>361</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>364</v>
+        <v>591</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>594</v>
+        <v>364</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>366</v>
+        <v>597</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>600</v>
+        <v>366</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>371</v>
+        <v>613</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>617</v>
+        <v>372</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>375</v>
+        <v>620</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>624</v>
+        <v>376</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="31" t="b">
-        <v>0</v>
+      <c r="A501" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>381</v>
+        <v>624</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>382</v>
+      <c r="A503" s="31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>625</v>
+        <v>381</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>626</v>
+        <v>382</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>384</v>
+        <v>628</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>385</v>
+        <v>629</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>630</v>
+        <v>384</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>631</v>
+        <v>385</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>388</v>
+        <v>633</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>637</v>
+        <v>389</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>391</v>
+        <v>640</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>392</v>
+        <v>641</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>642</v>
+        <v>392</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>643</v>
+        <v>393</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>394</v>
+        <v>642</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>645</v>
+        <v>394</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>400</v>
+        <v>650</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>653</v>
+        <v>400</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>402</v>
+        <v>653</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>656</v>
+        <v>402</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>404</v>
+        <v>656</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>406</v>
+        <v>658</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>659</v>
+        <v>405</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>661</v>
+        <v>407</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>410</v>
+        <v>666</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>669</v>
+        <v>410</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>411</v>
+        <v>668</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>671</v>
+        <v>411</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>414</v>
+        <v>682</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>685</v>
+        <v>414</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>418</v>
+        <v>705</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>708</v>
+        <v>418</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>419</v>
+        <v>708</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>711</v>
+        <v>419</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>424</v>
+        <v>715</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>431</v>
+        <v>717</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>718</v>
+        <v>431</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>719</v>
+        <v>432</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>433</v>
+        <v>719</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>723</v>
+        <v>434</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>435</v>
+        <v>734</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>737</v>
+        <v>435</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>439</v>
+        <v>745</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>443</v>
+        <v>746</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>747</v>
+        <v>439</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>748</v>
+        <v>443</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>448</v>
+        <v>748</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>751</v>
+        <v>448</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>450</v>
+        <v>760</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>764</v>
+        <v>452</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>455</v>
+        <v>766</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>769</v>
+        <v>455</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>463</v>
+        <v>780</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>783</v>
+        <v>463</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>467</v>
+        <v>784</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>787</v>
+        <v>467</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>471</v>
+        <v>787</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>790</v>
+        <v>471</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>473</v>
+        <v>812</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>475</v>
+        <v>814</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>815</v>
+        <v>474</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>817</v>
+        <v>477</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>478</v>
+        <v>817</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>820</v>
+        <v>478</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" t="b">
-        <v>1</v>
+      <c r="A753" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
-        <v>835</v>
+      <c r="A755" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>486</v>
+        <v>834</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>487</v>
+        <v>835</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>836</v>
+        <v>486</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>837</v>
+        <v>487</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>492</v>
+        <v>841</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>844</v>
+        <v>492</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>497</v>
+        <v>853</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>857</v>
+        <v>498</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>500</v>
+        <v>856</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>859</v>
+        <v>500</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
         <v>871</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A78">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A84">
+  <conditionalFormatting sqref="A79:A86">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A76:A84">
-      <formula1>LEN(A76)=LEN(SUBSTITUTE(A76," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A78:A86">
+      <formula1>LEN(A78)=LEN(SUBSTITUTE(A78," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B76 B78:B87"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B78 B80:B89"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Templates/Template.xlsx
+++ b/Templates/Template.xlsx
@@ -18,8 +18,8 @@
     <sheet name="types" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Reserved">types!$A$169:$A$799</definedName>
-    <definedName name="Special">types!$A$158:$A$166</definedName>
+    <definedName name="Reserved">types!$A$167:$A$797</definedName>
+    <definedName name="Special">types!$A$156:$A$164</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="892">
   <si>
     <t>type</t>
   </si>
@@ -2707,18 +2707,6 @@
   </si>
   <si>
     <t>version</t>
-  </si>
-  <si>
-    <t>compact</t>
-  </si>
-  <si>
-    <t>Applies to groups and repeats. The question group will start off collapsed, instead of expanded.</t>
-  </si>
-  <si>
-    <t>minimal compact</t>
-  </si>
-  <si>
-    <t>Applies to repeats. Applie sboth horizontal and compact appearance types simultaneously.</t>
   </si>
 </sst>
 </file>
@@ -2997,6 +2985,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3029,14 +3025,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3120,15 +3108,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:X236"/>
   <tableColumns count="24">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="4"/>
-    <tableColumn id="4" name="hint" dataDxfId="3"/>
+    <tableColumn id="3" name="label" dataDxfId="5"/>
+    <tableColumn id="4" name="hint" dataDxfId="4"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="2"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="3"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
     <tableColumn id="8" name="appearance"/>
@@ -3462,7 +3450,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3504,7 +3492,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3663,7 +3651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B233">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <dataValidations xWindow="732" yWindow="283" count="20">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:C1048576"/>
@@ -3717,13 +3705,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$129:$A$134</xm:f>
+            <xm:f>types!$A$127:$A$132</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$50</xm:f>
+            <xm:f>types!$A$35:$A$48</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -3923,7 +3911,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E799"/>
+  <dimension ref="A2:E797"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4287,4092 +4275,4076 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>892</v>
-      </c>
-      <c r="B49" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>894</v>
-      </c>
-      <c r="B50" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>119</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B51" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>120</v>
       </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>244</v>
+      </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>246</v>
-      </c>
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="6"/>
     </row>
     <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A58" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B58" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>101</v>
+        <v>74</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:3" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
+      <c r="B74" s="1"/>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B75" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="22"/>
+      <c r="C75" s="22"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>210</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
-        <v>212</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>220</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="14" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="14" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B89" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
+    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B90" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="25" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B126" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A128" s="16" t="s">
+    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B128" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>234</v>
+        <v>880</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>237</v>
+        <v>881</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B132" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
+    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A135" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B135" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C137" s="30"/>
+      <c r="C135" s="30"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A157" s="15" t="s">
+    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B155" t="s">
         <v>873</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="32" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="32" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
-        <v>875</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
-        <v>877</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
-        <v>134</v>
+        <v>878</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="32" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="32" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A168" s="16" t="s">
+    <row r="166" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A166" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B166" t="s">
         <v>316</v>
       </c>
     </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>318</v>
+      </c>
+    </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>317</v>
+      <c r="A169" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>440</v>
+      <c r="A292" s="6" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>441</v>
+      <c r="A293" s="6" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="6" t="s">
-        <v>501</v>
+      <c r="A353" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="6" t="s">
-        <v>502</v>
+      <c r="A354" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>506</v>
+        <v>319</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>319</v>
+        <v>509</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>509</v>
+        <v>321</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>510</v>
+        <v>322</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>321</v>
+        <v>511</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>322</v>
+        <v>512</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>513</v>
+        <v>323</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>514</v>
+        <v>324</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>323</v>
+        <v>515</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>324</v>
+        <v>516</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>517</v>
+        <v>325</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>325</v>
+        <v>520</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>532</v>
+        <v>334</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>334</v>
+        <v>535</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>542</v>
+        <v>335</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>335</v>
+        <v>545</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>545</v>
+        <v>340</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>340</v>
+        <v>548</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>550</v>
+        <v>341</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>341</v>
+        <v>553</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>559</v>
+        <v>344</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>344</v>
+        <v>562</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>563</v>
+        <v>345</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>348</v>
+        <v>567</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>569</v>
+        <v>349</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>570</v>
+        <v>350</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>349</v>
+        <v>571</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>350</v>
+        <v>572</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>572</v>
+        <v>352</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>352</v>
+        <v>575</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>577</v>
+        <v>353</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>578</v>
+        <v>354</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>353</v>
+        <v>579</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>355</v>
+        <v>581</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>584</v>
+        <v>361</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>361</v>
+        <v>587</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>591</v>
+        <v>364</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>364</v>
+        <v>594</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>597</v>
+        <v>366</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>366</v>
+        <v>600</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>613</v>
+        <v>371</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>372</v>
+        <v>617</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>620</v>
+        <v>375</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>376</v>
+        <v>624</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>623</v>
+      <c r="A501" s="31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>624</v>
+        <v>381</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="31" t="b">
-        <v>0</v>
+      <c r="A503" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>381</v>
+        <v>625</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>382</v>
+        <v>626</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>628</v>
+        <v>384</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>629</v>
+        <v>385</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>384</v>
+        <v>630</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>385</v>
+        <v>631</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>633</v>
+        <v>388</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>389</v>
+        <v>637</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>640</v>
+        <v>391</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>641</v>
+        <v>392</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>392</v>
+        <v>642</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>393</v>
+        <v>643</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>642</v>
+        <v>394</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>394</v>
+        <v>645</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>650</v>
+        <v>400</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>400</v>
+        <v>653</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>653</v>
+        <v>402</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>402</v>
+        <v>656</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>656</v>
+        <v>404</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>658</v>
+        <v>406</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>405</v>
+        <v>659</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>407</v>
+        <v>661</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>666</v>
+        <v>410</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>410</v>
+        <v>669</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>668</v>
+        <v>411</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>411</v>
+        <v>671</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>682</v>
+        <v>414</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>414</v>
+        <v>685</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>705</v>
+        <v>418</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>418</v>
+        <v>708</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>708</v>
+        <v>419</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>419</v>
+        <v>711</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>715</v>
+        <v>424</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>717</v>
+        <v>431</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>431</v>
+        <v>718</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>432</v>
+        <v>719</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>719</v>
+        <v>433</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>434</v>
+        <v>723</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>734</v>
+        <v>435</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>435</v>
+        <v>737</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>745</v>
+        <v>439</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>746</v>
+        <v>443</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>439</v>
+        <v>747</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>443</v>
+        <v>748</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>748</v>
+        <v>448</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>448</v>
+        <v>751</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>760</v>
+        <v>450</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>452</v>
+        <v>764</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>766</v>
+        <v>455</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>455</v>
+        <v>769</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>780</v>
+        <v>463</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>463</v>
+        <v>783</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>784</v>
+        <v>467</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>467</v>
+        <v>787</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>787</v>
+        <v>471</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>471</v>
+        <v>790</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>812</v>
+        <v>473</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>814</v>
+        <v>475</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>474</v>
+        <v>815</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>477</v>
+        <v>817</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>817</v>
+        <v>478</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>478</v>
+        <v>820</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
-        <v>832</v>
+      <c r="A753" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" t="b">
-        <v>1</v>
+      <c r="A755" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>834</v>
+        <v>486</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>835</v>
+        <v>487</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>486</v>
+        <v>836</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>487</v>
+        <v>837</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>841</v>
+        <v>492</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>492</v>
+        <v>844</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>853</v>
+        <v>497</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>498</v>
+        <v>857</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>856</v>
+        <v>500</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>500</v>
+        <v>859</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" t="s">
         <v>871</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A78">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A86">
+  <conditionalFormatting sqref="A77:A84">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A78:A86">
-      <formula1>LEN(A78)=LEN(SUBSTITUTE(A78," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A76:A84">
+      <formula1>LEN(A76)=LEN(SUBSTITUTE(A76," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B78 B80:B89"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B76 B78:B87"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Templates/Template.xlsx
+++ b/Templates/Template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\applications\Survey123templates\Survey123Community\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Applications\Survey123Community\Survey123Community\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11590" tabRatio="203"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11588" tabRatio="203"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="types" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Reserved">types!$A$167:$A$797</definedName>
-    <definedName name="Special">types!$A$156:$A$164</definedName>
+    <definedName name="Reserved">types!$A$169:$A$799</definedName>
+    <definedName name="Special">types!$A$158:$A$166</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="897">
   <si>
     <t>type</t>
   </si>
@@ -2707,13 +2707,28 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>Applies to groups and repeats. Group of question will appear collapsed on startup.</t>
+  </si>
+  <si>
+    <t>Applies to groups and repeats, when style is set to pages. Displays group of questions on a separate page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2985,14 +3000,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3025,6 +3032,14 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3108,15 +3123,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:X236"/>
   <tableColumns count="24">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="5"/>
-    <tableColumn id="4" name="hint" dataDxfId="4"/>
+    <tableColumn id="3" name="label" dataDxfId="4"/>
+    <tableColumn id="4" name="hint" dataDxfId="3"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="3"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="2"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
     <tableColumn id="8" name="appearance"/>
@@ -3515,19 +3530,19 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.453125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.46484375" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="1"/>
-    <col min="6" max="6" width="24.453125" style="1"/>
+    <col min="1" max="2" width="19.53125" customWidth="1"/>
+    <col min="3" max="3" width="32.53125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.46484375" style="1"/>
+    <col min="6" max="6" width="24.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="28" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3609,7 +3624,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3620,23 +3635,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="16.5" customHeight="1">
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="16.5" customHeight="1">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="16.5" customHeight="1">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="16.5" customHeight="1">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="16.5" customHeight="1">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="16.5" customHeight="1">
       <c r="E9" s="1"/>
     </row>
   </sheetData>
@@ -3651,7 +3666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B233">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <dataValidations xWindow="732" yWindow="283" count="20">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:C1048576"/>
@@ -3705,13 +3720,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$127:$A$132</xm:f>
+            <xm:f>types!$A$129:$A$134</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$48</xm:f>
+            <xm:f>types!$A$35:$A$50</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -3733,15 +3748,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.53125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.46484375" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -3758,7 +3773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3769,7 +3784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3780,7 +3795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -3791,7 +3806,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -3802,7 +3817,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -3813,7 +3828,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -3824,7 +3839,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -3853,23 +3868,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.46484375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.46484375" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="24.53125" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" customWidth="1"/>
+    <col min="6" max="6" width="18.796875" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -3888,13 +3904,16 @@
       <c r="F1" s="13" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="13" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="C7" s="12"/>
     </row>
   </sheetData>
@@ -3911,23 +3930,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E797"/>
+  <dimension ref="A2:E799"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="74.54296875" customWidth="1"/>
-    <col min="3" max="3" width="52.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27.46484375" customWidth="1"/>
+    <col min="2" max="2" width="74.53125" customWidth="1"/>
+    <col min="3" max="3" width="52.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.15">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -3935,7 +3954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -3946,7 +3965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3957,7 +3976,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,7 +3987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -3979,7 +3998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -3990,7 +4009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -3998,7 +4017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -4006,7 +4025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -4014,7 +4033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>260</v>
       </c>
@@ -4022,7 +4041,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4030,7 +4049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -4038,7 +4057,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -4046,7 +4065,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -4054,7 +4073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -4062,7 +4081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="25.5">
       <c r="A18" s="1" t="s">
         <v>123</v>
       </c>
@@ -4070,7 +4089,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="25.5">
       <c r="A19" s="1" t="s">
         <v>228</v>
       </c>
@@ -4078,7 +4097,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="25.5">
       <c r="A20" s="1" t="s">
         <v>229</v>
       </c>
@@ -4086,7 +4105,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="38.25">
       <c r="A21" s="1" t="s">
         <v>241</v>
       </c>
@@ -4094,7 +4113,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>257</v>
       </c>
@@ -4102,7 +4121,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>222</v>
       </c>
@@ -4110,7 +4129,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>223</v>
       </c>
@@ -4118,17 +4137,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="13.15">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4136,21 +4155,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="13.15">
       <c r="A30" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="B31" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -4158,12 +4177,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="13.15">
       <c r="A34" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="26" t="s">
         <v>239</v>
       </c>
@@ -4171,7 +4190,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -4179,7 +4198,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -4187,7 +4206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>251</v>
       </c>
@@ -4195,7 +4214,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>255</v>
       </c>
@@ -4203,7 +4222,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>256</v>
       </c>
@@ -4211,7 +4230,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>262</v>
       </c>
@@ -4219,7 +4238,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>253</v>
       </c>
@@ -4227,7 +4246,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>887</v>
       </c>
@@ -4235,7 +4254,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>883</v>
       </c>
@@ -4243,7 +4262,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>884</v>
       </c>
@@ -4251,7 +4270,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -4259,7 +4278,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -4267,7 +4286,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -4275,4076 +4294,4092 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>892</v>
+      </c>
+      <c r="B49" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>893</v>
+      </c>
+      <c r="B50" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13.15">
+      <c r="A52" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>119</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>120</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+    <row r="56" spans="1:3" ht="13.15">
+      <c r="A56" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="57" spans="1:3">
+      <c r="B57" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="58" spans="1:3" ht="13.15">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" s="9" customFormat="1" ht="13.15">
+      <c r="A59" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="7"/>
-    </row>
-    <row r="74" spans="1:3" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3" s="23" customFormat="1" ht="13.15">
+      <c r="A76" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="7"/>
-    </row>
-    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B77" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="22"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="C77" s="22"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B78" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B79" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B80" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B81" s="19" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B82" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B83" s="19" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="18" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B84" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B85" s="19" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B86" s="19" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B87" s="19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B88" s="19" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B89" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+    <row r="91" spans="1:2" ht="13.15">
+      <c r="A91" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B92" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="25" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="95" spans="1:2" ht="25.5">
+      <c r="A95" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="25" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="122" spans="1:2" ht="25.5">
+      <c r="A122" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
+    <row r="128" spans="1:2" ht="13.15">
+      <c r="A128" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B130" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
+    <row r="136" spans="1:3" ht="13.15">
+      <c r="A136" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B137" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C135" s="30"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="C137" s="30"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A155" s="15" t="s">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="157" spans="1:3" ht="13.15">
+      <c r="A157" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B157" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="32" t="s">
+    <row r="158" spans="1:3">
+      <c r="A158" s="32" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="32" t="s">
+    <row r="159" spans="1:3">
+      <c r="A159" s="32" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="32" t="s">
+    <row r="160" spans="1:3">
+      <c r="A160" s="32" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="32" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" s="32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="32" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" s="32" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="32" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="32" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="32" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" s="32" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="32" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" s="32" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A166" s="16" t="s">
+    <row r="168" spans="1:2" ht="13.15">
+      <c r="A168" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B168" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="6" t="s">
+    <row r="294" spans="1:1">
+      <c r="A294" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="6" t="s">
+    <row r="295" spans="1:1">
+      <c r="A295" s="6" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="6" t="s">
+    <row r="296" spans="1:1">
+      <c r="A296" s="6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="s">
+    <row r="297" spans="1:1">
+      <c r="A297" s="6" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="6" t="s">
+    <row r="298" spans="1:1">
+      <c r="A298" s="6" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="6" t="s">
+    <row r="299" spans="1:1">
+      <c r="A299" s="6" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" s="6" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
+    <row r="301" spans="1:1">
+      <c r="A301" s="6" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="6" t="s">
+    <row r="302" spans="1:1">
+      <c r="A302" s="6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="s">
+    <row r="303" spans="1:1">
+      <c r="A303" s="6" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
+    <row r="304" spans="1:1">
+      <c r="A304" s="6" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="6" t="s">
+    <row r="305" spans="1:1">
+      <c r="A305" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="6" t="s">
+    <row r="306" spans="1:1">
+      <c r="A306" s="6" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="6" t="s">
+    <row r="307" spans="1:1">
+      <c r="A307" s="6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="6" t="s">
+    <row r="308" spans="1:1">
+      <c r="A308" s="6" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="6" t="s">
+    <row r="309" spans="1:1">
+      <c r="A309" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="6" t="s">
+    <row r="310" spans="1:1">
+      <c r="A310" s="6" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="6" t="s">
+    <row r="311" spans="1:1">
+      <c r="A311" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="6" t="s">
+    <row r="312" spans="1:1">
+      <c r="A312" s="6" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="6" t="s">
+    <row r="313" spans="1:1">
+      <c r="A313" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="6" t="s">
+    <row r="314" spans="1:1">
+      <c r="A314" s="6" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="6" t="s">
+    <row r="315" spans="1:1">
+      <c r="A315" s="6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
+    <row r="316" spans="1:1">
+      <c r="A316" s="6" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="6" t="s">
+    <row r="317" spans="1:1">
+      <c r="A317" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="6" t="s">
+    <row r="318" spans="1:1">
+      <c r="A318" s="6" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="6" t="s">
+    <row r="319" spans="1:1">
+      <c r="A319" s="6" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="6" t="s">
+    <row r="320" spans="1:1">
+      <c r="A320" s="6" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="6" t="s">
+    <row r="321" spans="1:1">
+      <c r="A321" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="6" t="s">
+    <row r="322" spans="1:1">
+      <c r="A322" s="6" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="6" t="s">
+    <row r="323" spans="1:1">
+      <c r="A323" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="6" t="s">
+    <row r="324" spans="1:1">
+      <c r="A324" s="6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="6" t="s">
+    <row r="325" spans="1:1">
+      <c r="A325" s="6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="6" t="s">
+    <row r="326" spans="1:1">
+      <c r="A326" s="6" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="6" t="s">
+    <row r="327" spans="1:1">
+      <c r="A327" s="6" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="6" t="s">
+    <row r="328" spans="1:1">
+      <c r="A328" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="6" t="s">
+    <row r="329" spans="1:1">
+      <c r="A329" s="6" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="6" t="s">
+    <row r="330" spans="1:1">
+      <c r="A330" s="6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
+    <row r="331" spans="1:1">
+      <c r="A331" s="6" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="6" t="s">
+    <row r="332" spans="1:1">
+      <c r="A332" s="6" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="6" t="s">
+    <row r="333" spans="1:1">
+      <c r="A333" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="6" t="s">
+    <row r="334" spans="1:1">
+      <c r="A334" s="6" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="6" t="s">
+    <row r="335" spans="1:1">
+      <c r="A335" s="6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="6" t="s">
+    <row r="336" spans="1:1">
+      <c r="A336" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="6" t="s">
+    <row r="337" spans="1:1">
+      <c r="A337" s="6" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="6" t="s">
+    <row r="338" spans="1:1">
+      <c r="A338" s="6" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="6" t="s">
+    <row r="339" spans="1:1">
+      <c r="A339" s="6" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="6" t="s">
+    <row r="340" spans="1:1">
+      <c r="A340" s="6" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="6" t="s">
+    <row r="341" spans="1:1">
+      <c r="A341" s="6" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="6" t="s">
+    <row r="342" spans="1:1">
+      <c r="A342" s="6" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="6" t="s">
+    <row r="343" spans="1:1">
+      <c r="A343" s="6" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="6" t="s">
+    <row r="344" spans="1:1">
+      <c r="A344" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="6" t="s">
+    <row r="345" spans="1:1">
+      <c r="A345" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="6" t="s">
+    <row r="346" spans="1:1">
+      <c r="A346" s="6" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
+    <row r="347" spans="1:1">
+      <c r="A347" s="6" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="6" t="s">
+    <row r="348" spans="1:1">
+      <c r="A348" s="6" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="6" t="s">
+    <row r="349" spans="1:1">
+      <c r="A349" s="6" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="6" t="s">
+    <row r="350" spans="1:1">
+      <c r="A350" s="6" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="6" t="s">
+    <row r="351" spans="1:1">
+      <c r="A351" s="6" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="6" t="s">
+    <row r="352" spans="1:1">
+      <c r="A352" s="6" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="6" t="s">
+    <row r="353" spans="1:1">
+      <c r="A353" s="6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="6" t="s">
+    <row r="354" spans="1:1">
+      <c r="A354" s="6" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+    <row r="502" spans="1:1">
+      <c r="A502" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="31" t="b">
+    <row r="503" spans="1:1">
+      <c r="A503" s="31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+    <row r="504" spans="1:1">
+      <c r="A504" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+    <row r="505" spans="1:1">
+      <c r="A505" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+    <row r="506" spans="1:1">
+      <c r="A506" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+    <row r="507" spans="1:1">
+      <c r="A507" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+    <row r="508" spans="1:1">
+      <c r="A508" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
+    <row r="509" spans="1:1">
+      <c r="A509" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
+    <row r="510" spans="1:1">
+      <c r="A510" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
+    <row r="511" spans="1:1">
+      <c r="A511" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
+    <row r="512" spans="1:1">
+      <c r="A512" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
+    <row r="513" spans="1:1">
+      <c r="A513" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
+    <row r="514" spans="1:1">
+      <c r="A514" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
+    <row r="515" spans="1:1">
+      <c r="A515" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
+    <row r="516" spans="1:1">
+      <c r="A516" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
+    <row r="517" spans="1:1">
+      <c r="A517" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
+    <row r="518" spans="1:1">
+      <c r="A518" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
+    <row r="519" spans="1:1">
+      <c r="A519" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
+    <row r="521" spans="1:1">
+      <c r="A521" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
+    <row r="522" spans="1:1">
+      <c r="A522" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
+    <row r="523" spans="1:1">
+      <c r="A523" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+    <row r="524" spans="1:1">
+      <c r="A524" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
+    <row r="525" spans="1:1">
+      <c r="A525" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
+    <row r="526" spans="1:1">
+      <c r="A526" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
+    <row r="527" spans="1:1">
+      <c r="A527" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
+    <row r="528" spans="1:1">
+      <c r="A528" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
+    <row r="529" spans="1:1">
+      <c r="A529" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
+    <row r="531" spans="1:1">
+      <c r="A531" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
+    <row r="532" spans="1:1">
+      <c r="A532" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
+    <row r="533" spans="1:1">
+      <c r="A533" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
+    <row r="534" spans="1:1">
+      <c r="A534" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
+    <row r="535" spans="1:1">
+      <c r="A535" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
+    <row r="536" spans="1:1">
+      <c r="A536" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
+    <row r="537" spans="1:1">
+      <c r="A537" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
+    <row r="538" spans="1:1">
+      <c r="A538" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
+    <row r="542" spans="1:1">
+      <c r="A542" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+    <row r="543" spans="1:1">
+      <c r="A543" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
+    <row r="544" spans="1:1">
+      <c r="A544" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+    <row r="545" spans="1:1">
+      <c r="A545" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
+    <row r="546" spans="1:1">
+      <c r="A546" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
+    <row r="547" spans="1:1">
+      <c r="A547" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
+    <row r="548" spans="1:1">
+      <c r="A548" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
+    <row r="549" spans="1:1">
+      <c r="A549" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
+    <row r="550" spans="1:1">
+      <c r="A550" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+    <row r="551" spans="1:1">
+      <c r="A551" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
+    <row r="552" spans="1:1">
+      <c r="A552" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
+    <row r="553" spans="1:1">
+      <c r="A553" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
+    <row r="554" spans="1:1">
+      <c r="A554" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
+    <row r="555" spans="1:1">
+      <c r="A555" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
+    <row r="556" spans="1:1">
+      <c r="A556" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
+    <row r="557" spans="1:1">
+      <c r="A557" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
+    <row r="558" spans="1:1">
+      <c r="A558" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+    <row r="561" spans="1:1">
+      <c r="A561" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
+    <row r="562" spans="1:1">
+      <c r="A562" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
+    <row r="563" spans="1:1">
+      <c r="A563" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
+    <row r="566" spans="1:1">
+      <c r="A566" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
+    <row r="567" spans="1:1">
+      <c r="A567" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
+    <row r="568" spans="1:1">
+      <c r="A568" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
+    <row r="569" spans="1:1">
+      <c r="A569" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
+    <row r="570" spans="1:1">
+      <c r="A570" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
+    <row r="571" spans="1:1">
+      <c r="A571" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
+    <row r="573" spans="1:1">
+      <c r="A573" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
+    <row r="574" spans="1:1">
+      <c r="A574" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
+    <row r="575" spans="1:1">
+      <c r="A575" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
+    <row r="576" spans="1:1">
+      <c r="A576" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
+    <row r="577" spans="1:1">
+      <c r="A577" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
+    <row r="578" spans="1:1">
+      <c r="A578" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
+    <row r="579" spans="1:1">
+      <c r="A579" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
+    <row r="582" spans="1:1">
+      <c r="A582" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
+    <row r="583" spans="1:1">
+      <c r="A583" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
+    <row r="584" spans="1:1">
+      <c r="A584" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
+    <row r="585" spans="1:1">
+      <c r="A585" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
+    <row r="586" spans="1:1">
+      <c r="A586" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
+    <row r="587" spans="1:1">
+      <c r="A587" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
+    <row r="588" spans="1:1">
+      <c r="A588" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
+    <row r="589" spans="1:1">
+      <c r="A589" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
+    <row r="590" spans="1:1">
+      <c r="A590" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
+    <row r="591" spans="1:1">
+      <c r="A591" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
+    <row r="592" spans="1:1">
+      <c r="A592" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
+    <row r="593" spans="1:1">
+      <c r="A593" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
+    <row r="594" spans="1:1">
+      <c r="A594" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
+    <row r="595" spans="1:1">
+      <c r="A595" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
+    <row r="597" spans="1:1">
+      <c r="A597" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
+    <row r="598" spans="1:1">
+      <c r="A598" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
+    <row r="599" spans="1:1">
+      <c r="A599" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
+    <row r="600" spans="1:1">
+      <c r="A600" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
+    <row r="602" spans="1:1">
+      <c r="A602" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
+    <row r="603" spans="1:1">
+      <c r="A603" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
+    <row r="604" spans="1:1">
+      <c r="A604" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+    <row r="605" spans="1:1">
+      <c r="A605" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
+    <row r="606" spans="1:1">
+      <c r="A606" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
+    <row r="607" spans="1:1">
+      <c r="A607" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
+    <row r="608" spans="1:1">
+      <c r="A608" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
+    <row r="609" spans="1:1">
+      <c r="A609" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
+    <row r="610" spans="1:1">
+      <c r="A610" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
+    <row r="611" spans="1:1">
+      <c r="A611" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
+    <row r="612" spans="1:1">
+      <c r="A612" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
+    <row r="613" spans="1:1">
+      <c r="A613" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
+    <row r="614" spans="1:1">
+      <c r="A614" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
+    <row r="615" spans="1:1">
+      <c r="A615" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
+    <row r="616" spans="1:1">
+      <c r="A616" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
+    <row r="617" spans="1:1">
+      <c r="A617" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
+    <row r="618" spans="1:1">
+      <c r="A618" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
+    <row r="619" spans="1:1">
+      <c r="A619" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
+    <row r="620" spans="1:1">
+      <c r="A620" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
+    <row r="621" spans="1:1">
+      <c r="A621" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
+    <row r="622" spans="1:1">
+      <c r="A622" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
+    <row r="623" spans="1:1">
+      <c r="A623" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
+    <row r="624" spans="1:1">
+      <c r="A624" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
+    <row r="625" spans="1:1">
+      <c r="A625" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
+    <row r="626" spans="1:1">
+      <c r="A626" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
+    <row r="627" spans="1:1">
+      <c r="A627" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
+    <row r="628" spans="1:1">
+      <c r="A628" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
+    <row r="629" spans="1:1">
+      <c r="A629" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
+    <row r="634" spans="1:1">
+      <c r="A634" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
+    <row r="635" spans="1:1">
+      <c r="A635" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
+    <row r="636" spans="1:1">
+      <c r="A636" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+    <row r="637" spans="1:1">
+      <c r="A637" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
+    <row r="638" spans="1:1">
+      <c r="A638" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
+    <row r="639" spans="1:1">
+      <c r="A639" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
+    <row r="640" spans="1:1">
+      <c r="A640" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
+    <row r="641" spans="1:1">
+      <c r="A641" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
+    <row r="642" spans="1:1">
+      <c r="A642" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
+    <row r="643" spans="1:1">
+      <c r="A643" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
+    <row r="644" spans="1:1">
+      <c r="A644" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
+    <row r="645" spans="1:1">
+      <c r="A645" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
+    <row r="646" spans="1:1">
+      <c r="A646" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
+    <row r="647" spans="1:1">
+      <c r="A647" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
+    <row r="648" spans="1:1">
+      <c r="A648" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
+    <row r="649" spans="1:1">
+      <c r="A649" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
+    <row r="650" spans="1:1">
+      <c r="A650" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
+    <row r="651" spans="1:1">
+      <c r="A651" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
+    <row r="652" spans="1:1">
+      <c r="A652" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
+    <row r="653" spans="1:1">
+      <c r="A653" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
+    <row r="654" spans="1:1">
+      <c r="A654" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
+    <row r="655" spans="1:1">
+      <c r="A655" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
+    <row r="656" spans="1:1">
+      <c r="A656" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
+    <row r="657" spans="1:1">
+      <c r="A657" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
+    <row r="658" spans="1:1">
+      <c r="A658" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
+    <row r="659" spans="1:1">
+      <c r="A659" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
+    <row r="660" spans="1:1">
+      <c r="A660" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
+    <row r="661" spans="1:1">
+      <c r="A661" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
+    <row r="662" spans="1:1">
+      <c r="A662" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
+    <row r="663" spans="1:1">
+      <c r="A663" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
+    <row r="664" spans="1:1">
+      <c r="A664" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" t="s">
+    <row r="665" spans="1:1">
+      <c r="A665" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
+    <row r="666" spans="1:1">
+      <c r="A666" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
+    <row r="667" spans="1:1">
+      <c r="A667" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
+    <row r="668" spans="1:1">
+      <c r="A668" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
+    <row r="669" spans="1:1">
+      <c r="A669" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
+    <row r="670" spans="1:1">
+      <c r="A670" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
+    <row r="671" spans="1:1">
+      <c r="A671" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
+    <row r="672" spans="1:1">
+      <c r="A672" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
+    <row r="673" spans="1:1">
+      <c r="A673" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
+    <row r="674" spans="1:1">
+      <c r="A674" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" t="s">
+    <row r="675" spans="1:1">
+      <c r="A675" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" t="s">
+    <row r="676" spans="1:1">
+      <c r="A676" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
+    <row r="677" spans="1:1">
+      <c r="A677" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
+    <row r="678" spans="1:1">
+      <c r="A678" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" t="s">
+    <row r="679" spans="1:1">
+      <c r="A679" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
+    <row r="680" spans="1:1">
+      <c r="A680" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" t="s">
+    <row r="681" spans="1:1">
+      <c r="A681" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
+    <row r="682" spans="1:1">
+      <c r="A682" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
+    <row r="683" spans="1:1">
+      <c r="A683" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
+    <row r="684" spans="1:1">
+      <c r="A684" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
+    <row r="685" spans="1:1">
+      <c r="A685" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
+    <row r="686" spans="1:1">
+      <c r="A686" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
+    <row r="687" spans="1:1">
+      <c r="A687" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
+    <row r="688" spans="1:1">
+      <c r="A688" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" t="s">
+    <row r="689" spans="1:1">
+      <c r="A689" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
+    <row r="690" spans="1:1">
+      <c r="A690" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
+    <row r="691" spans="1:1">
+      <c r="A691" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
+    <row r="692" spans="1:1">
+      <c r="A692" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
+    <row r="693" spans="1:1">
+      <c r="A693" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
+    <row r="694" spans="1:1">
+      <c r="A694" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
+    <row r="695" spans="1:1">
+      <c r="A695" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
+    <row r="696" spans="1:1">
+      <c r="A696" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" t="s">
+    <row r="697" spans="1:1">
+      <c r="A697" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
+    <row r="698" spans="1:1">
+      <c r="A698" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" t="s">
+    <row r="699" spans="1:1">
+      <c r="A699" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
+    <row r="700" spans="1:1">
+      <c r="A700" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
+    <row r="701" spans="1:1">
+      <c r="A701" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
+    <row r="702" spans="1:1">
+      <c r="A702" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
+    <row r="703" spans="1:1">
+      <c r="A703" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
+    <row r="704" spans="1:1">
+      <c r="A704" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
+    <row r="705" spans="1:1">
+      <c r="A705" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
+    <row r="706" spans="1:1">
+      <c r="A706" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
+    <row r="707" spans="1:1">
+      <c r="A707" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
+    <row r="708" spans="1:1">
+      <c r="A708" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
+    <row r="709" spans="1:1">
+      <c r="A709" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
+    <row r="710" spans="1:1">
+      <c r="A710" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
+    <row r="711" spans="1:1">
+      <c r="A711" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
+    <row r="712" spans="1:1">
+      <c r="A712" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
+    <row r="713" spans="1:1">
+      <c r="A713" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
+    <row r="714" spans="1:1">
+      <c r="A714" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
+    <row r="715" spans="1:1">
+      <c r="A715" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
+    <row r="716" spans="1:1">
+      <c r="A716" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
+    <row r="717" spans="1:1">
+      <c r="A717" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" t="s">
+    <row r="718" spans="1:1">
+      <c r="A718" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" t="s">
+    <row r="719" spans="1:1">
+      <c r="A719" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
+    <row r="720" spans="1:1">
+      <c r="A720" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" t="s">
+    <row r="721" spans="1:1">
+      <c r="A721" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
+    <row r="722" spans="1:1">
+      <c r="A722" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
+    <row r="723" spans="1:1">
+      <c r="A723" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
+    <row r="724" spans="1:1">
+      <c r="A724" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
+    <row r="725" spans="1:1">
+      <c r="A725" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
+    <row r="726" spans="1:1">
+      <c r="A726" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
+    <row r="727" spans="1:1">
+      <c r="A727" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
+    <row r="728" spans="1:1">
+      <c r="A728" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" t="s">
+    <row r="729" spans="1:1">
+      <c r="A729" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
+    <row r="730" spans="1:1">
+      <c r="A730" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
+    <row r="731" spans="1:1">
+      <c r="A731" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
+    <row r="732" spans="1:1">
+      <c r="A732" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
+    <row r="733" spans="1:1">
+      <c r="A733" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" t="s">
+    <row r="734" spans="1:1">
+      <c r="A734" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
+    <row r="735" spans="1:1">
+      <c r="A735" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
+    <row r="736" spans="1:1">
+      <c r="A736" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
+    <row r="737" spans="1:1">
+      <c r="A737" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
+    <row r="738" spans="1:1">
+      <c r="A738" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" t="s">
+    <row r="739" spans="1:1">
+      <c r="A739" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" t="s">
+    <row r="740" spans="1:1">
+      <c r="A740" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" t="s">
+    <row r="741" spans="1:1">
+      <c r="A741" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" t="s">
+    <row r="742" spans="1:1">
+      <c r="A742" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" t="s">
+    <row r="743" spans="1:1">
+      <c r="A743" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" t="s">
+    <row r="744" spans="1:1">
+      <c r="A744" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" t="s">
+    <row r="745" spans="1:1">
+      <c r="A745" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" t="s">
+    <row r="746" spans="1:1">
+      <c r="A746" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
+    <row r="747" spans="1:1">
+      <c r="A747" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" t="s">
+    <row r="748" spans="1:1">
+      <c r="A748" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" t="s">
+    <row r="749" spans="1:1">
+      <c r="A749" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" t="s">
+    <row r="750" spans="1:1">
+      <c r="A750" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" t="s">
+    <row r="751" spans="1:1">
+      <c r="A751" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
+    <row r="752" spans="1:1">
+      <c r="A752" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" t="s">
+    <row r="753" spans="1:1">
+      <c r="A753" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
+    <row r="754" spans="1:1">
+      <c r="A754" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" t="b">
+    <row r="755" spans="1:1">
+      <c r="A755" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
+    <row r="756" spans="1:1">
+      <c r="A756" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
+    <row r="757" spans="1:1">
+      <c r="A757" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" t="s">
+    <row r="758" spans="1:1">
+      <c r="A758" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" t="s">
+    <row r="759" spans="1:1">
+      <c r="A759" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
+    <row r="760" spans="1:1">
+      <c r="A760" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
+    <row r="761" spans="1:1">
+      <c r="A761" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
+    <row r="762" spans="1:1">
+      <c r="A762" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" t="s">
+    <row r="763" spans="1:1">
+      <c r="A763" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" t="s">
+    <row r="764" spans="1:1">
+      <c r="A764" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" t="s">
+    <row r="765" spans="1:1">
+      <c r="A765" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" t="s">
+    <row r="766" spans="1:1">
+      <c r="A766" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
+    <row r="767" spans="1:1">
+      <c r="A767" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
+    <row r="768" spans="1:1">
+      <c r="A768" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
+    <row r="769" spans="1:1">
+      <c r="A769" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
+    <row r="770" spans="1:1">
+      <c r="A770" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
+    <row r="771" spans="1:1">
+      <c r="A771" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
+    <row r="772" spans="1:1">
+      <c r="A772" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
+    <row r="773" spans="1:1">
+      <c r="A773" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
+    <row r="774" spans="1:1">
+      <c r="A774" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
+    <row r="775" spans="1:1">
+      <c r="A775" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" t="s">
+    <row r="776" spans="1:1">
+      <c r="A776" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
+    <row r="777" spans="1:1">
+      <c r="A777" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" t="s">
+    <row r="778" spans="1:1">
+      <c r="A778" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
+    <row r="779" spans="1:1">
+      <c r="A779" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
+    <row r="780" spans="1:1">
+      <c r="A780" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
+    <row r="781" spans="1:1">
+      <c r="A781" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" t="s">
+    <row r="782" spans="1:1">
+      <c r="A782" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
+    <row r="783" spans="1:1">
+      <c r="A783" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" t="s">
+    <row r="784" spans="1:1">
+      <c r="A784" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" t="s">
+    <row r="785" spans="1:1">
+      <c r="A785" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
+    <row r="786" spans="1:1">
+      <c r="A786" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
+    <row r="787" spans="1:1">
+      <c r="A787" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
+    <row r="788" spans="1:1">
+      <c r="A788" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
+    <row r="789" spans="1:1">
+      <c r="A789" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
+    <row r="790" spans="1:1">
+      <c r="A790" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
+    <row r="791" spans="1:1">
+      <c r="A791" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
+    <row r="792" spans="1:1">
+      <c r="A792" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
+    <row r="793" spans="1:1">
+      <c r="A793" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
+    <row r="794" spans="1:1">
+      <c r="A794" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
+    <row r="795" spans="1:1">
+      <c r="A795" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
+    <row r="796" spans="1:1">
+      <c r="A796" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
+    <row r="797" spans="1:1">
+      <c r="A797" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
+    <row r="798" spans="1:1">
+      <c r="A798" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
+    <row r="799" spans="1:1">
+      <c r="A799" t="s">
         <v>871</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A78">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A84">
+  <conditionalFormatting sqref="A79:A86">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A76:A84">
-      <formula1>LEN(A76)=LEN(SUBSTITUTE(A76," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A78:A86">
+      <formula1>LEN(A78)=LEN(SUBSTITUTE(A78," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B76 B78:B87"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B78 B80:B89"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Templates/Template.xlsx
+++ b/Templates/Template.xlsx
@@ -18,8 +18,8 @@
     <sheet name="types" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Reserved">types!$A$169:$A$799</definedName>
-    <definedName name="Special">types!$A$158:$A$166</definedName>
+    <definedName name="Reserved">types!$A$170:$A$800</definedName>
+    <definedName name="Special">types!$A$159:$A$167</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="899">
   <si>
     <t>type</t>
   </si>
@@ -2718,10 +2718,16 @@
     <t>style</t>
   </si>
   <si>
-    <t>Applies to groups and repeats. Group of question will appear collapsed on startup.</t>
-  </si>
-  <si>
     <t>Applies to groups and repeats, when style is set to pages. Displays group of questions on a separate page.</t>
+  </si>
+  <si>
+    <t>minimal compact</t>
+  </si>
+  <si>
+    <t>Applies to groups and repeats. Group of questions will appear collapsed on startup.</t>
+  </si>
+  <si>
+    <t>Applies to repeats. Group of questions is displayed both collapsed and hidden.</t>
   </si>
 </sst>
 </file>
@@ -3000,6 +3006,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3032,14 +3046,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3123,15 +3129,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:X236"/>
   <tableColumns count="24">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="4"/>
-    <tableColumn id="4" name="hint" dataDxfId="3"/>
+    <tableColumn id="3" name="label" dataDxfId="5"/>
+    <tableColumn id="4" name="hint" dataDxfId="4"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="2"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="3"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
     <tableColumn id="8" name="appearance"/>
@@ -3465,7 +3471,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3507,7 +3513,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3666,7 +3672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B233">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <dataValidations xWindow="732" yWindow="283" count="20">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:C1048576"/>
@@ -3720,13 +3726,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$129:$A$134</xm:f>
+            <xm:f>types!$A$130:$A$135</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$50</xm:f>
+            <xm:f>types!$A$35:$A$51</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -3930,9 +3936,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E799"/>
+  <dimension ref="A2:E800"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75"/>
   <cols>
@@ -4299,4087 +4305,4095 @@
         <v>892</v>
       </c>
       <c r="B49" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>896</v>
+      </c>
+      <c r="B50" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
         <v>893</v>
       </c>
-      <c r="B50" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="13.15">
-      <c r="A52" s="15" t="s">
+      <c r="B51" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13.15">
+      <c r="A53" s="15" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>120</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.15">
-      <c r="A56" s="15" t="s">
+    <row r="57" spans="1:3" ht="13.15">
+      <c r="A57" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="B57" t="s">
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.15">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" s="9" customFormat="1" ht="13.15">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:3" ht="13.15">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" s="9" customFormat="1" ht="13.15">
+      <c r="A60" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="10" t="s">
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:3" s="23" customFormat="1" ht="13.15">
-      <c r="A76" s="16" t="s">
-        <v>214</v>
-      </c>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="21" t="s">
+    <row r="77" spans="1:3" s="23" customFormat="1" ht="13.15">
+      <c r="A77" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B78" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="22"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>199</v>
-      </c>
+      <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>202</v>
+        <v>309</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B87" s="19" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B90" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="13.15">
-      <c r="A91" s="16" t="s">
+    <row r="92" spans="1:2" ht="13.15">
+      <c r="A92" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="10" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="25.5">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:2" ht="25.5">
+      <c r="A96" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="25.5">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:2" ht="25.5">
+      <c r="A123" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="13.15">
-      <c r="A128" s="16" t="s">
+    <row r="129" spans="1:3" ht="13.15">
+      <c r="A129" s="16" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B130" t="s">
-        <v>236</v>
+        <v>231</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="B131" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B132" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>881</v>
+        <v>235</v>
+      </c>
+      <c r="B133" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13.15">
-      <c r="A136" s="15" t="s">
+    <row r="137" spans="1:3" ht="13.15">
+      <c r="A137" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="23" t="s">
+    <row r="138" spans="1:3">
+      <c r="A138" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B138" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C137" s="30"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C138" s="1"/>
+      <c r="C138" s="30"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="157" spans="1:3" ht="13.15">
-      <c r="A157" s="15" t="s">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="158" spans="1:3" ht="13.15">
+      <c r="A158" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>873</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="32" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="32" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="32" t="s">
-        <v>68</v>
+        <v>876</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="32" t="s">
-        <v>877</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="32" t="s">
-        <v>134</v>
+        <v>877</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="32" t="s">
-        <v>878</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="32" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="13.15">
-      <c r="A168" s="16" t="s">
+    <row r="169" spans="1:2" ht="13.15">
+      <c r="A169" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="6" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="6" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>319</v>
+        <v>507</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>508</v>
+        <v>319</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>321</v>
+        <v>510</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>511</v>
+        <v>322</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>323</v>
+        <v>514</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>515</v>
+        <v>324</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>325</v>
+        <v>518</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>519</v>
+        <v>325</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>334</v>
+        <v>533</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>534</v>
+        <v>334</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>335</v>
+        <v>543</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>544</v>
+        <v>335</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>340</v>
+        <v>546</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>547</v>
+        <v>340</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>341</v>
+        <v>551</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>552</v>
+        <v>341</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>344</v>
+        <v>560</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>561</v>
+        <v>344</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>345</v>
+        <v>564</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>565</v>
+        <v>345</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>348</v>
+        <v>565</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>566</v>
+        <v>348</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>349</v>
+        <v>570</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>571</v>
+        <v>350</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>352</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>574</v>
+        <v>352</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>353</v>
+        <v>578</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>579</v>
+        <v>354</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>355</v>
+        <v>579</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>580</v>
+        <v>355</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>361</v>
+        <v>585</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>586</v>
+        <v>361</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>364</v>
+        <v>592</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>593</v>
+        <v>364</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>366</v>
+        <v>598</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>599</v>
+        <v>366</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>371</v>
+        <v>614</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>615</v>
+        <v>371</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>372</v>
+        <v>615</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>616</v>
+        <v>372</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>375</v>
+        <v>621</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>622</v>
+        <v>375</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>376</v>
+        <v>622</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>623</v>
+        <v>376</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="503" spans="1:1">
-      <c r="A503" s="31" t="b">
+    <row r="504" spans="1:1">
+      <c r="A504" s="31" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1">
-      <c r="A504" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>625</v>
+        <v>382</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>384</v>
+        <v>629</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>630</v>
+        <v>385</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>388</v>
+        <v>634</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>635</v>
+        <v>388</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>389</v>
+        <v>635</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>636</v>
+        <v>389</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>391</v>
+        <v>641</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>642</v>
+        <v>393</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>394</v>
+        <v>643</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>644</v>
+        <v>394</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>400</v>
+        <v>651</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>652</v>
+        <v>400</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>402</v>
+        <v>654</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>655</v>
+        <v>402</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>404</v>
+        <v>657</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>658</v>
+        <v>404</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>405</v>
+        <v>658</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>659</v>
+        <v>406</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>407</v>
+        <v>659</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>660</v>
+        <v>407</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>410</v>
+        <v>667</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>668</v>
+        <v>410</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>411</v>
+        <v>669</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>670</v>
+        <v>411</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>414</v>
+        <v>683</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>684</v>
+        <v>414</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>418</v>
+        <v>706</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>707</v>
+        <v>418</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>419</v>
+        <v>709</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>710</v>
+        <v>419</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>424</v>
+        <v>716</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>717</v>
+        <v>424</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>425</v>
+        <v>717</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>718</v>
+        <v>432</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>433</v>
+        <v>720</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>721</v>
+        <v>433</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>434</v>
+        <v>721</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>722</v>
+        <v>434</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>435</v>
+        <v>735</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>736</v>
+        <v>435</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>439</v>
+        <v>746</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>747</v>
+        <v>443</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>448</v>
+        <v>749</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>750</v>
+        <v>448</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" t="s">
-        <v>450</v>
+        <v>761</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" t="s">
-        <v>762</v>
+        <v>450</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>452</v>
+        <v>762</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" t="s">
-        <v>763</v>
+        <v>452</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" t="s">
-        <v>455</v>
+        <v>767</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" t="s">
-        <v>768</v>
+        <v>455</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" t="s">
-        <v>463</v>
+        <v>781</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" t="s">
-        <v>782</v>
+        <v>463</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" t="s">
-        <v>467</v>
+        <v>785</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" t="s">
-        <v>786</v>
+        <v>467</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" t="s">
-        <v>471</v>
+        <v>788</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" t="s">
-        <v>789</v>
+        <v>471</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730" t="s">
-        <v>473</v>
+        <v>813</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" t="s">
-        <v>814</v>
+        <v>473</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" t="s">
-        <v>474</v>
+        <v>814</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734" t="s">
-        <v>815</v>
+        <v>475</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" t="s">
-        <v>477</v>
+        <v>815</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" t="s">
-        <v>816</v>
+        <v>477</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>478</v>
+        <v>818</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" t="s">
-        <v>819</v>
+        <v>478</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="755" spans="1:1">
-      <c r="A755" t="b">
+    <row r="756" spans="1:1">
+      <c r="A756" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1">
-      <c r="A756" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" t="s">
-        <v>486</v>
+        <v>835</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" t="s">
-        <v>836</v>
+        <v>487</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" t="s">
-        <v>492</v>
+        <v>842</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" t="s">
-        <v>843</v>
+        <v>492</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" t="s">
-        <v>497</v>
+        <v>854</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" t="s">
-        <v>855</v>
+        <v>497</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" t="s">
-        <v>498</v>
+        <v>855</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" t="s">
-        <v>856</v>
+        <v>498</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" t="s">
-        <v>500</v>
+        <v>857</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" t="s">
-        <v>858</v>
+        <v>500</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" t="s">
         <v>871</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A78">
+  <conditionalFormatting sqref="A79">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A86">
+  <conditionalFormatting sqref="A80:A87">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A78:A86">
-      <formula1>LEN(A78)=LEN(SUBSTITUTE(A78," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A79:A87">
+      <formula1>LEN(A79)=LEN(SUBSTITUTE(A79," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B78 B80:B89"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B79 B81:B90"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Templates/Template.xlsx
+++ b/Templates/Template.xlsx
@@ -18,8 +18,8 @@
     <sheet name="types" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Reserved">types!$A$170:$A$800</definedName>
-    <definedName name="Special">types!$A$159:$A$167</definedName>
+    <definedName name="Reserved">types!$A$171:$A$801</definedName>
+    <definedName name="Special">types!$A$160:$A$168</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="901">
   <si>
     <t>type</t>
   </si>
@@ -399,9 +399,6 @@
     <t>Use a comma separated list to set default values for select_multiple fields.</t>
   </si>
   <si>
-    <t>Set the default date to today's date.</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -2728,6 +2725,15 @@
   </si>
   <si>
     <t>Applies to repeats. Group of questions is displayed both collapsed and hidden.</t>
+  </si>
+  <si>
+    <t>Set the default date to today's date, at midnight. Applies to date questions.</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>Sets the default value to the current date and time. Applies to time and dateTime questions.</t>
   </si>
 </sst>
 </file>
@@ -3471,7 +3477,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3513,7 +3519,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3571,7 +3577,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3589,10 +3595,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>105</v>
@@ -3607,19 +3613,19 @@
         <v>57</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U1" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>227</v>
-      </c>
       <c r="W1" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="X1" s="27" t="s">
         <v>264</v>
-      </c>
-      <c r="X1" s="27" t="s">
-        <v>265</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -3635,7 +3641,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>61</v>
@@ -3726,7 +3732,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$130:$A$135</xm:f>
+            <xm:f>types!$A$131:$A$136</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
@@ -3899,19 +3905,19 @@
         <v>19</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -3936,7 +3942,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E800"/>
+  <dimension ref="A2:E801"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4041,10 +4047,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4089,58 +4095,58 @@
     </row>
     <row r="18" spans="1:2" ht="25.5">
       <c r="A18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.5">
       <c r="A19" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5">
       <c r="A20" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="38.25">
       <c r="A21" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.15">
@@ -4190,10 +4196,10 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s">
         <v>239</v>
-      </c>
-      <c r="B35" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4201,127 +4207,127 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
         <v>126</v>
-      </c>
-      <c r="B37" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" t="s">
         <v>251</v>
-      </c>
-      <c r="B38" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" t="s">
         <v>262</v>
-      </c>
-      <c r="B41" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" t="s">
         <v>253</v>
-      </c>
-      <c r="B42" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>886</v>
+      </c>
+      <c r="B43" t="s">
         <v>887</v>
-      </c>
-      <c r="B43" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B44" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B45" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
         <v>128</v>
-      </c>
-      <c r="B47" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" t="s">
         <v>269</v>
-      </c>
-      <c r="B48" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B49" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B50" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B51" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.15">
@@ -4334,4066 +4340,4074 @@
         <v>119</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>898</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>899</v>
+      </c>
+      <c r="B55" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>120</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.15">
-      <c r="A57" s="15" t="s">
+    <row r="58" spans="1:3" ht="13.15">
+      <c r="A58" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" t="s">
         <v>244</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="B58" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="13.15">
-      <c r="A59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" s="9" customFormat="1" ht="13.15">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:3" ht="13.15">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:3" s="9" customFormat="1" ht="13.15">
+      <c r="A61" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="10" t="s">
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:3" s="23" customFormat="1" ht="13.15">
-      <c r="A77" s="16" t="s">
-        <v>214</v>
-      </c>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B78" s="21" t="s">
+    <row r="78" spans="1:3" s="23" customFormat="1" ht="13.15">
+      <c r="A78" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="22"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>199</v>
-      </c>
+      <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>202</v>
+        <v>308</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B91" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B90" s="19" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="13.15">
-      <c r="A92" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="10" t="s">
+    </row>
+    <row r="93" spans="1:2" ht="13.15">
+      <c r="A93" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B95" s="1" t="s">
+    </row>
+    <row r="97" spans="1:2" ht="25.5">
+      <c r="A97" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="25.5">
-      <c r="A96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B122" s="1" t="s">
+    </row>
+    <row r="124" spans="1:2" ht="25.5">
+      <c r="A124" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="25.5">
-      <c r="A123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="13.15">
-      <c r="A129" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>232</v>
+    </row>
+    <row r="130" spans="1:3" ht="13.15">
+      <c r="A130" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B131" t="s">
-        <v>236</v>
+        <v>230</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
+      </c>
+      <c r="B132" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B133" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>881</v>
+        <v>234</v>
+      </c>
+      <c r="B134" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="13.15">
-      <c r="A137" s="15" t="s">
+    </row>
+    <row r="138" spans="1:3" ht="13.15">
+      <c r="A138" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B139" s="23" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B138" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="C138" s="30"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C139" s="1"/>
+      <c r="C139" s="30"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="158" spans="1:3" ht="13.15">
-      <c r="A158" s="15" t="s">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="159" spans="1:3" ht="13.15">
+      <c r="A159" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="B159" t="s">
         <v>872</v>
-      </c>
-      <c r="B158" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="32" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="32" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="32" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="32" t="s">
-        <v>68</v>
+        <v>875</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="32" t="s">
-        <v>877</v>
+        <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="32" t="s">
-        <v>134</v>
+        <v>876</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="32" t="s">
-        <v>878</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="32" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="13.15">
-      <c r="A169" s="16" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="13.15">
+      <c r="A170" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B170" t="s">
         <v>315</v>
       </c>
-      <c r="B169" t="s">
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="6" t="s">
-        <v>442</v>
+      <c r="A295" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" t="s">
-        <v>503</v>
+      <c r="A356" s="6" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>319</v>
+        <v>506</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>508</v>
+        <v>318</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>321</v>
+        <v>509</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>511</v>
+        <v>321</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>323</v>
+        <v>513</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>515</v>
+        <v>323</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>325</v>
+        <v>517</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>519</v>
+        <v>324</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>334</v>
+        <v>532</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>534</v>
+        <v>333</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>335</v>
+        <v>542</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>544</v>
+        <v>334</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>340</v>
+        <v>545</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>547</v>
+        <v>339</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>341</v>
+        <v>550</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>552</v>
+        <v>340</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>344</v>
+        <v>559</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>561</v>
+        <v>343</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>345</v>
+        <v>563</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>565</v>
+        <v>344</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>348</v>
+        <v>564</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>566</v>
+        <v>347</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>349</v>
+        <v>569</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>571</v>
+        <v>349</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>352</v>
+        <v>572</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>574</v>
+        <v>351</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>353</v>
+        <v>577</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>579</v>
+        <v>353</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>355</v>
+        <v>578</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>580</v>
+        <v>354</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>361</v>
+        <v>584</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>586</v>
+        <v>360</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>364</v>
+        <v>591</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>593</v>
+        <v>363</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>366</v>
+        <v>597</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>599</v>
+        <v>365</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>371</v>
+        <v>613</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>615</v>
+        <v>370</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>372</v>
+        <v>614</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>616</v>
+        <v>371</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>375</v>
+        <v>620</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>622</v>
+        <v>374</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>376</v>
+        <v>621</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>623</v>
+        <v>375</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="31" t="b">
+      <c r="A504" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="31" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1">
-      <c r="A505" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>625</v>
+        <v>381</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>384</v>
+        <v>628</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>630</v>
+        <v>384</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>388</v>
+        <v>633</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>635</v>
+        <v>387</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>389</v>
+        <v>634</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>636</v>
+        <v>388</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>391</v>
+        <v>640</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>642</v>
+        <v>392</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>394</v>
+        <v>642</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>644</v>
+        <v>393</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>400</v>
+        <v>650</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>652</v>
+        <v>399</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>402</v>
+        <v>653</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>655</v>
+        <v>401</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>404</v>
+        <v>656</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>658</v>
+        <v>403</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>405</v>
+        <v>657</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>659</v>
+        <v>405</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>407</v>
+        <v>658</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>660</v>
+        <v>406</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>410</v>
+        <v>666</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>668</v>
+        <v>409</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>411</v>
+        <v>668</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>670</v>
+        <v>410</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>414</v>
+        <v>682</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>684</v>
+        <v>413</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>418</v>
+        <v>705</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>707</v>
+        <v>417</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>419</v>
+        <v>708</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>710</v>
+        <v>418</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>424</v>
+        <v>715</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>717</v>
+        <v>423</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>425</v>
+        <v>716</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>718</v>
+        <v>431</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>433</v>
+        <v>719</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>721</v>
+        <v>432</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>434</v>
+        <v>720</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>722</v>
+        <v>433</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>435</v>
+        <v>734</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>736</v>
+        <v>434</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>439</v>
+        <v>745</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>747</v>
+        <v>442</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>448</v>
+        <v>748</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>750</v>
+        <v>447</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" t="s">
-        <v>450</v>
+        <v>760</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>762</v>
+        <v>449</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" t="s">
-        <v>452</v>
+        <v>761</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" t="s">
-        <v>763</v>
+        <v>451</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" t="s">
-        <v>455</v>
+        <v>766</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" t="s">
-        <v>768</v>
+        <v>454</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" t="s">
-        <v>463</v>
+        <v>780</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" t="s">
-        <v>782</v>
+        <v>462</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" t="s">
-        <v>467</v>
+        <v>784</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>786</v>
+        <v>466</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" t="s">
-        <v>471</v>
+        <v>787</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" t="s">
-        <v>789</v>
+        <v>470</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" t="s">
-        <v>473</v>
+        <v>812</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" t="s">
-        <v>814</v>
+        <v>472</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" t="s">
-        <v>474</v>
+        <v>813</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" t="s">
-        <v>815</v>
+        <v>474</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" t="s">
-        <v>477</v>
+        <v>814</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" t="s">
-        <v>816</v>
+        <v>476</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" t="s">
-        <v>478</v>
+        <v>817</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" t="s">
-        <v>819</v>
+        <v>477</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" t="b">
+      <c r="A756" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1">
-      <c r="A757" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" t="s">
-        <v>486</v>
+        <v>834</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" t="s">
-        <v>836</v>
+        <v>486</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" t="s">
-        <v>492</v>
+        <v>841</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" t="s">
-        <v>843</v>
+        <v>491</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" t="s">
-        <v>497</v>
+        <v>853</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" t="s">
-        <v>855</v>
+        <v>496</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" t="s">
-        <v>498</v>
+        <v>854</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" t="s">
-        <v>856</v>
+        <v>497</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" t="s">
-        <v>500</v>
+        <v>856</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" t="s">
-        <v>858</v>
+        <v>499</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" t="s">
-        <v>871</v>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" t="s">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A79">
+  <conditionalFormatting sqref="A80">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A87">
+  <conditionalFormatting sqref="A81:A88">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A79:A87">
-      <formula1>LEN(A79)=LEN(SUBSTITUTE(A79," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A80:A88">
+      <formula1>LEN(A80)=LEN(SUBSTITUTE(A80," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B79 B81:B90"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B80 B82:B91"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Templates/Template.xlsx
+++ b/Templates/Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,8 +18,8 @@
     <sheet name="types" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Reserved">types!$A$171:$A$801</definedName>
-    <definedName name="Special">types!$A$160:$A$168</definedName>
+    <definedName name="Reserved">types!$A$172:$A$802</definedName>
+    <definedName name="Special">types!$A$161:$A$169</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="903">
   <si>
     <t>type</t>
   </si>
@@ -2734,6 +2734,12 @@
   </si>
   <si>
     <t>Sets the default value to the current date and time. Applies to time and dateTime questions.</t>
+  </si>
+  <si>
+    <t>hide-input</t>
+  </si>
+  <si>
+    <t>Applies to geopoint fields. Collapses the coordinate entry section of the widget in web form.</t>
   </si>
 </sst>
 </file>
@@ -3012,14 +3018,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3052,6 +3050,14 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3135,15 +3141,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X236" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:X236"/>
   <tableColumns count="24">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="5"/>
-    <tableColumn id="4" name="hint" dataDxfId="4"/>
+    <tableColumn id="3" name="label" dataDxfId="4"/>
+    <tableColumn id="4" name="hint" dataDxfId="3"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="3"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="2"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
     <tableColumn id="8" name="appearance"/>
@@ -3477,7 +3483,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3519,7 +3525,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3678,7 +3684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B233">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <dataValidations xWindow="732" yWindow="283" count="20">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:C1048576"/>
@@ -3732,13 +3738,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$131:$A$136</xm:f>
+            <xm:f>types!$A$132:$A$137</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$51</xm:f>
+            <xm:f>types!$A$35:$A$52</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -3942,7 +3948,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E801"/>
+  <dimension ref="A2:E802"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4330,4084 +4336,4092 @@
         <v>894</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.15">
-      <c r="A53" s="15" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>901</v>
+      </c>
+      <c r="B52" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13.15">
+      <c r="A54" s="15" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>899</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>899</v>
+      </c>
+      <c r="B56" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>120</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.15">
-      <c r="A58" s="15" t="s">
+    <row r="59" spans="1:3" ht="13.15">
+      <c r="A59" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="B59" t="s">
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.15">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" s="9" customFormat="1" ht="13.15">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:3" ht="13.15">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" s="9" customFormat="1" ht="13.15">
+      <c r="A62" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="10" t="s">
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B63" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="7"/>
-    </row>
-    <row r="78" spans="1:3" s="23" customFormat="1" ht="13.15">
-      <c r="A78" s="16" t="s">
-        <v>213</v>
-      </c>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="21" t="s">
+    <row r="79" spans="1:3" s="23" customFormat="1" ht="13.15">
+      <c r="A79" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B80" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="22"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>198</v>
-      </c>
+      <c r="C80" s="22"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>201</v>
+        <v>308</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B89" s="19" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B92" s="19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="13.15">
-      <c r="A93" s="16" t="s">
+    <row r="94" spans="1:2" ht="13.15">
+      <c r="A94" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="10" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="25.5">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:2" ht="25.5">
+      <c r="A98" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="25.5">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:2" ht="25.5">
+      <c r="A125" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="13.15">
-      <c r="A130" s="16" t="s">
+    <row r="131" spans="1:3" ht="13.15">
+      <c r="A131" s="16" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B132" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
+      </c>
+      <c r="B133" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B134" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>880</v>
+        <v>234</v>
+      </c>
+      <c r="B135" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13.15">
-      <c r="A138" s="15" t="s">
+    <row r="139" spans="1:3" ht="13.15">
+      <c r="A139" s="15" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="23" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="B140" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="C139" s="30"/>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C140" s="1"/>
+      <c r="C140" s="30"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C156" s="1"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="159" spans="1:3" ht="13.15">
-      <c r="A159" s="15" t="s">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="160" spans="1:3" ht="13.15">
+      <c r="A160" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>872</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="32" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="32" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="32" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="32" t="s">
-        <v>68</v>
+        <v>875</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="32" t="s">
-        <v>876</v>
+        <v>68</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="32" t="s">
-        <v>133</v>
+        <v>876</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="32" t="s">
-        <v>877</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="32" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="32" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="13.15">
-      <c r="A170" s="16" t="s">
+    <row r="171" spans="1:2" ht="13.15">
+      <c r="A171" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="1" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="6" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>318</v>
+        <v>506</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>507</v>
+        <v>318</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>320</v>
+        <v>509</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>510</v>
+        <v>321</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>322</v>
+        <v>513</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>514</v>
+        <v>323</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>518</v>
+        <v>324</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>333</v>
+        <v>532</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>533</v>
+        <v>333</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>334</v>
+        <v>542</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>543</v>
+        <v>334</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>339</v>
+        <v>545</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>546</v>
+        <v>339</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>340</v>
+        <v>550</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>551</v>
+        <v>340</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>343</v>
+        <v>559</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>560</v>
+        <v>343</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>344</v>
+        <v>563</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>564</v>
+        <v>344</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>347</v>
+        <v>564</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>565</v>
+        <v>347</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>348</v>
+        <v>569</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>570</v>
+        <v>349</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>351</v>
+        <v>572</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>573</v>
+        <v>351</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>352</v>
+        <v>577</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>578</v>
+        <v>353</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>354</v>
+        <v>578</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>579</v>
+        <v>354</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>360</v>
+        <v>584</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>585</v>
+        <v>360</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>363</v>
+        <v>591</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>592</v>
+        <v>363</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>365</v>
+        <v>597</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>598</v>
+        <v>365</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>370</v>
+        <v>613</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>614</v>
+        <v>370</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>371</v>
+        <v>614</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>615</v>
+        <v>371</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>374</v>
+        <v>620</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>621</v>
+        <v>374</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>375</v>
+        <v>621</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>622</v>
+        <v>375</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="505" spans="1:1">
-      <c r="A505" s="31" t="b">
+    <row r="506" spans="1:1">
+      <c r="A506" s="31" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1">
-      <c r="A506" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>624</v>
+        <v>381</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>383</v>
+        <v>628</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>629</v>
+        <v>384</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>387</v>
+        <v>633</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>634</v>
+        <v>387</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>388</v>
+        <v>634</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>635</v>
+        <v>388</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>390</v>
+        <v>640</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>641</v>
+        <v>392</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>393</v>
+        <v>642</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>643</v>
+        <v>393</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>399</v>
+        <v>650</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>651</v>
+        <v>399</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>401</v>
+        <v>653</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>654</v>
+        <v>401</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>403</v>
+        <v>656</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>657</v>
+        <v>403</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>404</v>
+        <v>657</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>658</v>
+        <v>405</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>406</v>
+        <v>658</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>659</v>
+        <v>406</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>409</v>
+        <v>666</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>667</v>
+        <v>409</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>410</v>
+        <v>668</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>669</v>
+        <v>410</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>413</v>
+        <v>682</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>683</v>
+        <v>413</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>417</v>
+        <v>705</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>706</v>
+        <v>417</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>418</v>
+        <v>708</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>709</v>
+        <v>418</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>423</v>
+        <v>715</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>716</v>
+        <v>423</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>424</v>
+        <v>716</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>717</v>
+        <v>431</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>432</v>
+        <v>719</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>720</v>
+        <v>432</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>433</v>
+        <v>720</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>721</v>
+        <v>433</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>434</v>
+        <v>734</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>735</v>
+        <v>434</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>438</v>
+        <v>745</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>746</v>
+        <v>442</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>447</v>
+        <v>748</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>749</v>
+        <v>447</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>449</v>
+        <v>760</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" t="s">
-        <v>761</v>
+        <v>449</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" t="s">
-        <v>451</v>
+        <v>761</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>762</v>
+        <v>451</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" t="s">
-        <v>454</v>
+        <v>766</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" t="s">
-        <v>767</v>
+        <v>454</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" t="s">
-        <v>462</v>
+        <v>780</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" t="s">
-        <v>781</v>
+        <v>462</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>466</v>
+        <v>784</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" t="s">
-        <v>785</v>
+        <v>466</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" t="s">
-        <v>470</v>
+        <v>787</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" t="s">
-        <v>788</v>
+        <v>470</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" t="s">
-        <v>472</v>
+        <v>812</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" t="s">
-        <v>813</v>
+        <v>472</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734" t="s">
-        <v>473</v>
+        <v>813</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" t="s">
-        <v>814</v>
+        <v>474</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" t="s">
-        <v>476</v>
+        <v>814</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" t="s">
-        <v>815</v>
+        <v>476</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" t="s">
-        <v>477</v>
+        <v>817</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" t="s">
-        <v>818</v>
+        <v>477</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="757" spans="1:1">
-      <c r="A757" t="b">
+    <row r="758" spans="1:1">
+      <c r="A758" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="758" spans="1:1">
-      <c r="A758" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" t="s">
-        <v>485</v>
+        <v>834</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" t="s">
-        <v>835</v>
+        <v>486</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" t="s">
-        <v>491</v>
+        <v>841</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" t="s">
-        <v>842</v>
+        <v>491</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" t="s">
-        <v>496</v>
+        <v>853</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" t="s">
-        <v>854</v>
+        <v>496</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" t="s">
-        <v>497</v>
+        <v>854</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" t="s">
-        <v>855</v>
+        <v>497</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" t="s">
-        <v>499</v>
+        <v>856</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" t="s">
-        <v>857</v>
+        <v>499</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" t="s">
         <v>870</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A80">
+  <conditionalFormatting sqref="A81">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A88">
+  <conditionalFormatting sqref="A82:A89">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A80:A88">
-      <formula1>LEN(A80)=LEN(SUBSTITUTE(A80," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A81:A89">
+      <formula1>LEN(A81)=LEN(SUBSTITUTE(A81," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B80 B82:B91"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B81 B83:B92"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Templates/Template.xlsx
+++ b/Templates/Template.xlsx
@@ -18,8 +18,8 @@
     <sheet name="types" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Reserved">types!$A$171:$A$801</definedName>
-    <definedName name="Special">types!$A$160:$A$168</definedName>
+    <definedName name="Reserved">types!$A$172:$A$802</definedName>
+    <definedName name="Special">types!$A$161:$A$169</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="916">
   <si>
     <t>type</t>
   </si>
@@ -2712,9 +2712,6 @@
     <t>draw</t>
   </si>
   <si>
-    <t>Applies to image fields. Presents a button to open a canvas window to sketch on. Also supports annotation on images.</t>
-  </si>
-  <si>
     <t>hide-input</t>
   </si>
   <si>
@@ -2773,6 +2770,15 @@
   </si>
   <si>
     <t>My Survey</t>
+  </si>
+  <si>
+    <t>annotate</t>
+  </si>
+  <si>
+    <t>Applies to image fields. Allows user to open a canvas window to sketch on.</t>
+  </si>
+  <si>
+    <t>Applies to image fields. Allows user to open a canvas window to sketch on. Also supports annotation on images.</t>
   </si>
 </sst>
 </file>
@@ -3039,7 +3045,31 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3089,14 +3119,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3180,15 +3202,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Z153" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Z153" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:Z153"/>
   <tableColumns count="26">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="4"/>
-    <tableColumn id="4" name="hint" dataDxfId="3"/>
+    <tableColumn id="3" name="label" dataDxfId="7"/>
+    <tableColumn id="4" name="hint" dataDxfId="6"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="2"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="5"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
     <tableColumn id="8" name="appearance"/>
@@ -3524,7 +3546,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3566,7 +3588,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3701,7 +3723,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="B2:B150">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <dataValidations xWindow="732" yWindow="283" count="22">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint" prompt="Can be used with integer and decimal types. Limit the range of numbers that can be entered (e.g., .&gt;0 and .&lt;100). " sqref="E154:E1048576"/>
@@ -3756,13 +3778,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$134:$A$142</xm:f>
+            <xm:f>types!$A$135:$A$143</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$36:$A$54</xm:f>
+            <xm:f>types!$A$36:$A$55</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -3808,79 +3830,79 @@
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
       <c r="A3" s="36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B3" s="36" t="s">
+        <v>904</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>905</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" s="36" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B5" s="36">
         <v>1</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B6" s="36">
         <v>2</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B7" s="36">
         <v>3</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B8" s="36">
         <v>4</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B9" s="36">
         <v>5</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +3958,7 @@
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3970,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F807"/>
+  <dimension ref="A1:F808"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4373,24 +4395,21 @@
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" s="36" customFormat="1">
       <c r="A37" s="24" t="s">
         <v>892</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>893</v>
+      <c r="B37" s="36" t="s">
+        <v>914</v>
       </c>
       <c r="C37" s="33"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="32" t="s">
-        <v>46</v>
+      <c r="A38" s="24" t="s">
+        <v>913</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>258</v>
+        <v>915</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="32"/>
@@ -4399,10 +4418,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="32" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="32"/>
@@ -4411,10 +4430,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="32" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="32"/>
@@ -4423,10 +4442,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="32"/>
@@ -4435,10 +4454,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="32"/>
@@ -4447,10 +4466,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="32"/>
@@ -4459,10 +4478,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="32" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="32"/>
@@ -4471,10 +4490,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="32" t="s">
-        <v>873</v>
+        <v>240</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>874</v>
+        <v>241</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="32"/>
@@ -4483,10 +4502,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="32" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="32"/>
@@ -4495,10 +4514,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="32" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="32"/>
@@ -4507,10 +4526,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="32" t="s">
-        <v>113</v>
+        <v>870</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>296</v>
+        <v>872</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="32"/>
@@ -4519,10 +4538,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="32"/>
@@ -4531,10 +4550,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="32" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="32"/>
@@ -4543,10 +4562,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="32" t="s">
-        <v>876</v>
+        <v>256</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>877</v>
+        <v>257</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="32"/>
@@ -4555,10 +4574,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="32" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="32"/>
@@ -4567,10 +4586,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="32" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="32"/>
@@ -4579,41 +4598,41 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="32" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
     </row>
-    <row r="55" spans="1:6" s="31" customFormat="1">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="32" t="s">
+        <v>893</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>894</v>
+      </c>
       <c r="C55" s="33"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
     </row>
-    <row r="56" spans="1:6" ht="13.15">
-      <c r="A56" s="13" t="s">
-        <v>107</v>
-      </c>
+    <row r="56" spans="1:6" s="31" customFormat="1">
+      <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="33"/>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>896</v>
-      </c>
+    <row r="57" spans="1:6" ht="13.15">
+      <c r="A57" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="32"/>
       <c r="C57" s="33"/>
       <c r="D57" s="32"/>
       <c r="E57" s="32"/>
@@ -4621,10 +4640,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="32" t="s">
-        <v>882</v>
+        <v>108</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="32"/>
@@ -4633,10 +4652,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="32" t="s">
-        <v>109</v>
+        <v>882</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>110</v>
+        <v>883</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="32"/>
@@ -4644,78 +4663,76 @@
       <c r="F59" s="32"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>110</v>
+      </c>
       <c r="C60" s="33"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
     </row>
-    <row r="61" spans="1:6" s="8" customFormat="1" ht="13.15">
-      <c r="A61" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>232</v>
-      </c>
+    <row r="61" spans="1:6">
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="33"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="32"/>
+    <row r="62" spans="1:6" s="8" customFormat="1" ht="13.15">
+      <c r="A62" s="13" t="s">
+        <v>231</v>
+      </c>
       <c r="B62" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C62" s="33"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
     </row>
-    <row r="63" spans="1:6" ht="13.15">
-      <c r="A63" s="13"/>
-      <c r="B63" s="32"/>
+    <row r="63" spans="1:6">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32" t="s">
+        <v>233</v>
+      </c>
       <c r="C63" s="33"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
     </row>
     <row r="64" spans="1:6" ht="13.15">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+    </row>
+    <row r="65" spans="1:6" ht="13.15">
+      <c r="A65" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B65" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="9" t="s">
+      <c r="C65" s="33"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
@@ -4723,13 +4740,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D67" s="32"/>
       <c r="E67" s="32"/>
@@ -4737,13 +4754,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
@@ -4751,13 +4768,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D69" s="32"/>
       <c r="E69" s="32"/>
@@ -4765,13 +4782,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
@@ -4779,13 +4796,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D71" s="32"/>
       <c r="E71" s="32"/>
@@ -4793,13 +4810,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D72" s="32"/>
       <c r="E72" s="32"/>
@@ -4807,13 +4824,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D73" s="32"/>
       <c r="E73" s="32"/>
@@ -4821,13 +4838,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
@@ -4835,13 +4852,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
@@ -4849,13 +4866,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
@@ -4863,94 +4880,96 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D77" s="32"/>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
     </row>
-    <row r="78" spans="1:6" s="21" customFormat="1">
+    <row r="78" spans="1:6">
       <c r="A78" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D78" s="32"/>
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" s="21" customFormat="1">
       <c r="A79" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="6"/>
+      <c r="A80" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
     </row>
-    <row r="81" spans="1:6" ht="13.15">
-      <c r="A81" s="14" t="s">
-        <v>202</v>
-      </c>
+    <row r="81" spans="1:6">
+      <c r="A81" s="34"/>
       <c r="B81" s="34"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="19" t="s">
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+    </row>
+    <row r="82" spans="1:6" ht="13.15">
+      <c r="A82" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="34"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B83" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C83" s="33"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="32"/>
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="C84" s="33"/>
       <c r="D84" s="32"/>
@@ -4959,10 +4978,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>190</v>
+        <v>295</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="32"/>
@@ -4971,10 +4990,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C86" s="33"/>
       <c r="D86" s="32"/>
@@ -4983,10 +5002,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C87" s="33"/>
       <c r="D87" s="32"/>
@@ -4995,10 +5014,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C88" s="33"/>
       <c r="D88" s="32"/>
@@ -5007,10 +5026,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C89" s="33"/>
       <c r="D89" s="32"/>
@@ -5019,10 +5038,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C90" s="33"/>
       <c r="D90" s="32"/>
@@ -5031,10 +5050,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="32"/>
@@ -5042,11 +5061,11 @@
       <c r="F91" s="32"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="18" t="s">
-        <v>207</v>
+      <c r="A92" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C92" s="33"/>
       <c r="D92" s="32"/>
@@ -5055,10 +5074,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C93" s="33"/>
       <c r="D93" s="32"/>
@@ -5067,10 +5086,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="18" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="C94" s="33"/>
       <c r="D94" s="32"/>
@@ -5078,41 +5097,41 @@
       <c r="F94" s="32"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
+      <c r="A95" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="C95" s="33"/>
       <c r="D95" s="32"/>
       <c r="E95" s="32"/>
       <c r="F95" s="32"/>
     </row>
-    <row r="96" spans="1:6" ht="13.15">
-      <c r="A96" s="14" t="s">
-        <v>185</v>
-      </c>
+    <row r="96" spans="1:6">
+      <c r="A96" s="32"/>
       <c r="B96" s="32"/>
       <c r="C96" s="33"/>
       <c r="D96" s="32"/>
       <c r="E96" s="32"/>
       <c r="F96" s="32"/>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>119</v>
-      </c>
+    <row r="97" spans="1:6" ht="13.15">
+      <c r="A97" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="32"/>
       <c r="C97" s="33"/>
       <c r="D97" s="32"/>
       <c r="E97" s="32"/>
       <c r="F97" s="32"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B98" s="34" t="s">
-        <v>121</v>
+      <c r="A98" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="C98" s="33"/>
       <c r="D98" s="32"/>
@@ -5121,34 +5140,34 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C99" s="33"/>
       <c r="D99" s="32"/>
       <c r="E99" s="32"/>
       <c r="F99" s="32"/>
     </row>
-    <row r="100" spans="1:6" ht="25.5">
+    <row r="100" spans="1:6">
       <c r="A100" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C100" s="33"/>
       <c r="D100" s="32"/>
       <c r="E100" s="32"/>
       <c r="F100" s="32"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" ht="25.5">
       <c r="A101" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C101" s="33"/>
       <c r="D101" s="32"/>
@@ -5157,10 +5176,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C102" s="33"/>
       <c r="D102" s="32"/>
@@ -5169,10 +5188,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C103" s="33"/>
       <c r="D103" s="32"/>
@@ -5181,10 +5200,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C104" s="33"/>
       <c r="D104" s="32"/>
@@ -5193,10 +5212,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C105" s="33"/>
       <c r="D105" s="32"/>
@@ -5205,10 +5224,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="32"/>
@@ -5217,10 +5236,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C107" s="33"/>
       <c r="D107" s="32"/>
@@ -5229,10 +5248,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C108" s="33"/>
       <c r="D108" s="32"/>
@@ -5241,10 +5260,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C109" s="33"/>
       <c r="D109" s="32"/>
@@ -5253,10 +5272,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C110" s="33"/>
       <c r="D110" s="32"/>
@@ -5265,10 +5284,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C111" s="33"/>
       <c r="D111" s="32"/>
@@ -5277,10 +5296,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C112" s="33"/>
       <c r="D112" s="32"/>
@@ -5289,10 +5308,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C113" s="33"/>
       <c r="D113" s="32"/>
@@ -5301,10 +5320,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C114" s="33"/>
       <c r="D114" s="32"/>
@@ -5313,10 +5332,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B115" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C115" s="33"/>
       <c r="D115" s="32"/>
@@ -5325,10 +5344,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C116" s="33"/>
       <c r="D116" s="32"/>
@@ -5337,10 +5356,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C117" s="33"/>
       <c r="D117" s="32"/>
@@ -5349,10 +5368,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C118" s="33"/>
       <c r="D118" s="32"/>
@@ -5361,10 +5380,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C119" s="33"/>
       <c r="D119" s="32"/>
@@ -5373,10 +5392,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C120" s="33"/>
       <c r="D120" s="32"/>
@@ -5385,10 +5404,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B121" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C121" s="33"/>
       <c r="D121" s="32"/>
@@ -5397,10 +5416,10 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="34" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C122" s="33"/>
       <c r="D122" s="32"/>
@@ -5409,10 +5428,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C123" s="33"/>
       <c r="D123" s="32"/>
@@ -5421,10 +5440,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C124" s="33"/>
       <c r="D124" s="32"/>
@@ -5433,10 +5452,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="34" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C125" s="33"/>
       <c r="D125" s="32"/>
@@ -5445,34 +5464,34 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C126" s="33"/>
       <c r="D126" s="32"/>
       <c r="E126" s="32"/>
       <c r="F126" s="32"/>
     </row>
-    <row r="127" spans="1:6" ht="25.5">
+    <row r="127" spans="1:6">
       <c r="A127" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C127" s="33"/>
       <c r="D127" s="32"/>
       <c r="E127" s="32"/>
       <c r="F127" s="32"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="25.5">
       <c r="A128" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C128" s="33"/>
       <c r="D128" s="32"/>
@@ -5481,10 +5500,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B129" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C129" s="33"/>
       <c r="D129" s="32"/>
@@ -5493,10 +5512,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C130" s="33"/>
       <c r="D130" s="32"/>
@@ -5505,10 +5524,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C131" s="33"/>
       <c r="D131" s="32"/>
@@ -5516,30 +5535,30 @@
       <c r="F131" s="32"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="32"/>
-      <c r="B132" s="32"/>
+      <c r="A132" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B132" s="34" t="s">
+        <v>184</v>
+      </c>
       <c r="C132" s="33"/>
       <c r="D132" s="32"/>
       <c r="E132" s="32"/>
       <c r="F132" s="32"/>
     </row>
-    <row r="133" spans="1:6" ht="13.15">
-      <c r="A133" s="14" t="s">
-        <v>218</v>
-      </c>
+    <row r="133" spans="1:6">
+      <c r="A133" s="32"/>
       <c r="B133" s="32"/>
       <c r="C133" s="33"/>
       <c r="D133" s="32"/>
       <c r="E133" s="32"/>
       <c r="F133" s="32"/>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B134" s="34" t="s">
-        <v>220</v>
-      </c>
+    <row r="134" spans="1:6" ht="13.15">
+      <c r="A134" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B134" s="32"/>
       <c r="C134" s="33"/>
       <c r="D134" s="32"/>
       <c r="E134" s="32"/>
@@ -5547,43 +5566,43 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="34" t="s">
-        <v>897</v>
+        <v>219</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>898</v>
+        <v>220</v>
       </c>
       <c r="C135" s="33"/>
       <c r="D135" s="32"/>
       <c r="E135" s="32"/>
       <c r="F135" s="32"/>
     </row>
-    <row r="136" spans="1:6" s="32" customFormat="1">
+    <row r="136" spans="1:6">
       <c r="A136" s="34" t="s">
+        <v>896</v>
+      </c>
+      <c r="B136" s="34" t="s">
+        <v>897</v>
+      </c>
+      <c r="C136" s="33"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+    </row>
+    <row r="137" spans="1:6" s="32" customFormat="1">
+      <c r="A137" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="B136" s="32" t="s">
+      <c r="B137" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="C136" s="33"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="B137" s="34" t="s">
-        <v>225</v>
-      </c>
       <c r="C137" s="33"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="34" t="s">
-        <v>899</v>
+        <v>222</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>900</v>
+        <v>225</v>
       </c>
       <c r="C138" s="33"/>
       <c r="D138" s="32"/>
@@ -5592,10 +5611,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>226</v>
+        <v>898</v>
+      </c>
+      <c r="B139" s="34" t="s">
+        <v>899</v>
       </c>
       <c r="C139" s="33"/>
       <c r="D139" s="32"/>
@@ -5604,10 +5623,10 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="34" t="s">
-        <v>866</v>
-      </c>
-      <c r="B140" s="34" t="s">
-        <v>867</v>
+        <v>223</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>226</v>
       </c>
       <c r="C140" s="33"/>
       <c r="D140" s="32"/>
@@ -5616,10 +5635,10 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="34" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="C141" s="33"/>
       <c r="D141" s="32"/>
@@ -5628,10 +5647,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="34" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="C142" s="33"/>
       <c r="D142" s="32"/>
@@ -5639,53 +5658,53 @@
       <c r="F142" s="32"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="32"/>
-      <c r="B143" s="32"/>
+      <c r="A143" s="34" t="s">
+        <v>900</v>
+      </c>
+      <c r="B143" s="34" t="s">
+        <v>901</v>
+      </c>
       <c r="C143" s="33"/>
       <c r="D143" s="32"/>
       <c r="E143" s="32"/>
       <c r="F143" s="32"/>
     </row>
-    <row r="144" spans="1:6" ht="13.15">
-      <c r="A144" s="13" t="s">
-        <v>259</v>
-      </c>
+    <row r="144" spans="1:6">
+      <c r="A144" s="32"/>
       <c r="B144" s="32"/>
       <c r="C144" s="33"/>
       <c r="D144" s="32"/>
       <c r="E144" s="32"/>
       <c r="F144" s="32"/>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C145" s="28"/>
+    <row r="145" spans="1:6" ht="13.15">
+      <c r="A145" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B145" s="32"/>
+      <c r="C145" s="33"/>
       <c r="D145" s="32"/>
       <c r="E145" s="32"/>
       <c r="F145" s="32"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="B146" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="C146" s="34"/>
+      <c r="A146" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146" s="28"/>
       <c r="D146" s="32"/>
       <c r="E146" s="32"/>
       <c r="F146" s="32"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C147" s="34"/>
       <c r="D147" s="32"/>
@@ -5694,10 +5713,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C148" s="34"/>
       <c r="D148" s="32"/>
@@ -5706,10 +5725,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C149" s="34"/>
       <c r="D149" s="32"/>
@@ -5718,10 +5737,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C150" s="34"/>
       <c r="D150" s="32"/>
@@ -5730,10 +5749,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B151" s="34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C151" s="34"/>
       <c r="D151" s="32"/>
@@ -5742,10 +5761,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B152" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C152" s="34"/>
       <c r="D152" s="32"/>
@@ -5754,10 +5773,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C153" s="34"/>
       <c r="D153" s="32"/>
@@ -5766,10 +5785,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B154" s="34" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C154" s="34"/>
       <c r="D154" s="32"/>
@@ -5778,10 +5797,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B155" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C155" s="34"/>
       <c r="D155" s="32"/>
@@ -5790,10 +5809,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="34" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B156" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C156" s="34"/>
       <c r="D156" s="32"/>
@@ -5802,10 +5821,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B157" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C157" s="34"/>
       <c r="D157" s="32"/>
@@ -5814,10 +5833,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B158" s="34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C158" s="34"/>
       <c r="D158" s="32"/>
@@ -5826,10 +5845,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B159" s="34" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C159" s="34"/>
       <c r="D159" s="32"/>
@@ -5838,10 +5857,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B160" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C160" s="34"/>
       <c r="D160" s="32"/>
@@ -5850,10 +5869,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B161" s="34" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C161" s="34"/>
       <c r="D161" s="32"/>
@@ -5862,10 +5881,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B162" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C162" s="34"/>
       <c r="D162" s="32"/>
@@ -5874,10 +5893,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B163" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C163" s="34"/>
       <c r="D163" s="32"/>
@@ -5885,30 +5904,32 @@
       <c r="F163" s="32"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="32"/>
-      <c r="B164" s="32"/>
-      <c r="C164" s="33"/>
+      <c r="A164" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B164" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C164" s="34"/>
       <c r="D164" s="32"/>
       <c r="E164" s="32"/>
       <c r="F164" s="32"/>
     </row>
-    <row r="165" spans="1:6" ht="13.15">
-      <c r="A165" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="B165" s="32" t="s">
-        <v>859</v>
-      </c>
+    <row r="165" spans="1:6">
+      <c r="A165" s="32"/>
+      <c r="B165" s="32"/>
       <c r="C165" s="33"/>
       <c r="D165" s="32"/>
       <c r="E165" s="32"/>
       <c r="F165" s="32"/>
     </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="30" t="s">
-        <v>860</v>
-      </c>
-      <c r="B166" s="32"/>
+    <row r="166" spans="1:6" ht="13.15">
+      <c r="A166" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="B166" s="32" t="s">
+        <v>859</v>
+      </c>
       <c r="C166" s="33"/>
       <c r="D166" s="32"/>
       <c r="E166" s="32"/>
@@ -5916,7 +5937,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B167" s="32"/>
       <c r="C167" s="33"/>
@@ -5926,7 +5947,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="30" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B168" s="32"/>
       <c r="C168" s="33"/>
@@ -5936,7 +5957,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="30" t="s">
-        <v>64</v>
+        <v>862</v>
       </c>
       <c r="B169" s="32"/>
       <c r="C169" s="33"/>
@@ -5946,7 +5967,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="30" t="s">
-        <v>863</v>
+        <v>64</v>
       </c>
       <c r="B170" s="32"/>
       <c r="C170" s="33"/>
@@ -5956,7 +5977,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="30" t="s">
-        <v>122</v>
+        <v>863</v>
       </c>
       <c r="B171" s="32"/>
       <c r="C171" s="33"/>
@@ -5966,7 +5987,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B172" s="32"/>
       <c r="C172" s="33"/>
@@ -5976,7 +5997,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="30" t="s">
-        <v>864</v>
+        <v>124</v>
       </c>
       <c r="B173" s="32"/>
       <c r="C173" s="33"/>
@@ -5986,7 +6007,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="30" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B174" s="32"/>
       <c r="C174" s="33"/>
@@ -5995,38 +6016,38 @@
       <c r="F174" s="32"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="32"/>
+      <c r="A175" s="30" t="s">
+        <v>865</v>
+      </c>
       <c r="B175" s="32"/>
       <c r="C175" s="33"/>
       <c r="D175" s="32"/>
       <c r="E175" s="32"/>
       <c r="F175" s="32"/>
     </row>
-    <row r="176" spans="1:6" ht="13.15">
-      <c r="A176" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B176" s="32" t="s">
-        <v>302</v>
-      </c>
+    <row r="176" spans="1:6">
+      <c r="A176" s="32"/>
+      <c r="B176" s="32"/>
       <c r="C176" s="33"/>
       <c r="D176" s="32"/>
       <c r="E176" s="32"/>
       <c r="F176" s="32"/>
     </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="B177" s="32"/>
+    <row r="177" spans="1:6" ht="13.15">
+      <c r="A177" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B177" s="32" t="s">
+        <v>302</v>
+      </c>
       <c r="C177" s="33"/>
       <c r="D177" s="32"/>
       <c r="E177" s="32"/>
       <c r="F177" s="32"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="32" t="s">
-        <v>304</v>
+      <c r="A178" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="B178" s="32"/>
       <c r="C178" s="33"/>
@@ -6036,7 +6057,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B179" s="32"/>
       <c r="C179" s="33"/>
@@ -6046,7 +6067,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B180" s="32"/>
       <c r="C180" s="33"/>
@@ -6056,7 +6077,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B181" s="32"/>
       <c r="C181" s="33"/>
@@ -6066,7 +6087,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B182" s="32"/>
       <c r="C182" s="33"/>
@@ -6076,7 +6097,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B183" s="32"/>
       <c r="C183" s="33"/>
@@ -6086,7 +6107,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B184" s="32"/>
       <c r="C184" s="33"/>
@@ -6096,7 +6117,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B185" s="32"/>
       <c r="C185" s="33"/>
@@ -6106,7 +6127,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B186" s="32"/>
       <c r="C186" s="33"/>
@@ -6116,7 +6137,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B187" s="32"/>
       <c r="C187" s="33"/>
@@ -6126,7 +6147,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B188" s="32"/>
       <c r="C188" s="33"/>
@@ -6136,7 +6157,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B189" s="32"/>
       <c r="C189" s="33"/>
@@ -6146,7 +6167,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B190" s="32"/>
       <c r="C190" s="33"/>
@@ -6156,7 +6177,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B191" s="32"/>
       <c r="C191" s="33"/>
@@ -6166,7 +6187,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B192" s="32"/>
       <c r="C192" s="33"/>
@@ -6176,7 +6197,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B193" s="32"/>
       <c r="C193" s="33"/>
@@ -6186,7 +6207,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B194" s="32"/>
       <c r="C194" s="33"/>
@@ -6196,7 +6217,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B195" s="32"/>
       <c r="C195" s="33"/>
@@ -6206,7 +6227,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B196" s="32"/>
       <c r="C196" s="33"/>
@@ -6216,7 +6237,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B197" s="32"/>
       <c r="C197" s="33"/>
@@ -6226,7 +6247,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B198" s="32"/>
       <c r="C198" s="33"/>
@@ -6236,7 +6257,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B199" s="32"/>
       <c r="C199" s="33"/>
@@ -6246,7 +6267,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B200" s="32"/>
       <c r="C200" s="33"/>
@@ -6256,7 +6277,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B201" s="32"/>
       <c r="C201" s="33"/>
@@ -6266,7 +6287,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B202" s="32"/>
       <c r="C202" s="33"/>
@@ -6276,7 +6297,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B203" s="32"/>
       <c r="C203" s="33"/>
@@ -6286,7 +6307,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B204" s="32"/>
       <c r="C204" s="33"/>
@@ -6296,7 +6317,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B205" s="32"/>
       <c r="C205" s="33"/>
@@ -6306,7 +6327,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B206" s="32"/>
       <c r="C206" s="33"/>
@@ -6316,7 +6337,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B207" s="32"/>
       <c r="C207" s="33"/>
@@ -6326,7 +6347,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B208" s="32"/>
       <c r="C208" s="33"/>
@@ -6336,7 +6357,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B209" s="32"/>
       <c r="C209" s="33"/>
@@ -6346,7 +6367,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B210" s="32"/>
       <c r="C210" s="33"/>
@@ -6356,7 +6377,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B211" s="32"/>
       <c r="C211" s="33"/>
@@ -6366,7 +6387,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B212" s="32"/>
       <c r="C212" s="33"/>
@@ -6376,7 +6397,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B213" s="32"/>
       <c r="C213" s="33"/>
@@ -6386,7 +6407,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B214" s="32"/>
       <c r="C214" s="33"/>
@@ -6396,7 +6417,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B215" s="32"/>
       <c r="C215" s="33"/>
@@ -6406,7 +6427,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B216" s="32"/>
       <c r="C216" s="33"/>
@@ -6416,7 +6437,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B217" s="32"/>
       <c r="C217" s="33"/>
@@ -6426,7 +6447,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B218" s="32"/>
       <c r="C218" s="33"/>
@@ -6436,7 +6457,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B219" s="32"/>
       <c r="C219" s="33"/>
@@ -6446,7 +6467,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B220" s="32"/>
       <c r="C220" s="33"/>
@@ -6456,7 +6477,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B221" s="32"/>
       <c r="C221" s="33"/>
@@ -6466,7 +6487,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B222" s="32"/>
       <c r="C222" s="33"/>
@@ -6476,7 +6497,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B223" s="32"/>
       <c r="C223" s="33"/>
@@ -6486,7 +6507,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B224" s="32"/>
       <c r="C224" s="33"/>
@@ -6496,7 +6517,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B225" s="32"/>
       <c r="C225" s="33"/>
@@ -6506,7 +6527,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B226" s="32"/>
       <c r="C226" s="33"/>
@@ -6516,7 +6537,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B227" s="32"/>
       <c r="C227" s="33"/>
@@ -6526,7 +6547,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B228" s="32"/>
       <c r="C228" s="33"/>
@@ -6536,7 +6557,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B229" s="32"/>
       <c r="C229" s="33"/>
@@ -6546,7 +6567,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B230" s="32"/>
       <c r="C230" s="33"/>
@@ -6556,7 +6577,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B231" s="32"/>
       <c r="C231" s="33"/>
@@ -6566,7 +6587,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B232" s="32"/>
       <c r="C232" s="33"/>
@@ -6576,7 +6597,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B233" s="32"/>
       <c r="C233" s="33"/>
@@ -6586,7 +6607,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B234" s="32"/>
       <c r="C234" s="33"/>
@@ -6596,7 +6617,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B235" s="32"/>
       <c r="C235" s="33"/>
@@ -6606,7 +6627,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B236" s="32"/>
       <c r="C236" s="33"/>
@@ -6616,7 +6637,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B237" s="32"/>
       <c r="C237" s="33"/>
@@ -6626,7 +6647,7 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B238" s="32"/>
       <c r="C238" s="33"/>
@@ -6636,7 +6657,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B239" s="32"/>
       <c r="C239" s="33"/>
@@ -6646,7 +6667,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B240" s="32"/>
       <c r="C240" s="33"/>
@@ -6656,7 +6677,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B241" s="32"/>
       <c r="C241" s="33"/>
@@ -6666,7 +6687,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B242" s="32"/>
       <c r="C242" s="33"/>
@@ -6676,7 +6697,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B243" s="32"/>
       <c r="C243" s="33"/>
@@ -6686,7 +6707,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B244" s="32"/>
       <c r="C244" s="33"/>
@@ -6696,7 +6717,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B245" s="32"/>
       <c r="C245" s="33"/>
@@ -6706,7 +6727,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B246" s="32"/>
       <c r="C246" s="33"/>
@@ -6716,7 +6737,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B247" s="32"/>
       <c r="C247" s="33"/>
@@ -6726,7 +6747,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B248" s="32"/>
       <c r="C248" s="33"/>
@@ -6736,7 +6757,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B249" s="32"/>
       <c r="C249" s="33"/>
@@ -6746,7 +6767,7 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B250" s="32"/>
       <c r="C250" s="33"/>
@@ -6756,7 +6777,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B251" s="32"/>
       <c r="C251" s="33"/>
@@ -6766,7 +6787,7 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B252" s="32"/>
       <c r="C252" s="33"/>
@@ -6776,7 +6797,7 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B253" s="32"/>
       <c r="C253" s="33"/>
@@ -6786,7 +6807,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B254" s="32"/>
       <c r="C254" s="33"/>
@@ -6796,7 +6817,7 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B255" s="32"/>
       <c r="C255" s="33"/>
@@ -6806,7 +6827,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B256" s="32"/>
       <c r="C256" s="33"/>
@@ -6816,7 +6837,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B257" s="32"/>
       <c r="C257" s="33"/>
@@ -6826,7 +6847,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B258" s="32"/>
       <c r="C258" s="33"/>
@@ -6836,7 +6857,7 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B259" s="32"/>
       <c r="C259" s="33"/>
@@ -6846,7 +6867,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B260" s="32"/>
       <c r="C260" s="33"/>
@@ -6856,7 +6877,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B261" s="32"/>
       <c r="C261" s="33"/>
@@ -6866,7 +6887,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B262" s="32"/>
       <c r="C262" s="33"/>
@@ -6876,7 +6897,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B263" s="32"/>
       <c r="C263" s="33"/>
@@ -6886,7 +6907,7 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B264" s="32"/>
       <c r="C264" s="33"/>
@@ -6896,7 +6917,7 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B265" s="32"/>
       <c r="C265" s="33"/>
@@ -6906,7 +6927,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B266" s="32"/>
       <c r="C266" s="33"/>
@@ -6916,7 +6937,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B267" s="32"/>
       <c r="C267" s="33"/>
@@ -6926,7 +6947,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B268" s="32"/>
       <c r="C268" s="33"/>
@@ -6936,7 +6957,7 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B269" s="32"/>
       <c r="C269" s="33"/>
@@ -6946,7 +6967,7 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B270" s="32"/>
       <c r="C270" s="33"/>
@@ -6956,7 +6977,7 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B271" s="32"/>
       <c r="C271" s="33"/>
@@ -6966,7 +6987,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B272" s="32"/>
       <c r="C272" s="33"/>
@@ -6976,7 +6997,7 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B273" s="32"/>
       <c r="C273" s="33"/>
@@ -6986,7 +7007,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B274" s="32"/>
       <c r="C274" s="33"/>
@@ -6996,7 +7017,7 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B275" s="32"/>
       <c r="C275" s="33"/>
@@ -7006,7 +7027,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B276" s="32"/>
       <c r="C276" s="33"/>
@@ -7016,7 +7037,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B277" s="32"/>
       <c r="C277" s="33"/>
@@ -7026,7 +7047,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B278" s="32"/>
       <c r="C278" s="33"/>
@@ -7036,7 +7057,7 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B279" s="32"/>
       <c r="C279" s="33"/>
@@ -7046,7 +7067,7 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B280" s="32"/>
       <c r="C280" s="33"/>
@@ -7056,7 +7077,7 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B281" s="32"/>
       <c r="C281" s="33"/>
@@ -7066,7 +7087,7 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B282" s="32"/>
       <c r="C282" s="33"/>
@@ -7076,7 +7097,7 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B283" s="32"/>
       <c r="C283" s="33"/>
@@ -7086,7 +7107,7 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B284" s="32"/>
       <c r="C284" s="33"/>
@@ -7096,7 +7117,7 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B285" s="32"/>
       <c r="C285" s="33"/>
@@ -7106,7 +7127,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B286" s="32"/>
       <c r="C286" s="33"/>
@@ -7116,7 +7137,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B287" s="32"/>
       <c r="C287" s="33"/>
@@ -7126,7 +7147,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B288" s="32"/>
       <c r="C288" s="33"/>
@@ -7136,7 +7157,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B289" s="32"/>
       <c r="C289" s="33"/>
@@ -7146,7 +7167,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B290" s="32"/>
       <c r="C290" s="33"/>
@@ -7156,7 +7177,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B291" s="32"/>
       <c r="C291" s="33"/>
@@ -7166,7 +7187,7 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B292" s="32"/>
       <c r="C292" s="33"/>
@@ -7176,7 +7197,7 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B293" s="32"/>
       <c r="C293" s="33"/>
@@ -7186,7 +7207,7 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B294" s="32"/>
       <c r="C294" s="33"/>
@@ -7196,7 +7217,7 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B295" s="32"/>
       <c r="C295" s="33"/>
@@ -7206,7 +7227,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B296" s="32"/>
       <c r="C296" s="33"/>
@@ -7216,7 +7237,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B297" s="32"/>
       <c r="C297" s="33"/>
@@ -7226,7 +7247,7 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B298" s="32"/>
       <c r="C298" s="33"/>
@@ -7236,7 +7257,7 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B299" s="32"/>
       <c r="C299" s="33"/>
@@ -7246,7 +7267,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B300" s="32"/>
       <c r="C300" s="33"/>
@@ -7256,7 +7277,7 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B301" s="32"/>
       <c r="C301" s="33"/>
@@ -7265,8 +7286,8 @@
       <c r="F301" s="32"/>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="33" t="s">
-        <v>428</v>
+      <c r="A302" s="32" t="s">
+        <v>427</v>
       </c>
       <c r="B302" s="32"/>
       <c r="C302" s="33"/>
@@ -7276,7 +7297,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B303" s="32"/>
       <c r="C303" s="33"/>
@@ -7286,7 +7307,7 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B304" s="32"/>
       <c r="C304" s="33"/>
@@ -7296,7 +7317,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B305" s="32"/>
       <c r="C305" s="33"/>
@@ -7306,7 +7327,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B306" s="32"/>
       <c r="C306" s="33"/>
@@ -7316,7 +7337,7 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B307" s="32"/>
       <c r="C307" s="33"/>
@@ -7326,7 +7347,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B308" s="32"/>
       <c r="C308" s="33"/>
@@ -7336,7 +7357,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B309" s="32"/>
       <c r="C309" s="33"/>
@@ -7346,7 +7367,7 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B310" s="32"/>
       <c r="C310" s="33"/>
@@ -7356,7 +7377,7 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B311" s="32"/>
       <c r="C311" s="33"/>
@@ -7366,7 +7387,7 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B312" s="32"/>
       <c r="C312" s="33"/>
@@ -7376,7 +7397,7 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B313" s="32"/>
       <c r="C313" s="33"/>
@@ -7386,7 +7407,7 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B314" s="32"/>
       <c r="C314" s="33"/>
@@ -7396,7 +7417,7 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B315" s="32"/>
       <c r="C315" s="33"/>
@@ -7406,7 +7427,7 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B316" s="32"/>
       <c r="C316" s="33"/>
@@ -7416,7 +7437,7 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B317" s="32"/>
       <c r="C317" s="33"/>
@@ -7426,7 +7447,7 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B318" s="32"/>
       <c r="C318" s="33"/>
@@ -7436,7 +7457,7 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B319" s="32"/>
       <c r="C319" s="33"/>
@@ -7446,7 +7467,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B320" s="32"/>
       <c r="C320" s="33"/>
@@ -7456,7 +7477,7 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B321" s="32"/>
       <c r="C321" s="33"/>
@@ -7466,7 +7487,7 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B322" s="32"/>
       <c r="C322" s="33"/>
@@ -7476,7 +7497,7 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B323" s="32"/>
       <c r="C323" s="33"/>
@@ -7486,7 +7507,7 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B324" s="32"/>
       <c r="C324" s="33"/>
@@ -7496,7 +7517,7 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B325" s="32"/>
       <c r="C325" s="33"/>
@@ -7506,7 +7527,7 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B326" s="32"/>
       <c r="C326" s="33"/>
@@ -7516,7 +7537,7 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B327" s="32"/>
       <c r="C327" s="33"/>
@@ -7526,7 +7547,7 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B328" s="32"/>
       <c r="C328" s="33"/>
@@ -7536,7 +7557,7 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B329" s="32"/>
       <c r="C329" s="33"/>
@@ -7546,7 +7567,7 @@
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B330" s="32"/>
       <c r="C330" s="33"/>
@@ -7556,7 +7577,7 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B331" s="32"/>
       <c r="C331" s="33"/>
@@ -7566,7 +7587,7 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B332" s="32"/>
       <c r="C332" s="33"/>
@@ -7576,7 +7597,7 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B333" s="32"/>
       <c r="C333" s="33"/>
@@ -7586,7 +7607,7 @@
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B334" s="32"/>
       <c r="C334" s="33"/>
@@ -7596,7 +7617,7 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B335" s="32"/>
       <c r="C335" s="33"/>
@@ -7606,7 +7627,7 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B336" s="32"/>
       <c r="C336" s="33"/>
@@ -7616,7 +7637,7 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B337" s="32"/>
       <c r="C337" s="33"/>
@@ -7626,7 +7647,7 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B338" s="32"/>
       <c r="C338" s="33"/>
@@ -7636,7 +7657,7 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B339" s="32"/>
       <c r="C339" s="33"/>
@@ -7646,7 +7667,7 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B340" s="32"/>
       <c r="C340" s="33"/>
@@ -7656,7 +7677,7 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B341" s="32"/>
       <c r="C341" s="33"/>
@@ -7666,7 +7687,7 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B342" s="32"/>
       <c r="C342" s="33"/>
@@ -7676,7 +7697,7 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B343" s="32"/>
       <c r="C343" s="33"/>
@@ -7686,7 +7707,7 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B344" s="32"/>
       <c r="C344" s="33"/>
@@ -7696,7 +7717,7 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B345" s="32"/>
       <c r="C345" s="33"/>
@@ -7706,7 +7727,7 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B346" s="32"/>
       <c r="C346" s="33"/>
@@ -7716,7 +7737,7 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B347" s="32"/>
       <c r="C347" s="33"/>
@@ -7726,7 +7747,7 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B348" s="32"/>
       <c r="C348" s="33"/>
@@ -7736,7 +7757,7 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B349" s="32"/>
       <c r="C349" s="33"/>
@@ -7746,7 +7767,7 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B350" s="32"/>
       <c r="C350" s="33"/>
@@ -7756,7 +7777,7 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B351" s="32"/>
       <c r="C351" s="33"/>
@@ -7766,7 +7787,7 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B352" s="32"/>
       <c r="C352" s="33"/>
@@ -7776,7 +7797,7 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B353" s="32"/>
       <c r="C353" s="33"/>
@@ -7786,7 +7807,7 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B354" s="32"/>
       <c r="C354" s="33"/>
@@ -7796,7 +7817,7 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B355" s="32"/>
       <c r="C355" s="33"/>
@@ -7806,7 +7827,7 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B356" s="32"/>
       <c r="C356" s="33"/>
@@ -7816,7 +7837,7 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B357" s="32"/>
       <c r="C357" s="33"/>
@@ -7826,7 +7847,7 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B358" s="32"/>
       <c r="C358" s="33"/>
@@ -7836,7 +7857,7 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B359" s="32"/>
       <c r="C359" s="33"/>
@@ -7846,7 +7867,7 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B360" s="32"/>
       <c r="C360" s="33"/>
@@ -7856,7 +7877,7 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B361" s="32"/>
       <c r="C361" s="33"/>
@@ -7866,7 +7887,7 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B362" s="32"/>
       <c r="C362" s="33"/>
@@ -7875,8 +7896,8 @@
       <c r="F362" s="32"/>
     </row>
     <row r="363" spans="1:6">
-      <c r="A363" s="32" t="s">
-        <v>489</v>
+      <c r="A363" s="33" t="s">
+        <v>488</v>
       </c>
       <c r="B363" s="32"/>
       <c r="C363" s="33"/>
@@ -7886,7 +7907,7 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B364" s="32"/>
       <c r="C364" s="33"/>
@@ -7896,7 +7917,7 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B365" s="32"/>
       <c r="C365" s="33"/>
@@ -7906,7 +7927,7 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B366" s="32"/>
       <c r="C366" s="33"/>
@@ -7916,7 +7937,7 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B367" s="32"/>
       <c r="C367" s="33"/>
@@ -7926,7 +7947,7 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="32" t="s">
-        <v>305</v>
+        <v>493</v>
       </c>
       <c r="B368" s="32"/>
       <c r="C368" s="33"/>
@@ -7936,7 +7957,7 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="32" t="s">
-        <v>494</v>
+        <v>305</v>
       </c>
       <c r="B369" s="32"/>
       <c r="C369" s="33"/>
@@ -7946,7 +7967,7 @@
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B370" s="32"/>
       <c r="C370" s="33"/>
@@ -7956,7 +7977,7 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B371" s="32"/>
       <c r="C371" s="33"/>
@@ -7966,7 +7987,7 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="32" t="s">
-        <v>307</v>
+        <v>496</v>
       </c>
       <c r="B372" s="32"/>
       <c r="C372" s="33"/>
@@ -7976,7 +7997,7 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B373" s="32"/>
       <c r="C373" s="33"/>
@@ -7986,7 +8007,7 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="32" t="s">
-        <v>497</v>
+        <v>308</v>
       </c>
       <c r="B374" s="32"/>
       <c r="C374" s="33"/>
@@ -7996,7 +8017,7 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B375" s="32"/>
       <c r="C375" s="33"/>
@@ -8006,7 +8027,7 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B376" s="32"/>
       <c r="C376" s="33"/>
@@ -8016,7 +8037,7 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B377" s="32"/>
       <c r="C377" s="33"/>
@@ -8026,7 +8047,7 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="32" t="s">
-        <v>309</v>
+        <v>500</v>
       </c>
       <c r="B378" s="32"/>
       <c r="C378" s="33"/>
@@ -8036,7 +8057,7 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B379" s="32"/>
       <c r="C379" s="33"/>
@@ -8046,7 +8067,7 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="32" t="s">
-        <v>501</v>
+        <v>310</v>
       </c>
       <c r="B380" s="32"/>
       <c r="C380" s="33"/>
@@ -8056,7 +8077,7 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B381" s="32"/>
       <c r="C381" s="33"/>
@@ -8066,7 +8087,7 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B382" s="32"/>
       <c r="C382" s="33"/>
@@ -8076,7 +8097,7 @@
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B383" s="32"/>
       <c r="C383" s="33"/>
@@ -8086,7 +8107,7 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="32" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B384" s="32"/>
       <c r="C384" s="33"/>
@@ -8096,7 +8117,7 @@
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="32" t="s">
-        <v>505</v>
+        <v>311</v>
       </c>
       <c r="B385" s="32"/>
       <c r="C385" s="33"/>
@@ -8106,7 +8127,7 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B386" s="32"/>
       <c r="C386" s="33"/>
@@ -8116,7 +8137,7 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B387" s="32"/>
       <c r="C387" s="33"/>
@@ -8126,7 +8147,7 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="32" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B388" s="32"/>
       <c r="C388" s="33"/>
@@ -8136,7 +8157,7 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B389" s="32"/>
       <c r="C389" s="33"/>
@@ -8146,7 +8167,7 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B390" s="32"/>
       <c r="C390" s="33"/>
@@ -8156,7 +8177,7 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B391" s="32"/>
       <c r="C391" s="33"/>
@@ -8166,7 +8187,7 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B392" s="32"/>
       <c r="C392" s="33"/>
@@ -8176,7 +8197,7 @@
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B393" s="32"/>
       <c r="C393" s="33"/>
@@ -8186,7 +8207,7 @@
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B394" s="32"/>
       <c r="C394" s="33"/>
@@ -8196,7 +8217,7 @@
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B395" s="32"/>
       <c r="C395" s="33"/>
@@ -8206,7 +8227,7 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B396" s="32"/>
       <c r="C396" s="33"/>
@@ -8216,7 +8237,7 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B397" s="32"/>
       <c r="C397" s="33"/>
@@ -8226,7 +8247,7 @@
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B398" s="32"/>
       <c r="C398" s="33"/>
@@ -8236,7 +8257,7 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B399" s="32"/>
       <c r="C399" s="33"/>
@@ -8246,7 +8267,7 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="32" t="s">
-        <v>320</v>
+        <v>519</v>
       </c>
       <c r="B400" s="32"/>
       <c r="C400" s="33"/>
@@ -8256,7 +8277,7 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="32" t="s">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="B401" s="32"/>
       <c r="C401" s="33"/>
@@ -8266,7 +8287,7 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B402" s="32"/>
       <c r="C402" s="33"/>
@@ -8276,7 +8297,7 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B403" s="32"/>
       <c r="C403" s="33"/>
@@ -8286,7 +8307,7 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B404" s="32"/>
       <c r="C404" s="33"/>
@@ -8296,7 +8317,7 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B405" s="32"/>
       <c r="C405" s="33"/>
@@ -8306,7 +8327,7 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B406" s="32"/>
       <c r="C406" s="33"/>
@@ -8316,7 +8337,7 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B407" s="32"/>
       <c r="C407" s="33"/>
@@ -8326,7 +8347,7 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B408" s="32"/>
       <c r="C408" s="33"/>
@@ -8336,7 +8357,7 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B409" s="32"/>
       <c r="C409" s="33"/>
@@ -8346,7 +8367,7 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B410" s="32"/>
       <c r="C410" s="33"/>
@@ -8356,7 +8377,7 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="32" t="s">
-        <v>321</v>
+        <v>529</v>
       </c>
       <c r="B411" s="32"/>
       <c r="C411" s="33"/>
@@ -8366,7 +8387,7 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="32" t="s">
-        <v>530</v>
+        <v>321</v>
       </c>
       <c r="B412" s="32"/>
       <c r="C412" s="33"/>
@@ -8376,7 +8397,7 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B413" s="32"/>
       <c r="C413" s="33"/>
@@ -8386,7 +8407,7 @@
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B414" s="32"/>
       <c r="C414" s="33"/>
@@ -8396,7 +8417,7 @@
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="32" t="s">
-        <v>326</v>
+        <v>532</v>
       </c>
       <c r="B415" s="32"/>
       <c r="C415" s="33"/>
@@ -8406,7 +8427,7 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="32" t="s">
-        <v>533</v>
+        <v>326</v>
       </c>
       <c r="B416" s="32"/>
       <c r="C416" s="33"/>
@@ -8416,7 +8437,7 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B417" s="32"/>
       <c r="C417" s="33"/>
@@ -8426,7 +8447,7 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B418" s="32"/>
       <c r="C418" s="33"/>
@@ -8436,7 +8457,7 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B419" s="32"/>
       <c r="C419" s="33"/>
@@ -8446,7 +8467,7 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B420" s="32"/>
       <c r="C420" s="33"/>
@@ -8456,7 +8477,7 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="32" t="s">
-        <v>327</v>
+        <v>537</v>
       </c>
       <c r="B421" s="32"/>
       <c r="C421" s="33"/>
@@ -8466,7 +8487,7 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="32" t="s">
-        <v>538</v>
+        <v>327</v>
       </c>
       <c r="B422" s="32"/>
       <c r="C422" s="33"/>
@@ -8476,7 +8497,7 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B423" s="32"/>
       <c r="C423" s="33"/>
@@ -8486,7 +8507,7 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B424" s="32"/>
       <c r="C424" s="33"/>
@@ -8496,7 +8517,7 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B425" s="32"/>
       <c r="C425" s="33"/>
@@ -8506,7 +8527,7 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B426" s="32"/>
       <c r="C426" s="33"/>
@@ -8516,7 +8537,7 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B427" s="32"/>
       <c r="C427" s="33"/>
@@ -8526,7 +8547,7 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B428" s="32"/>
       <c r="C428" s="33"/>
@@ -8536,7 +8557,7 @@
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B429" s="32"/>
       <c r="C429" s="33"/>
@@ -8546,7 +8567,7 @@
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B430" s="32"/>
       <c r="C430" s="33"/>
@@ -8556,7 +8577,7 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="32" t="s">
-        <v>330</v>
+        <v>546</v>
       </c>
       <c r="B431" s="32"/>
       <c r="C431" s="33"/>
@@ -8566,7 +8587,7 @@
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="32" t="s">
-        <v>547</v>
+        <v>330</v>
       </c>
       <c r="B432" s="32"/>
       <c r="C432" s="33"/>
@@ -8576,7 +8597,7 @@
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B433" s="32"/>
       <c r="C433" s="33"/>
@@ -8586,7 +8607,7 @@
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B434" s="32"/>
       <c r="C434" s="33"/>
@@ -8596,7 +8617,7 @@
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B435" s="32"/>
       <c r="C435" s="33"/>
@@ -8606,7 +8627,7 @@
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="32" t="s">
-        <v>331</v>
+        <v>550</v>
       </c>
       <c r="B436" s="32"/>
       <c r="C436" s="33"/>
@@ -8616,7 +8637,7 @@
     </row>
     <row r="437" spans="1:6">
       <c r="A437" s="32" t="s">
-        <v>551</v>
+        <v>331</v>
       </c>
       <c r="B437" s="32"/>
       <c r="C437" s="33"/>
@@ -8626,7 +8647,7 @@
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="32" t="s">
-        <v>334</v>
+        <v>551</v>
       </c>
       <c r="B438" s="32"/>
       <c r="C438" s="33"/>
@@ -8636,7 +8657,7 @@
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="32" t="s">
-        <v>552</v>
+        <v>334</v>
       </c>
       <c r="B439" s="32"/>
       <c r="C439" s="33"/>
@@ -8646,7 +8667,7 @@
     </row>
     <row r="440" spans="1:6">
       <c r="A440" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B440" s="32"/>
       <c r="C440" s="33"/>
@@ -8656,7 +8677,7 @@
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B441" s="32"/>
       <c r="C441" s="33"/>
@@ -8666,7 +8687,7 @@
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B442" s="32"/>
       <c r="C442" s="33"/>
@@ -8676,7 +8697,7 @@
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B443" s="32"/>
       <c r="C443" s="33"/>
@@ -8686,7 +8707,7 @@
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="32" t="s">
-        <v>335</v>
+        <v>556</v>
       </c>
       <c r="B444" s="32"/>
       <c r="C444" s="33"/>
@@ -8696,7 +8717,7 @@
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B445" s="32"/>
       <c r="C445" s="33"/>
@@ -8706,7 +8727,7 @@
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="32" t="s">
-        <v>557</v>
+        <v>336</v>
       </c>
       <c r="B446" s="32"/>
       <c r="C446" s="33"/>
@@ -8716,7 +8737,7 @@
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B447" s="32"/>
       <c r="C447" s="33"/>
@@ -8726,7 +8747,7 @@
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B448" s="32"/>
       <c r="C448" s="33"/>
@@ -8736,7 +8757,7 @@
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="32" t="s">
-        <v>338</v>
+        <v>559</v>
       </c>
       <c r="B449" s="32"/>
       <c r="C449" s="33"/>
@@ -8746,7 +8767,7 @@
     </row>
     <row r="450" spans="1:6">
       <c r="A450" s="32" t="s">
-        <v>560</v>
+        <v>338</v>
       </c>
       <c r="B450" s="32"/>
       <c r="C450" s="33"/>
@@ -8756,7 +8777,7 @@
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B451" s="32"/>
       <c r="C451" s="33"/>
@@ -8766,7 +8787,7 @@
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B452" s="32"/>
       <c r="C452" s="33"/>
@@ -8776,7 +8797,7 @@
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B453" s="32"/>
       <c r="C453" s="33"/>
@@ -8786,7 +8807,7 @@
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B454" s="32"/>
       <c r="C454" s="33"/>
@@ -8796,7 +8817,7 @@
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="32" t="s">
-        <v>339</v>
+        <v>564</v>
       </c>
       <c r="B455" s="32"/>
       <c r="C455" s="33"/>
@@ -8806,7 +8827,7 @@
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B456" s="32"/>
       <c r="C456" s="33"/>
@@ -8816,7 +8837,7 @@
     </row>
     <row r="457" spans="1:6">
       <c r="A457" s="32" t="s">
-        <v>565</v>
+        <v>340</v>
       </c>
       <c r="B457" s="32"/>
       <c r="C457" s="33"/>
@@ -8826,7 +8847,7 @@
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="32" t="s">
-        <v>341</v>
+        <v>565</v>
       </c>
       <c r="B458" s="32"/>
       <c r="C458" s="33"/>
@@ -8836,7 +8857,7 @@
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="32" t="s">
-        <v>566</v>
+        <v>341</v>
       </c>
       <c r="B459" s="32"/>
       <c r="C459" s="33"/>
@@ -8846,7 +8867,7 @@
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B460" s="32"/>
       <c r="C460" s="33"/>
@@ -8856,7 +8877,7 @@
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B461" s="32"/>
       <c r="C461" s="33"/>
@@ -8866,7 +8887,7 @@
     </row>
     <row r="462" spans="1:6">
       <c r="A462" s="32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B462" s="32"/>
       <c r="C462" s="33"/>
@@ -8876,7 +8897,7 @@
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B463" s="32"/>
       <c r="C463" s="33"/>
@@ -8886,7 +8907,7 @@
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B464" s="32"/>
       <c r="C464" s="33"/>
@@ -8896,7 +8917,7 @@
     </row>
     <row r="465" spans="1:6">
       <c r="A465" s="32" t="s">
-        <v>347</v>
+        <v>571</v>
       </c>
       <c r="B465" s="32"/>
       <c r="C465" s="33"/>
@@ -8906,7 +8927,7 @@
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="32" t="s">
-        <v>572</v>
+        <v>347</v>
       </c>
       <c r="B466" s="32"/>
       <c r="C466" s="33"/>
@@ -8916,7 +8937,7 @@
     </row>
     <row r="467" spans="1:6">
       <c r="A467" s="32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B467" s="32"/>
       <c r="C467" s="33"/>
@@ -8926,7 +8947,7 @@
     </row>
     <row r="468" spans="1:6">
       <c r="A468" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B468" s="32"/>
       <c r="C468" s="33"/>
@@ -8936,7 +8957,7 @@
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B469" s="32"/>
       <c r="C469" s="33"/>
@@ -8946,7 +8967,7 @@
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B470" s="32"/>
       <c r="C470" s="33"/>
@@ -8956,7 +8977,7 @@
     </row>
     <row r="471" spans="1:6">
       <c r="A471" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B471" s="32"/>
       <c r="C471" s="33"/>
@@ -8966,7 +8987,7 @@
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B472" s="32"/>
       <c r="C472" s="33"/>
@@ -8976,7 +8997,7 @@
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="32" t="s">
-        <v>350</v>
+        <v>578</v>
       </c>
       <c r="B473" s="32"/>
       <c r="C473" s="33"/>
@@ -8986,7 +9007,7 @@
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="32" t="s">
-        <v>579</v>
+        <v>350</v>
       </c>
       <c r="B474" s="32"/>
       <c r="C474" s="33"/>
@@ -8996,7 +9017,7 @@
     </row>
     <row r="475" spans="1:6">
       <c r="A475" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B475" s="32"/>
       <c r="C475" s="33"/>
@@ -9006,7 +9027,7 @@
     </row>
     <row r="476" spans="1:6">
       <c r="A476" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B476" s="32"/>
       <c r="C476" s="33"/>
@@ -9016,7 +9037,7 @@
     </row>
     <row r="477" spans="1:6">
       <c r="A477" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B477" s="32"/>
       <c r="C477" s="33"/>
@@ -9026,7 +9047,7 @@
     </row>
     <row r="478" spans="1:6">
       <c r="A478" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B478" s="32"/>
       <c r="C478" s="33"/>
@@ -9036,7 +9057,7 @@
     </row>
     <row r="479" spans="1:6">
       <c r="A479" s="32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B479" s="32"/>
       <c r="C479" s="33"/>
@@ -9046,7 +9067,7 @@
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="32" t="s">
-        <v>352</v>
+        <v>584</v>
       </c>
       <c r="B480" s="32"/>
       <c r="C480" s="33"/>
@@ -9056,7 +9077,7 @@
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="32" t="s">
-        <v>585</v>
+        <v>352</v>
       </c>
       <c r="B481" s="32"/>
       <c r="C481" s="33"/>
@@ -9066,7 +9087,7 @@
     </row>
     <row r="482" spans="1:6">
       <c r="A482" s="32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B482" s="32"/>
       <c r="C482" s="33"/>
@@ -9076,7 +9097,7 @@
     </row>
     <row r="483" spans="1:6">
       <c r="A483" s="32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B483" s="32"/>
       <c r="C483" s="33"/>
@@ -9086,7 +9107,7 @@
     </row>
     <row r="484" spans="1:6">
       <c r="A484" s="32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B484" s="32"/>
       <c r="C484" s="33"/>
@@ -9096,7 +9117,7 @@
     </row>
     <row r="485" spans="1:6">
       <c r="A485" s="32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B485" s="32"/>
       <c r="C485" s="33"/>
@@ -9106,7 +9127,7 @@
     </row>
     <row r="486" spans="1:6">
       <c r="A486" s="32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B486" s="32"/>
       <c r="C486" s="33"/>
@@ -9116,7 +9137,7 @@
     </row>
     <row r="487" spans="1:6">
       <c r="A487" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B487" s="32"/>
       <c r="C487" s="33"/>
@@ -9126,7 +9147,7 @@
     </row>
     <row r="488" spans="1:6">
       <c r="A488" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B488" s="32"/>
       <c r="C488" s="33"/>
@@ -9136,7 +9157,7 @@
     </row>
     <row r="489" spans="1:6">
       <c r="A489" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B489" s="32"/>
       <c r="C489" s="33"/>
@@ -9146,7 +9167,7 @@
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B490" s="32"/>
       <c r="C490" s="33"/>
@@ -9156,7 +9177,7 @@
     </row>
     <row r="491" spans="1:6">
       <c r="A491" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B491" s="32"/>
       <c r="C491" s="33"/>
@@ -9166,7 +9187,7 @@
     </row>
     <row r="492" spans="1:6">
       <c r="A492" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B492" s="32"/>
       <c r="C492" s="33"/>
@@ -9176,7 +9197,7 @@
     </row>
     <row r="493" spans="1:6">
       <c r="A493" s="32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B493" s="32"/>
       <c r="C493" s="33"/>
@@ -9186,7 +9207,7 @@
     </row>
     <row r="494" spans="1:6">
       <c r="A494" s="32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B494" s="32"/>
       <c r="C494" s="33"/>
@@ -9196,7 +9217,7 @@
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B495" s="32"/>
       <c r="C495" s="33"/>
@@ -9206,7 +9227,7 @@
     </row>
     <row r="496" spans="1:6">
       <c r="A496" s="32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B496" s="32"/>
       <c r="C496" s="33"/>
@@ -9216,7 +9237,7 @@
     </row>
     <row r="497" spans="1:6">
       <c r="A497" s="32" t="s">
-        <v>357</v>
+        <v>600</v>
       </c>
       <c r="B497" s="32"/>
       <c r="C497" s="33"/>
@@ -9226,7 +9247,7 @@
     </row>
     <row r="498" spans="1:6">
       <c r="A498" s="32" t="s">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="B498" s="32"/>
       <c r="C498" s="33"/>
@@ -9236,7 +9257,7 @@
     </row>
     <row r="499" spans="1:6">
       <c r="A499" s="32" t="s">
-        <v>358</v>
+        <v>601</v>
       </c>
       <c r="B499" s="32"/>
       <c r="C499" s="33"/>
@@ -9246,7 +9267,7 @@
     </row>
     <row r="500" spans="1:6">
       <c r="A500" s="32" t="s">
-        <v>602</v>
+        <v>358</v>
       </c>
       <c r="B500" s="32"/>
       <c r="C500" s="33"/>
@@ -9256,7 +9277,7 @@
     </row>
     <row r="501" spans="1:6">
       <c r="A501" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B501" s="32"/>
       <c r="C501" s="33"/>
@@ -9266,7 +9287,7 @@
     </row>
     <row r="502" spans="1:6">
       <c r="A502" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B502" s="32"/>
       <c r="C502" s="33"/>
@@ -9276,7 +9297,7 @@
     </row>
     <row r="503" spans="1:6">
       <c r="A503" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B503" s="32"/>
       <c r="C503" s="33"/>
@@ -9286,7 +9307,7 @@
     </row>
     <row r="504" spans="1:6">
       <c r="A504" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B504" s="32"/>
       <c r="C504" s="33"/>
@@ -9296,7 +9317,7 @@
     </row>
     <row r="505" spans="1:6">
       <c r="A505" s="32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B505" s="32"/>
       <c r="C505" s="33"/>
@@ -9306,7 +9327,7 @@
     </row>
     <row r="506" spans="1:6">
       <c r="A506" s="32" t="s">
-        <v>361</v>
+        <v>607</v>
       </c>
       <c r="B506" s="32"/>
       <c r="C506" s="33"/>
@@ -9316,7 +9337,7 @@
     </row>
     <row r="507" spans="1:6">
       <c r="A507" s="32" t="s">
-        <v>608</v>
+        <v>361</v>
       </c>
       <c r="B507" s="32"/>
       <c r="C507" s="33"/>
@@ -9326,7 +9347,7 @@
     </row>
     <row r="508" spans="1:6">
       <c r="A508" s="32" t="s">
-        <v>362</v>
+        <v>608</v>
       </c>
       <c r="B508" s="32"/>
       <c r="C508" s="33"/>
@@ -9336,7 +9357,7 @@
     </row>
     <row r="509" spans="1:6">
       <c r="A509" s="32" t="s">
-        <v>609</v>
+        <v>362</v>
       </c>
       <c r="B509" s="32"/>
       <c r="C509" s="33"/>
@@ -9346,7 +9367,7 @@
     </row>
     <row r="510" spans="1:6">
       <c r="A510" s="32" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B510" s="32"/>
       <c r="C510" s="33"/>
@@ -9355,8 +9376,8 @@
       <c r="F510" s="32"/>
     </row>
     <row r="511" spans="1:6">
-      <c r="A511" s="29" t="b">
-        <v>0</v>
+      <c r="A511" s="32" t="s">
+        <v>610</v>
       </c>
       <c r="B511" s="32"/>
       <c r="C511" s="33"/>
@@ -9365,8 +9386,8 @@
       <c r="F511" s="32"/>
     </row>
     <row r="512" spans="1:6">
-      <c r="A512" s="32" t="s">
-        <v>367</v>
+      <c r="A512" s="29" t="b">
+        <v>0</v>
       </c>
       <c r="B512" s="32"/>
       <c r="C512" s="33"/>
@@ -9376,7 +9397,7 @@
     </row>
     <row r="513" spans="1:6">
       <c r="A513" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B513" s="32"/>
       <c r="C513" s="33"/>
@@ -9386,7 +9407,7 @@
     </row>
     <row r="514" spans="1:6">
       <c r="A514" s="32" t="s">
-        <v>611</v>
+        <v>368</v>
       </c>
       <c r="B514" s="32"/>
       <c r="C514" s="33"/>
@@ -9396,7 +9417,7 @@
     </row>
     <row r="515" spans="1:6">
       <c r="A515" s="32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B515" s="32"/>
       <c r="C515" s="33"/>
@@ -9406,7 +9427,7 @@
     </row>
     <row r="516" spans="1:6">
       <c r="A516" s="32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B516" s="32"/>
       <c r="C516" s="33"/>
@@ -9416,7 +9437,7 @@
     </row>
     <row r="517" spans="1:6">
       <c r="A517" s="32" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B517" s="32"/>
       <c r="C517" s="33"/>
@@ -9426,7 +9447,7 @@
     </row>
     <row r="518" spans="1:6">
       <c r="A518" s="32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B518" s="32"/>
       <c r="C518" s="33"/>
@@ -9436,7 +9457,7 @@
     </row>
     <row r="519" spans="1:6">
       <c r="A519" s="32" t="s">
-        <v>370</v>
+        <v>615</v>
       </c>
       <c r="B519" s="32"/>
       <c r="C519" s="33"/>
@@ -9446,7 +9467,7 @@
     </row>
     <row r="520" spans="1:6">
       <c r="A520" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B520" s="32"/>
       <c r="C520" s="33"/>
@@ -9456,7 +9477,7 @@
     </row>
     <row r="521" spans="1:6">
       <c r="A521" s="32" t="s">
-        <v>616</v>
+        <v>371</v>
       </c>
       <c r="B521" s="32"/>
       <c r="C521" s="33"/>
@@ -9466,7 +9487,7 @@
     </row>
     <row r="522" spans="1:6">
       <c r="A522" s="32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B522" s="32"/>
       <c r="C522" s="33"/>
@@ -9476,7 +9497,7 @@
     </row>
     <row r="523" spans="1:6">
       <c r="A523" s="32" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B523" s="32"/>
       <c r="C523" s="33"/>
@@ -9486,7 +9507,7 @@
     </row>
     <row r="524" spans="1:6">
       <c r="A524" s="32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B524" s="32"/>
       <c r="C524" s="33"/>
@@ -9496,7 +9517,7 @@
     </row>
     <row r="525" spans="1:6">
       <c r="A525" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B525" s="32"/>
       <c r="C525" s="33"/>
@@ -9506,7 +9527,7 @@
     </row>
     <row r="526" spans="1:6">
       <c r="A526" s="32" t="s">
-        <v>374</v>
+        <v>620</v>
       </c>
       <c r="B526" s="32"/>
       <c r="C526" s="33"/>
@@ -9516,7 +9537,7 @@
     </row>
     <row r="527" spans="1:6">
       <c r="A527" s="32" t="s">
-        <v>621</v>
+        <v>374</v>
       </c>
       <c r="B527" s="32"/>
       <c r="C527" s="33"/>
@@ -9526,7 +9547,7 @@
     </row>
     <row r="528" spans="1:6">
       <c r="A528" s="32" t="s">
-        <v>375</v>
+        <v>621</v>
       </c>
       <c r="B528" s="32"/>
       <c r="C528" s="33"/>
@@ -9536,7 +9557,7 @@
     </row>
     <row r="529" spans="1:6">
       <c r="A529" s="32" t="s">
-        <v>622</v>
+        <v>375</v>
       </c>
       <c r="B529" s="32"/>
       <c r="C529" s="33"/>
@@ -9546,7 +9567,7 @@
     </row>
     <row r="530" spans="1:6">
       <c r="A530" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B530" s="32"/>
       <c r="C530" s="33"/>
@@ -9556,7 +9577,7 @@
     </row>
     <row r="531" spans="1:6">
       <c r="A531" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B531" s="32"/>
       <c r="C531" s="33"/>
@@ -9566,7 +9587,7 @@
     </row>
     <row r="532" spans="1:6">
       <c r="A532" s="32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B532" s="32"/>
       <c r="C532" s="33"/>
@@ -9576,7 +9597,7 @@
     </row>
     <row r="533" spans="1:6">
       <c r="A533" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B533" s="32"/>
       <c r="C533" s="33"/>
@@ -9586,7 +9607,7 @@
     </row>
     <row r="534" spans="1:6">
       <c r="A534" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B534" s="32"/>
       <c r="C534" s="33"/>
@@ -9596,7 +9617,7 @@
     </row>
     <row r="535" spans="1:6">
       <c r="A535" s="32" t="s">
-        <v>377</v>
+        <v>627</v>
       </c>
       <c r="B535" s="32"/>
       <c r="C535" s="33"/>
@@ -9606,7 +9627,7 @@
     </row>
     <row r="536" spans="1:6">
       <c r="A536" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B536" s="32"/>
       <c r="C536" s="33"/>
@@ -9616,7 +9637,7 @@
     </row>
     <row r="537" spans="1:6">
       <c r="A537" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B537" s="32"/>
       <c r="C537" s="33"/>
@@ -9626,7 +9647,7 @@
     </row>
     <row r="538" spans="1:6">
       <c r="A538" s="32" t="s">
-        <v>628</v>
+        <v>379</v>
       </c>
       <c r="B538" s="32"/>
       <c r="C538" s="33"/>
@@ -9636,7 +9657,7 @@
     </row>
     <row r="539" spans="1:6">
       <c r="A539" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B539" s="32"/>
       <c r="C539" s="33"/>
@@ -9646,7 +9667,7 @@
     </row>
     <row r="540" spans="1:6">
       <c r="A540" s="32" t="s">
-        <v>380</v>
+        <v>629</v>
       </c>
       <c r="B540" s="32"/>
       <c r="C540" s="33"/>
@@ -9656,7 +9677,7 @@
     </row>
     <row r="541" spans="1:6">
       <c r="A541" s="32" t="s">
-        <v>630</v>
+        <v>380</v>
       </c>
       <c r="B541" s="32"/>
       <c r="C541" s="33"/>
@@ -9666,7 +9687,7 @@
     </row>
     <row r="542" spans="1:6">
       <c r="A542" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B542" s="32"/>
       <c r="C542" s="33"/>
@@ -9676,7 +9697,7 @@
     </row>
     <row r="543" spans="1:6">
       <c r="A543" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B543" s="32"/>
       <c r="C543" s="33"/>
@@ -9686,7 +9707,7 @@
     </row>
     <row r="544" spans="1:6">
       <c r="A544" s="32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B544" s="32"/>
       <c r="C544" s="33"/>
@@ -9696,7 +9717,7 @@
     </row>
     <row r="545" spans="1:6">
       <c r="A545" s="32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B545" s="32"/>
       <c r="C545" s="33"/>
@@ -9706,7 +9727,7 @@
     </row>
     <row r="546" spans="1:6">
       <c r="A546" s="32" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B546" s="32"/>
       <c r="C546" s="33"/>
@@ -9716,7 +9737,7 @@
     </row>
     <row r="547" spans="1:6">
       <c r="A547" s="32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B547" s="32"/>
       <c r="C547" s="33"/>
@@ -9726,7 +9747,7 @@
     </row>
     <row r="548" spans="1:6">
       <c r="A548" s="32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B548" s="32"/>
       <c r="C548" s="33"/>
@@ -9736,7 +9757,7 @@
     </row>
     <row r="549" spans="1:6">
       <c r="A549" s="32" t="s">
-        <v>386</v>
+        <v>637</v>
       </c>
       <c r="B549" s="32"/>
       <c r="C549" s="33"/>
@@ -9746,7 +9767,7 @@
     </row>
     <row r="550" spans="1:6">
       <c r="A550" s="32" t="s">
-        <v>638</v>
+        <v>386</v>
       </c>
       <c r="B550" s="32"/>
       <c r="C550" s="33"/>
@@ -9756,7 +9777,7 @@
     </row>
     <row r="551" spans="1:6">
       <c r="A551" s="32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B551" s="32"/>
       <c r="C551" s="33"/>
@@ -9766,7 +9787,7 @@
     </row>
     <row r="552" spans="1:6">
       <c r="A552" s="32" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B552" s="32"/>
       <c r="C552" s="33"/>
@@ -9776,7 +9797,7 @@
     </row>
     <row r="553" spans="1:6">
       <c r="A553" s="32" t="s">
-        <v>388</v>
+        <v>640</v>
       </c>
       <c r="B553" s="32"/>
       <c r="C553" s="33"/>
@@ -9786,7 +9807,7 @@
     </row>
     <row r="554" spans="1:6">
       <c r="A554" s="32" t="s">
-        <v>641</v>
+        <v>388</v>
       </c>
       <c r="B554" s="32"/>
       <c r="C554" s="33"/>
@@ -9796,7 +9817,7 @@
     </row>
     <row r="555" spans="1:6">
       <c r="A555" s="32" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B555" s="32"/>
       <c r="C555" s="33"/>
@@ -9806,7 +9827,7 @@
     </row>
     <row r="556" spans="1:6">
       <c r="A556" s="32" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B556" s="32"/>
       <c r="C556" s="33"/>
@@ -9816,7 +9837,7 @@
     </row>
     <row r="557" spans="1:6">
       <c r="A557" s="32" t="s">
-        <v>390</v>
+        <v>643</v>
       </c>
       <c r="B557" s="32"/>
       <c r="C557" s="33"/>
@@ -9826,7 +9847,7 @@
     </row>
     <row r="558" spans="1:6">
       <c r="A558" s="32" t="s">
-        <v>644</v>
+        <v>390</v>
       </c>
       <c r="B558" s="32"/>
       <c r="C558" s="33"/>
@@ -9836,7 +9857,7 @@
     </row>
     <row r="559" spans="1:6">
       <c r="A559" s="32" t="s">
-        <v>391</v>
+        <v>644</v>
       </c>
       <c r="B559" s="32"/>
       <c r="C559" s="33"/>
@@ -9846,7 +9867,7 @@
     </row>
     <row r="560" spans="1:6">
       <c r="A560" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B560" s="32"/>
       <c r="C560" s="33"/>
@@ -9856,7 +9877,7 @@
     </row>
     <row r="561" spans="1:6">
       <c r="A561" s="32" t="s">
-        <v>645</v>
+        <v>392</v>
       </c>
       <c r="B561" s="32"/>
       <c r="C561" s="33"/>
@@ -9866,7 +9887,7 @@
     </row>
     <row r="562" spans="1:6">
       <c r="A562" s="32" t="s">
-        <v>393</v>
+        <v>645</v>
       </c>
       <c r="B562" s="32"/>
       <c r="C562" s="33"/>
@@ -9876,7 +9897,7 @@
     </row>
     <row r="563" spans="1:6">
       <c r="A563" s="32" t="s">
-        <v>646</v>
+        <v>393</v>
       </c>
       <c r="B563" s="32"/>
       <c r="C563" s="33"/>
@@ -9886,7 +9907,7 @@
     </row>
     <row r="564" spans="1:6">
       <c r="A564" s="32" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B564" s="32"/>
       <c r="C564" s="33"/>
@@ -9896,7 +9917,7 @@
     </row>
     <row r="565" spans="1:6">
       <c r="A565" s="32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B565" s="32"/>
       <c r="C565" s="33"/>
@@ -9906,7 +9927,7 @@
     </row>
     <row r="566" spans="1:6">
       <c r="A566" s="32" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B566" s="32"/>
       <c r="C566" s="33"/>
@@ -9916,7 +9937,7 @@
     </row>
     <row r="567" spans="1:6">
       <c r="A567" s="32" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B567" s="32"/>
       <c r="C567" s="33"/>
@@ -9926,7 +9947,7 @@
     </row>
     <row r="568" spans="1:6">
       <c r="A568" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B568" s="32"/>
       <c r="C568" s="33"/>
@@ -9936,7 +9957,7 @@
     </row>
     <row r="569" spans="1:6">
       <c r="A569" s="32" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B569" s="32"/>
       <c r="C569" s="33"/>
@@ -9946,7 +9967,7 @@
     </row>
     <row r="570" spans="1:6">
       <c r="A570" s="32" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B570" s="32"/>
       <c r="C570" s="33"/>
@@ -9956,7 +9977,7 @@
     </row>
     <row r="571" spans="1:6">
       <c r="A571" s="32" t="s">
-        <v>396</v>
+        <v>653</v>
       </c>
       <c r="B571" s="32"/>
       <c r="C571" s="33"/>
@@ -9966,7 +9987,7 @@
     </row>
     <row r="572" spans="1:6">
       <c r="A572" s="32" t="s">
-        <v>654</v>
+        <v>396</v>
       </c>
       <c r="B572" s="32"/>
       <c r="C572" s="33"/>
@@ -9976,7 +9997,7 @@
     </row>
     <row r="573" spans="1:6">
       <c r="A573" s="32" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B573" s="32"/>
       <c r="C573" s="33"/>
@@ -9986,7 +10007,7 @@
     </row>
     <row r="574" spans="1:6">
       <c r="A574" s="32" t="s">
-        <v>397</v>
+        <v>655</v>
       </c>
       <c r="B574" s="32"/>
       <c r="C574" s="33"/>
@@ -9996,7 +10017,7 @@
     </row>
     <row r="575" spans="1:6">
       <c r="A575" s="32" t="s">
-        <v>656</v>
+        <v>397</v>
       </c>
       <c r="B575" s="32"/>
       <c r="C575" s="33"/>
@@ -10006,7 +10027,7 @@
     </row>
     <row r="576" spans="1:6">
       <c r="A576" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B576" s="32"/>
       <c r="C576" s="33"/>
@@ -10016,7 +10037,7 @@
     </row>
     <row r="577" spans="1:6">
       <c r="A577" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B577" s="32"/>
       <c r="C577" s="33"/>
@@ -10026,7 +10047,7 @@
     </row>
     <row r="578" spans="1:6">
       <c r="A578" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B578" s="32"/>
       <c r="C578" s="33"/>
@@ -10036,7 +10057,7 @@
     </row>
     <row r="579" spans="1:6">
       <c r="A579" s="32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B579" s="32"/>
       <c r="C579" s="33"/>
@@ -10046,7 +10067,7 @@
     </row>
     <row r="580" spans="1:6">
       <c r="A580" s="32" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B580" s="32"/>
       <c r="C580" s="33"/>
@@ -10056,7 +10077,7 @@
     </row>
     <row r="581" spans="1:6">
       <c r="A581" s="32" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B581" s="32"/>
       <c r="C581" s="33"/>
@@ -10066,7 +10087,7 @@
     </row>
     <row r="582" spans="1:6">
       <c r="A582" s="32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B582" s="32"/>
       <c r="C582" s="33"/>
@@ -10076,7 +10097,7 @@
     </row>
     <row r="583" spans="1:6">
       <c r="A583" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B583" s="32"/>
       <c r="C583" s="33"/>
@@ -10086,7 +10107,7 @@
     </row>
     <row r="584" spans="1:6">
       <c r="A584" s="32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B584" s="32"/>
       <c r="C584" s="33"/>
@@ -10096,7 +10117,7 @@
     </row>
     <row r="585" spans="1:6">
       <c r="A585" s="32" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B585" s="32"/>
       <c r="C585" s="33"/>
@@ -10106,7 +10127,7 @@
     </row>
     <row r="586" spans="1:6">
       <c r="A586" s="32" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B586" s="32"/>
       <c r="C586" s="33"/>
@@ -10116,7 +10137,7 @@
     </row>
     <row r="587" spans="1:6">
       <c r="A587" s="32" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B587" s="32"/>
       <c r="C587" s="33"/>
@@ -10126,7 +10147,7 @@
     </row>
     <row r="588" spans="1:6">
       <c r="A588" s="32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B588" s="32"/>
       <c r="C588" s="33"/>
@@ -10136,7 +10157,7 @@
     </row>
     <row r="589" spans="1:6">
       <c r="A589" s="32" t="s">
-        <v>400</v>
+        <v>669</v>
       </c>
       <c r="B589" s="32"/>
       <c r="C589" s="33"/>
@@ -10146,7 +10167,7 @@
     </row>
     <row r="590" spans="1:6">
       <c r="A590" s="32" t="s">
-        <v>670</v>
+        <v>400</v>
       </c>
       <c r="B590" s="32"/>
       <c r="C590" s="33"/>
@@ -10156,7 +10177,7 @@
     </row>
     <row r="591" spans="1:6">
       <c r="A591" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B591" s="32"/>
       <c r="C591" s="33"/>
@@ -10166,7 +10187,7 @@
     </row>
     <row r="592" spans="1:6">
       <c r="A592" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B592" s="32"/>
       <c r="C592" s="33"/>
@@ -10176,7 +10197,7 @@
     </row>
     <row r="593" spans="1:6">
       <c r="A593" s="32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B593" s="32"/>
       <c r="C593" s="33"/>
@@ -10186,7 +10207,7 @@
     </row>
     <row r="594" spans="1:6">
       <c r="A594" s="32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B594" s="32"/>
       <c r="C594" s="33"/>
@@ -10196,7 +10217,7 @@
     </row>
     <row r="595" spans="1:6">
       <c r="A595" s="32" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B595" s="32"/>
       <c r="C595" s="33"/>
@@ -10206,7 +10227,7 @@
     </row>
     <row r="596" spans="1:6">
       <c r="A596" s="32" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B596" s="32"/>
       <c r="C596" s="33"/>
@@ -10216,7 +10237,7 @@
     </row>
     <row r="597" spans="1:6">
       <c r="A597" s="32" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B597" s="32"/>
       <c r="C597" s="33"/>
@@ -10226,7 +10247,7 @@
     </row>
     <row r="598" spans="1:6">
       <c r="A598" s="32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B598" s="32"/>
       <c r="C598" s="33"/>
@@ -10236,7 +10257,7 @@
     </row>
     <row r="599" spans="1:6">
       <c r="A599" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B599" s="32"/>
       <c r="C599" s="33"/>
@@ -10246,7 +10267,7 @@
     </row>
     <row r="600" spans="1:6">
       <c r="A600" s="32" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B600" s="32"/>
       <c r="C600" s="33"/>
@@ -10256,7 +10277,7 @@
     </row>
     <row r="601" spans="1:6">
       <c r="A601" s="32" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B601" s="32"/>
       <c r="C601" s="33"/>
@@ -10266,7 +10287,7 @@
     </row>
     <row r="602" spans="1:6">
       <c r="A602" s="32" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B602" s="32"/>
       <c r="C602" s="33"/>
@@ -10276,7 +10297,7 @@
     </row>
     <row r="603" spans="1:6">
       <c r="A603" s="32" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B603" s="32"/>
       <c r="C603" s="33"/>
@@ -10286,7 +10307,7 @@
     </row>
     <row r="604" spans="1:6">
       <c r="A604" s="32" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B604" s="32"/>
       <c r="C604" s="33"/>
@@ -10296,7 +10317,7 @@
     </row>
     <row r="605" spans="1:6">
       <c r="A605" s="32" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B605" s="32"/>
       <c r="C605" s="33"/>
@@ -10306,7 +10327,7 @@
     </row>
     <row r="606" spans="1:6">
       <c r="A606" s="32" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B606" s="32"/>
       <c r="C606" s="33"/>
@@ -10316,7 +10337,7 @@
     </row>
     <row r="607" spans="1:6">
       <c r="A607" s="32" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B607" s="32"/>
       <c r="C607" s="33"/>
@@ -10326,7 +10347,7 @@
     </row>
     <row r="608" spans="1:6">
       <c r="A608" s="32" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B608" s="32"/>
       <c r="C608" s="33"/>
@@ -10336,7 +10357,7 @@
     </row>
     <row r="609" spans="1:6">
       <c r="A609" s="32" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B609" s="32"/>
       <c r="C609" s="33"/>
@@ -10346,7 +10367,7 @@
     </row>
     <row r="610" spans="1:6">
       <c r="A610" s="32" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B610" s="32"/>
       <c r="C610" s="33"/>
@@ -10356,7 +10377,7 @@
     </row>
     <row r="611" spans="1:6">
       <c r="A611" s="32" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B611" s="32"/>
       <c r="C611" s="33"/>
@@ -10366,7 +10387,7 @@
     </row>
     <row r="612" spans="1:6">
       <c r="A612" s="32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B612" s="32"/>
       <c r="C612" s="33"/>
@@ -10376,7 +10397,7 @@
     </row>
     <row r="613" spans="1:6">
       <c r="A613" s="32" t="s">
-        <v>404</v>
+        <v>692</v>
       </c>
       <c r="B613" s="32"/>
       <c r="C613" s="33"/>
@@ -10386,7 +10407,7 @@
     </row>
     <row r="614" spans="1:6">
       <c r="A614" s="32" t="s">
-        <v>693</v>
+        <v>404</v>
       </c>
       <c r="B614" s="32"/>
       <c r="C614" s="33"/>
@@ -10396,7 +10417,7 @@
     </row>
     <row r="615" spans="1:6">
       <c r="A615" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B615" s="32"/>
       <c r="C615" s="33"/>
@@ -10406,7 +10427,7 @@
     </row>
     <row r="616" spans="1:6">
       <c r="A616" s="32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B616" s="32"/>
       <c r="C616" s="33"/>
@@ -10416,7 +10437,7 @@
     </row>
     <row r="617" spans="1:6">
       <c r="A617" s="32" t="s">
-        <v>405</v>
+        <v>695</v>
       </c>
       <c r="B617" s="32"/>
       <c r="C617" s="33"/>
@@ -10426,7 +10447,7 @@
     </row>
     <row r="618" spans="1:6">
       <c r="A618" s="32" t="s">
-        <v>696</v>
+        <v>405</v>
       </c>
       <c r="B618" s="32"/>
       <c r="C618" s="33"/>
@@ -10436,7 +10457,7 @@
     </row>
     <row r="619" spans="1:6">
       <c r="A619" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B619" s="32"/>
       <c r="C619" s="33"/>
@@ -10446,7 +10467,7 @@
     </row>
     <row r="620" spans="1:6">
       <c r="A620" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B620" s="32"/>
       <c r="C620" s="33"/>
@@ -10456,7 +10477,7 @@
     </row>
     <row r="621" spans="1:6">
       <c r="A621" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B621" s="32"/>
       <c r="C621" s="33"/>
@@ -10466,7 +10487,7 @@
     </row>
     <row r="622" spans="1:6">
       <c r="A622" s="32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B622" s="32"/>
       <c r="C622" s="33"/>
@@ -10476,7 +10497,7 @@
     </row>
     <row r="623" spans="1:6">
       <c r="A623" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B623" s="32"/>
       <c r="C623" s="33"/>
@@ -10486,7 +10507,7 @@
     </row>
     <row r="624" spans="1:6">
       <c r="A624" s="32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B624" s="32"/>
       <c r="C624" s="33"/>
@@ -10496,7 +10517,7 @@
     </row>
     <row r="625" spans="1:6">
       <c r="A625" s="32" t="s">
-        <v>410</v>
+        <v>702</v>
       </c>
       <c r="B625" s="32"/>
       <c r="C625" s="33"/>
@@ -10506,7 +10527,7 @@
     </row>
     <row r="626" spans="1:6">
       <c r="A626" s="32" t="s">
-        <v>703</v>
+        <v>410</v>
       </c>
       <c r="B626" s="32"/>
       <c r="C626" s="33"/>
@@ -10516,7 +10537,7 @@
     </row>
     <row r="627" spans="1:6">
       <c r="A627" s="32" t="s">
-        <v>411</v>
+        <v>703</v>
       </c>
       <c r="B627" s="32"/>
       <c r="C627" s="33"/>
@@ -10526,7 +10547,7 @@
     </row>
     <row r="628" spans="1:6">
       <c r="A628" s="32" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B628" s="32"/>
       <c r="C628" s="33"/>
@@ -10536,7 +10557,7 @@
     </row>
     <row r="629" spans="1:6">
       <c r="A629" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B629" s="32"/>
       <c r="C629" s="33"/>
@@ -10546,7 +10567,7 @@
     </row>
     <row r="630" spans="1:6">
       <c r="A630" s="32" t="s">
-        <v>704</v>
+        <v>418</v>
       </c>
       <c r="B630" s="32"/>
       <c r="C630" s="33"/>
@@ -10556,7 +10577,7 @@
     </row>
     <row r="631" spans="1:6">
       <c r="A631" s="32" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B631" s="32"/>
       <c r="C631" s="33"/>
@@ -10566,7 +10587,7 @@
     </row>
     <row r="632" spans="1:6">
       <c r="A632" s="32" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B632" s="32"/>
       <c r="C632" s="33"/>
@@ -10576,7 +10597,7 @@
     </row>
     <row r="633" spans="1:6">
       <c r="A633" s="32" t="s">
-        <v>419</v>
+        <v>706</v>
       </c>
       <c r="B633" s="32"/>
       <c r="C633" s="33"/>
@@ -10586,7 +10607,7 @@
     </row>
     <row r="634" spans="1:6">
       <c r="A634" s="32" t="s">
-        <v>707</v>
+        <v>419</v>
       </c>
       <c r="B634" s="32"/>
       <c r="C634" s="33"/>
@@ -10596,7 +10617,7 @@
     </row>
     <row r="635" spans="1:6">
       <c r="A635" s="32" t="s">
-        <v>420</v>
+        <v>707</v>
       </c>
       <c r="B635" s="32"/>
       <c r="C635" s="33"/>
@@ -10606,7 +10627,7 @@
     </row>
     <row r="636" spans="1:6">
       <c r="A636" s="32" t="s">
-        <v>708</v>
+        <v>420</v>
       </c>
       <c r="B636" s="32"/>
       <c r="C636" s="33"/>
@@ -10616,7 +10637,7 @@
     </row>
     <row r="637" spans="1:6">
       <c r="A637" s="32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B637" s="32"/>
       <c r="C637" s="33"/>
@@ -10626,7 +10647,7 @@
     </row>
     <row r="638" spans="1:6">
       <c r="A638" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B638" s="32"/>
       <c r="C638" s="33"/>
@@ -10636,7 +10657,7 @@
     </row>
     <row r="639" spans="1:6">
       <c r="A639" s="32" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B639" s="32"/>
       <c r="C639" s="33"/>
@@ -10646,7 +10667,7 @@
     </row>
     <row r="640" spans="1:6">
       <c r="A640" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B640" s="32"/>
       <c r="C640" s="33"/>
@@ -10656,7 +10677,7 @@
     </row>
     <row r="641" spans="1:6">
       <c r="A641" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B641" s="32"/>
       <c r="C641" s="33"/>
@@ -10666,7 +10687,7 @@
     </row>
     <row r="642" spans="1:6">
       <c r="A642" s="32" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B642" s="32"/>
       <c r="C642" s="33"/>
@@ -10676,7 +10697,7 @@
     </row>
     <row r="643" spans="1:6">
       <c r="A643" s="32" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B643" s="32"/>
       <c r="C643" s="33"/>
@@ -10686,7 +10707,7 @@
     </row>
     <row r="644" spans="1:6">
       <c r="A644" s="32" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B644" s="32"/>
       <c r="C644" s="33"/>
@@ -10696,7 +10717,7 @@
     </row>
     <row r="645" spans="1:6">
       <c r="A645" s="32" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B645" s="32"/>
       <c r="C645" s="33"/>
@@ -10706,7 +10727,7 @@
     </row>
     <row r="646" spans="1:6">
       <c r="A646" s="32" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B646" s="32"/>
       <c r="C646" s="33"/>
@@ -10716,7 +10737,7 @@
     </row>
     <row r="647" spans="1:6">
       <c r="A647" s="32" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B647" s="32"/>
       <c r="C647" s="33"/>
@@ -10726,7 +10747,7 @@
     </row>
     <row r="648" spans="1:6">
       <c r="A648" s="32" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B648" s="32"/>
       <c r="C648" s="33"/>
@@ -10736,7 +10757,7 @@
     </row>
     <row r="649" spans="1:6">
       <c r="A649" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B649" s="32"/>
       <c r="C649" s="33"/>
@@ -10746,7 +10767,7 @@
     </row>
     <row r="650" spans="1:6">
       <c r="A650" s="32" t="s">
-        <v>421</v>
+        <v>721</v>
       </c>
       <c r="B650" s="32"/>
       <c r="C650" s="33"/>
@@ -10756,7 +10777,7 @@
     </row>
     <row r="651" spans="1:6">
       <c r="A651" s="32" t="s">
-        <v>722</v>
+        <v>421</v>
       </c>
       <c r="B651" s="32"/>
       <c r="C651" s="33"/>
@@ -10766,7 +10787,7 @@
     </row>
     <row r="652" spans="1:6">
       <c r="A652" s="32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B652" s="32"/>
       <c r="C652" s="33"/>
@@ -10776,7 +10797,7 @@
     </row>
     <row r="653" spans="1:6">
       <c r="A653" s="32" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B653" s="32"/>
       <c r="C653" s="33"/>
@@ -10786,7 +10807,7 @@
     </row>
     <row r="654" spans="1:6">
       <c r="A654" s="32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B654" s="32"/>
       <c r="C654" s="33"/>
@@ -10796,7 +10817,7 @@
     </row>
     <row r="655" spans="1:6">
       <c r="A655" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B655" s="32"/>
       <c r="C655" s="33"/>
@@ -10806,7 +10827,7 @@
     </row>
     <row r="656" spans="1:6">
       <c r="A656" s="32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B656" s="32"/>
       <c r="C656" s="33"/>
@@ -10816,7 +10837,7 @@
     </row>
     <row r="657" spans="1:6">
       <c r="A657" s="32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B657" s="32"/>
       <c r="C657" s="33"/>
@@ -10826,7 +10847,7 @@
     </row>
     <row r="658" spans="1:6">
       <c r="A658" s="32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B658" s="32"/>
       <c r="C658" s="33"/>
@@ -10836,7 +10857,7 @@
     </row>
     <row r="659" spans="1:6">
       <c r="A659" s="32" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B659" s="32"/>
       <c r="C659" s="33"/>
@@ -10846,7 +10867,7 @@
     </row>
     <row r="660" spans="1:6">
       <c r="A660" s="32" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B660" s="32"/>
       <c r="C660" s="33"/>
@@ -10856,7 +10877,7 @@
     </row>
     <row r="661" spans="1:6">
       <c r="A661" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B661" s="32"/>
       <c r="C661" s="33"/>
@@ -10866,7 +10887,7 @@
     </row>
     <row r="662" spans="1:6">
       <c r="A662" s="32" t="s">
-        <v>425</v>
+        <v>732</v>
       </c>
       <c r="B662" s="32"/>
       <c r="C662" s="33"/>
@@ -10876,7 +10897,7 @@
     </row>
     <row r="663" spans="1:6">
       <c r="A663" s="32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B663" s="32"/>
       <c r="C663" s="33"/>
@@ -10886,7 +10907,7 @@
     </row>
     <row r="664" spans="1:6">
       <c r="A664" s="32" t="s">
-        <v>733</v>
+        <v>429</v>
       </c>
       <c r="B664" s="32"/>
       <c r="C664" s="33"/>
@@ -10896,7 +10917,7 @@
     </row>
     <row r="665" spans="1:6">
       <c r="A665" s="32" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B665" s="32"/>
       <c r="C665" s="33"/>
@@ -10906,7 +10927,7 @@
     </row>
     <row r="666" spans="1:6">
       <c r="A666" s="32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B666" s="32"/>
       <c r="C666" s="33"/>
@@ -10916,7 +10937,7 @@
     </row>
     <row r="667" spans="1:6">
       <c r="A667" s="32" t="s">
-        <v>434</v>
+        <v>735</v>
       </c>
       <c r="B667" s="32"/>
       <c r="C667" s="33"/>
@@ -10926,7 +10947,7 @@
     </row>
     <row r="668" spans="1:6">
       <c r="A668" s="32" t="s">
-        <v>736</v>
+        <v>434</v>
       </c>
       <c r="B668" s="32"/>
       <c r="C668" s="33"/>
@@ -10936,7 +10957,7 @@
     </row>
     <row r="669" spans="1:6">
       <c r="A669" s="32" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B669" s="32"/>
       <c r="C669" s="33"/>
@@ -10946,7 +10967,7 @@
     </row>
     <row r="670" spans="1:6">
       <c r="A670" s="32" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B670" s="32"/>
       <c r="C670" s="33"/>
@@ -10956,7 +10977,7 @@
     </row>
     <row r="671" spans="1:6">
       <c r="A671" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B671" s="32"/>
       <c r="C671" s="33"/>
@@ -10966,7 +10987,7 @@
     </row>
     <row r="672" spans="1:6">
       <c r="A672" s="32" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B672" s="32"/>
       <c r="C672" s="33"/>
@@ -10976,7 +10997,7 @@
     </row>
     <row r="673" spans="1:6">
       <c r="A673" s="32" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B673" s="32"/>
       <c r="C673" s="33"/>
@@ -10986,7 +11007,7 @@
     </row>
     <row r="674" spans="1:6">
       <c r="A674" s="32" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B674" s="32"/>
       <c r="C674" s="33"/>
@@ -10996,7 +11017,7 @@
     </row>
     <row r="675" spans="1:6">
       <c r="A675" s="32" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B675" s="32"/>
       <c r="C675" s="33"/>
@@ -11006,7 +11027,7 @@
     </row>
     <row r="676" spans="1:6">
       <c r="A676" s="32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B676" s="32"/>
       <c r="C676" s="33"/>
@@ -11016,7 +11037,7 @@
     </row>
     <row r="677" spans="1:6">
       <c r="A677" s="32" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B677" s="32"/>
       <c r="C677" s="33"/>
@@ -11026,7 +11047,7 @@
     </row>
     <row r="678" spans="1:6">
       <c r="A678" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B678" s="32"/>
       <c r="C678" s="33"/>
@@ -11036,7 +11057,7 @@
     </row>
     <row r="679" spans="1:6">
       <c r="A679" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B679" s="32"/>
       <c r="C679" s="33"/>
@@ -11046,7 +11067,7 @@
     </row>
     <row r="680" spans="1:6">
       <c r="A680" s="32" t="s">
-        <v>436</v>
+        <v>747</v>
       </c>
       <c r="B680" s="32"/>
       <c r="C680" s="33"/>
@@ -11056,7 +11077,7 @@
     </row>
     <row r="681" spans="1:6">
       <c r="A681" s="32" t="s">
-        <v>748</v>
+        <v>436</v>
       </c>
       <c r="B681" s="32"/>
       <c r="C681" s="33"/>
@@ -11066,7 +11087,7 @@
     </row>
     <row r="682" spans="1:6">
       <c r="A682" s="32" t="s">
-        <v>438</v>
+        <v>748</v>
       </c>
       <c r="B682" s="32"/>
       <c r="C682" s="33"/>
@@ -11076,7 +11097,7 @@
     </row>
     <row r="683" spans="1:6">
       <c r="A683" s="32" t="s">
-        <v>749</v>
+        <v>438</v>
       </c>
       <c r="B683" s="32"/>
       <c r="C683" s="33"/>
@@ -11086,7 +11107,7 @@
     </row>
     <row r="684" spans="1:6">
       <c r="A684" s="32" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B684" s="32"/>
       <c r="C684" s="33"/>
@@ -11096,7 +11117,7 @@
     </row>
     <row r="685" spans="1:6">
       <c r="A685" s="32" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B685" s="32"/>
       <c r="C685" s="33"/>
@@ -11106,7 +11127,7 @@
     </row>
     <row r="686" spans="1:6">
       <c r="A686" s="32" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B686" s="32"/>
       <c r="C686" s="33"/>
@@ -11116,7 +11137,7 @@
     </row>
     <row r="687" spans="1:6">
       <c r="A687" s="32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B687" s="32"/>
       <c r="C687" s="33"/>
@@ -11126,7 +11147,7 @@
     </row>
     <row r="688" spans="1:6">
       <c r="A688" s="32" t="s">
-        <v>441</v>
+        <v>753</v>
       </c>
       <c r="B688" s="32"/>
       <c r="C688" s="33"/>
@@ -11136,7 +11157,7 @@
     </row>
     <row r="689" spans="1:6">
       <c r="A689" s="32" t="s">
-        <v>754</v>
+        <v>441</v>
       </c>
       <c r="B689" s="32"/>
       <c r="C689" s="33"/>
@@ -11146,7 +11167,7 @@
     </row>
     <row r="690" spans="1:6">
       <c r="A690" s="32" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B690" s="32"/>
       <c r="C690" s="33"/>
@@ -11156,7 +11177,7 @@
     </row>
     <row r="691" spans="1:6">
       <c r="A691" s="32" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B691" s="32"/>
       <c r="C691" s="33"/>
@@ -11166,7 +11187,7 @@
     </row>
     <row r="692" spans="1:6">
       <c r="A692" s="32" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B692" s="32"/>
       <c r="C692" s="33"/>
@@ -11176,7 +11197,7 @@
     </row>
     <row r="693" spans="1:6">
       <c r="A693" s="32" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B693" s="32"/>
       <c r="C693" s="33"/>
@@ -11186,7 +11207,7 @@
     </row>
     <row r="694" spans="1:6">
       <c r="A694" s="32" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B694" s="32"/>
       <c r="C694" s="33"/>
@@ -11196,7 +11217,7 @@
     </row>
     <row r="695" spans="1:6">
       <c r="A695" s="32" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B695" s="32"/>
       <c r="C695" s="33"/>
@@ -11206,7 +11227,7 @@
     </row>
     <row r="696" spans="1:6">
       <c r="A696" s="32" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B696" s="32"/>
       <c r="C696" s="33"/>
@@ -11216,7 +11237,7 @@
     </row>
     <row r="697" spans="1:6">
       <c r="A697" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B697" s="32"/>
       <c r="C697" s="33"/>
@@ -11226,7 +11247,7 @@
     </row>
     <row r="698" spans="1:6">
       <c r="A698" s="32" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B698" s="32"/>
       <c r="C698" s="33"/>
@@ -11236,7 +11257,7 @@
     </row>
     <row r="699" spans="1:6">
       <c r="A699" s="32" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B699" s="32"/>
       <c r="C699" s="33"/>
@@ -11246,7 +11267,7 @@
     </row>
     <row r="700" spans="1:6">
       <c r="A700" s="32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B700" s="32"/>
       <c r="C700" s="33"/>
@@ -11256,7 +11277,7 @@
     </row>
     <row r="701" spans="1:6">
       <c r="A701" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B701" s="32"/>
       <c r="C701" s="33"/>
@@ -11266,7 +11287,7 @@
     </row>
     <row r="702" spans="1:6">
       <c r="A702" s="32" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B702" s="32"/>
       <c r="C702" s="33"/>
@@ -11276,7 +11297,7 @@
     </row>
     <row r="703" spans="1:6">
       <c r="A703" s="32" t="s">
-        <v>449</v>
+        <v>767</v>
       </c>
       <c r="B703" s="32"/>
       <c r="C703" s="33"/>
@@ -11286,7 +11307,7 @@
     </row>
     <row r="704" spans="1:6">
       <c r="A704" s="32" t="s">
-        <v>768</v>
+        <v>449</v>
       </c>
       <c r="B704" s="32"/>
       <c r="C704" s="33"/>
@@ -11296,7 +11317,7 @@
     </row>
     <row r="705" spans="1:6">
       <c r="A705" s="32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B705" s="32"/>
       <c r="C705" s="33"/>
@@ -11306,7 +11327,7 @@
     </row>
     <row r="706" spans="1:6">
       <c r="A706" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B706" s="32"/>
       <c r="C706" s="33"/>
@@ -11316,7 +11337,7 @@
     </row>
     <row r="707" spans="1:6">
       <c r="A707" s="32" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B707" s="32"/>
       <c r="C707" s="33"/>
@@ -11326,7 +11347,7 @@
     </row>
     <row r="708" spans="1:6">
       <c r="A708" s="32" t="s">
-        <v>453</v>
+        <v>771</v>
       </c>
       <c r="B708" s="32"/>
       <c r="C708" s="33"/>
@@ -11336,7 +11357,7 @@
     </row>
     <row r="709" spans="1:6">
       <c r="A709" s="32" t="s">
-        <v>772</v>
+        <v>453</v>
       </c>
       <c r="B709" s="32"/>
       <c r="C709" s="33"/>
@@ -11346,7 +11367,7 @@
     </row>
     <row r="710" spans="1:6">
       <c r="A710" s="32" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B710" s="32"/>
       <c r="C710" s="33"/>
@@ -11356,7 +11377,7 @@
     </row>
     <row r="711" spans="1:6">
       <c r="A711" s="32" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B711" s="32"/>
       <c r="C711" s="33"/>
@@ -11366,7 +11387,7 @@
     </row>
     <row r="712" spans="1:6">
       <c r="A712" s="32" t="s">
-        <v>457</v>
+        <v>774</v>
       </c>
       <c r="B712" s="32"/>
       <c r="C712" s="33"/>
@@ -11376,7 +11397,7 @@
     </row>
     <row r="713" spans="1:6">
       <c r="A713" s="32" t="s">
-        <v>775</v>
+        <v>457</v>
       </c>
       <c r="B713" s="32"/>
       <c r="C713" s="33"/>
@@ -11386,7 +11407,7 @@
     </row>
     <row r="714" spans="1:6">
       <c r="A714" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B714" s="32"/>
       <c r="C714" s="33"/>
@@ -11396,7 +11417,7 @@
     </row>
     <row r="715" spans="1:6">
       <c r="A715" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B715" s="32"/>
       <c r="C715" s="33"/>
@@ -11406,7 +11427,7 @@
     </row>
     <row r="716" spans="1:6">
       <c r="A716" s="32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B716" s="32"/>
       <c r="C716" s="33"/>
@@ -11416,7 +11437,7 @@
     </row>
     <row r="717" spans="1:6">
       <c r="A717" s="32" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B717" s="32"/>
       <c r="C717" s="33"/>
@@ -11426,7 +11447,7 @@
     </row>
     <row r="718" spans="1:6">
       <c r="A718" s="32" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B718" s="32"/>
       <c r="C718" s="33"/>
@@ -11436,7 +11457,7 @@
     </row>
     <row r="719" spans="1:6">
       <c r="A719" s="32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B719" s="32"/>
       <c r="C719" s="33"/>
@@ -11446,7 +11467,7 @@
     </row>
     <row r="720" spans="1:6">
       <c r="A720" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B720" s="32"/>
       <c r="C720" s="33"/>
@@ -11456,7 +11477,7 @@
     </row>
     <row r="721" spans="1:6">
       <c r="A721" s="32" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B721" s="32"/>
       <c r="C721" s="33"/>
@@ -11466,7 +11487,7 @@
     </row>
     <row r="722" spans="1:6">
       <c r="A722" s="32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B722" s="32"/>
       <c r="C722" s="33"/>
@@ -11476,7 +11497,7 @@
     </row>
     <row r="723" spans="1:6">
       <c r="A723" s="32" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B723" s="32"/>
       <c r="C723" s="33"/>
@@ -11486,7 +11507,7 @@
     </row>
     <row r="724" spans="1:6">
       <c r="A724" s="32" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B724" s="32"/>
       <c r="C724" s="33"/>
@@ -11496,7 +11517,7 @@
     </row>
     <row r="725" spans="1:6">
       <c r="A725" s="32" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B725" s="32"/>
       <c r="C725" s="33"/>
@@ -11506,7 +11527,7 @@
     </row>
     <row r="726" spans="1:6">
       <c r="A726" s="32" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B726" s="32"/>
       <c r="C726" s="33"/>
@@ -11516,7 +11537,7 @@
     </row>
     <row r="727" spans="1:6">
       <c r="A727" s="32" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B727" s="32"/>
       <c r="C727" s="33"/>
@@ -11526,7 +11547,7 @@
     </row>
     <row r="728" spans="1:6">
       <c r="A728" s="32" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B728" s="32"/>
       <c r="C728" s="33"/>
@@ -11536,7 +11557,7 @@
     </row>
     <row r="729" spans="1:6">
       <c r="A729" s="32" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B729" s="32"/>
       <c r="C729" s="33"/>
@@ -11546,7 +11567,7 @@
     </row>
     <row r="730" spans="1:6">
       <c r="A730" s="32" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B730" s="32"/>
       <c r="C730" s="33"/>
@@ -11556,7 +11577,7 @@
     </row>
     <row r="731" spans="1:6">
       <c r="A731" s="32" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B731" s="32"/>
       <c r="C731" s="33"/>
@@ -11566,7 +11587,7 @@
     </row>
     <row r="732" spans="1:6">
       <c r="A732" s="32" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B732" s="32"/>
       <c r="C732" s="33"/>
@@ -11576,7 +11597,7 @@
     </row>
     <row r="733" spans="1:6">
       <c r="A733" s="32" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B733" s="32"/>
       <c r="C733" s="33"/>
@@ -11586,7 +11607,7 @@
     </row>
     <row r="734" spans="1:6">
       <c r="A734" s="32" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B734" s="32"/>
       <c r="C734" s="33"/>
@@ -11596,7 +11617,7 @@
     </row>
     <row r="735" spans="1:6">
       <c r="A735" s="32" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B735" s="32"/>
       <c r="C735" s="33"/>
@@ -11606,7 +11627,7 @@
     </row>
     <row r="736" spans="1:6">
       <c r="A736" s="32" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B736" s="32"/>
       <c r="C736" s="33"/>
@@ -11616,7 +11637,7 @@
     </row>
     <row r="737" spans="1:6">
       <c r="A737" s="32" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B737" s="32"/>
       <c r="C737" s="33"/>
@@ -11626,7 +11647,7 @@
     </row>
     <row r="738" spans="1:6">
       <c r="A738" s="32" t="s">
-        <v>459</v>
+        <v>799</v>
       </c>
       <c r="B738" s="32"/>
       <c r="C738" s="33"/>
@@ -11636,7 +11657,7 @@
     </row>
     <row r="739" spans="1:6">
       <c r="A739" s="32" t="s">
-        <v>800</v>
+        <v>459</v>
       </c>
       <c r="B739" s="32"/>
       <c r="C739" s="33"/>
@@ -11646,7 +11667,7 @@
     </row>
     <row r="740" spans="1:6">
       <c r="A740" s="32" t="s">
-        <v>460</v>
+        <v>800</v>
       </c>
       <c r="B740" s="32"/>
       <c r="C740" s="33"/>
@@ -11656,7 +11677,7 @@
     </row>
     <row r="741" spans="1:6">
       <c r="A741" s="32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B741" s="32"/>
       <c r="C741" s="33"/>
@@ -11666,7 +11687,7 @@
     </row>
     <row r="742" spans="1:6">
       <c r="A742" s="32" t="s">
-        <v>801</v>
+        <v>461</v>
       </c>
       <c r="B742" s="32"/>
       <c r="C742" s="33"/>
@@ -11676,7 +11697,7 @@
     </row>
     <row r="743" spans="1:6">
       <c r="A743" s="32" t="s">
-        <v>463</v>
+        <v>801</v>
       </c>
       <c r="B743" s="32"/>
       <c r="C743" s="33"/>
@@ -11686,7 +11707,7 @@
     </row>
     <row r="744" spans="1:6">
       <c r="A744" s="32" t="s">
-        <v>802</v>
+        <v>463</v>
       </c>
       <c r="B744" s="32"/>
       <c r="C744" s="33"/>
@@ -11696,7 +11717,7 @@
     </row>
     <row r="745" spans="1:6">
       <c r="A745" s="32" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B745" s="32"/>
       <c r="C745" s="33"/>
@@ -11706,7 +11727,7 @@
     </row>
     <row r="746" spans="1:6">
       <c r="A746" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B746" s="32"/>
       <c r="C746" s="33"/>
@@ -11716,7 +11737,7 @@
     </row>
     <row r="747" spans="1:6">
       <c r="A747" s="32" t="s">
-        <v>464</v>
+        <v>804</v>
       </c>
       <c r="B747" s="32"/>
       <c r="C747" s="33"/>
@@ -11726,7 +11747,7 @@
     </row>
     <row r="748" spans="1:6">
       <c r="A748" s="32" t="s">
-        <v>805</v>
+        <v>464</v>
       </c>
       <c r="B748" s="32"/>
       <c r="C748" s="33"/>
@@ -11736,7 +11757,7 @@
     </row>
     <row r="749" spans="1:6">
       <c r="A749" s="32" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B749" s="32"/>
       <c r="C749" s="33"/>
@@ -11746,7 +11767,7 @@
     </row>
     <row r="750" spans="1:6">
       <c r="A750" s="32" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B750" s="32"/>
       <c r="C750" s="33"/>
@@ -11756,7 +11777,7 @@
     </row>
     <row r="751" spans="1:6">
       <c r="A751" s="32" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B751" s="32"/>
       <c r="C751" s="33"/>
@@ -11766,7 +11787,7 @@
     </row>
     <row r="752" spans="1:6">
       <c r="A752" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B752" s="32"/>
       <c r="C752" s="33"/>
@@ -11776,7 +11797,7 @@
     </row>
     <row r="753" spans="1:6">
       <c r="A753" s="32" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B753" s="32"/>
       <c r="C753" s="33"/>
@@ -11786,7 +11807,7 @@
     </row>
     <row r="754" spans="1:6">
       <c r="A754" s="32" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B754" s="32"/>
       <c r="C754" s="33"/>
@@ -11796,7 +11817,7 @@
     </row>
     <row r="755" spans="1:6">
       <c r="A755" s="32" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B755" s="32"/>
       <c r="C755" s="33"/>
@@ -11806,7 +11827,7 @@
     </row>
     <row r="756" spans="1:6">
       <c r="A756" s="32" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B756" s="32"/>
       <c r="C756" s="33"/>
@@ -11816,7 +11837,7 @@
     </row>
     <row r="757" spans="1:6">
       <c r="A757" s="32" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B757" s="32"/>
       <c r="C757" s="33"/>
@@ -11826,7 +11847,7 @@
     </row>
     <row r="758" spans="1:6">
       <c r="A758" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B758" s="32"/>
       <c r="C758" s="33"/>
@@ -11836,7 +11857,7 @@
     </row>
     <row r="759" spans="1:6">
       <c r="A759" s="32" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B759" s="32"/>
       <c r="C759" s="33"/>
@@ -11846,7 +11867,7 @@
     </row>
     <row r="760" spans="1:6">
       <c r="A760" s="32" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B760" s="32"/>
       <c r="C760" s="33"/>
@@ -11856,7 +11877,7 @@
     </row>
     <row r="761" spans="1:6">
       <c r="A761" s="32" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B761" s="32"/>
       <c r="C761" s="33"/>
@@ -11866,7 +11887,7 @@
     </row>
     <row r="762" spans="1:6">
       <c r="A762" s="32" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B762" s="32"/>
       <c r="C762" s="33"/>
@@ -11875,8 +11896,8 @@
       <c r="F762" s="32"/>
     </row>
     <row r="763" spans="1:6">
-      <c r="A763" s="32" t="b">
-        <v>1</v>
+      <c r="A763" s="32" t="s">
+        <v>819</v>
       </c>
       <c r="B763" s="32"/>
       <c r="C763" s="33"/>
@@ -11885,8 +11906,8 @@
       <c r="F763" s="32"/>
     </row>
     <row r="764" spans="1:6">
-      <c r="A764" s="32" t="s">
-        <v>820</v>
+      <c r="A764" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="B764" s="32"/>
       <c r="C764" s="33"/>
@@ -11896,7 +11917,7 @@
     </row>
     <row r="765" spans="1:6">
       <c r="A765" s="32" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B765" s="32"/>
       <c r="C765" s="33"/>
@@ -11906,7 +11927,7 @@
     </row>
     <row r="766" spans="1:6">
       <c r="A766" s="32" t="s">
-        <v>472</v>
+        <v>821</v>
       </c>
       <c r="B766" s="32"/>
       <c r="C766" s="33"/>
@@ -11916,7 +11937,7 @@
     </row>
     <row r="767" spans="1:6">
       <c r="A767" s="32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B767" s="32"/>
       <c r="C767" s="33"/>
@@ -11926,7 +11947,7 @@
     </row>
     <row r="768" spans="1:6">
       <c r="A768" s="32" t="s">
-        <v>822</v>
+        <v>473</v>
       </c>
       <c r="B768" s="32"/>
       <c r="C768" s="33"/>
@@ -11936,7 +11957,7 @@
     </row>
     <row r="769" spans="1:6">
       <c r="A769" s="32" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B769" s="32"/>
       <c r="C769" s="33"/>
@@ -11946,7 +11967,7 @@
     </row>
     <row r="770" spans="1:6">
       <c r="A770" s="32" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B770" s="32"/>
       <c r="C770" s="33"/>
@@ -11956,7 +11977,7 @@
     </row>
     <row r="771" spans="1:6">
       <c r="A771" s="32" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B771" s="32"/>
       <c r="C771" s="33"/>
@@ -11966,7 +11987,7 @@
     </row>
     <row r="772" spans="1:6">
       <c r="A772" s="32" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B772" s="32"/>
       <c r="C772" s="33"/>
@@ -11976,7 +11997,7 @@
     </row>
     <row r="773" spans="1:6">
       <c r="A773" s="32" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B773" s="32"/>
       <c r="C773" s="33"/>
@@ -11986,7 +12007,7 @@
     </row>
     <row r="774" spans="1:6">
       <c r="A774" s="32" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B774" s="32"/>
       <c r="C774" s="33"/>
@@ -11996,7 +12017,7 @@
     </row>
     <row r="775" spans="1:6">
       <c r="A775" s="32" t="s">
-        <v>478</v>
+        <v>828</v>
       </c>
       <c r="B775" s="32"/>
       <c r="C775" s="33"/>
@@ -12006,7 +12027,7 @@
     </row>
     <row r="776" spans="1:6">
       <c r="A776" s="32" t="s">
-        <v>829</v>
+        <v>478</v>
       </c>
       <c r="B776" s="32"/>
       <c r="C776" s="33"/>
@@ -12016,7 +12037,7 @@
     </row>
     <row r="777" spans="1:6">
       <c r="A777" s="32" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B777" s="32"/>
       <c r="C777" s="33"/>
@@ -12026,7 +12047,7 @@
     </row>
     <row r="778" spans="1:6">
       <c r="A778" s="32" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B778" s="32"/>
       <c r="C778" s="33"/>
@@ -12036,7 +12057,7 @@
     </row>
     <row r="779" spans="1:6">
       <c r="A779" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B779" s="32"/>
       <c r="C779" s="33"/>
@@ -12046,7 +12067,7 @@
     </row>
     <row r="780" spans="1:6">
       <c r="A780" s="32" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B780" s="32"/>
       <c r="C780" s="33"/>
@@ -12056,7 +12077,7 @@
     </row>
     <row r="781" spans="1:6">
       <c r="A781" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B781" s="32"/>
       <c r="C781" s="33"/>
@@ -12066,7 +12087,7 @@
     </row>
     <row r="782" spans="1:6">
       <c r="A782" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B782" s="32"/>
       <c r="C782" s="33"/>
@@ -12076,7 +12097,7 @@
     </row>
     <row r="783" spans="1:6">
       <c r="A783" s="32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B783" s="32"/>
       <c r="C783" s="33"/>
@@ -12086,7 +12107,7 @@
     </row>
     <row r="784" spans="1:6">
       <c r="A784" s="32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B784" s="32"/>
       <c r="C784" s="33"/>
@@ -12096,7 +12117,7 @@
     </row>
     <row r="785" spans="1:6">
       <c r="A785" s="32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B785" s="32"/>
       <c r="C785" s="33"/>
@@ -12106,7 +12127,7 @@
     </row>
     <row r="786" spans="1:6">
       <c r="A786" s="32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B786" s="32"/>
       <c r="C786" s="33"/>
@@ -12116,7 +12137,7 @@
     </row>
     <row r="787" spans="1:6">
       <c r="A787" s="32" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B787" s="32"/>
       <c r="C787" s="33"/>
@@ -12126,7 +12147,7 @@
     </row>
     <row r="788" spans="1:6">
       <c r="A788" s="32" t="s">
-        <v>483</v>
+        <v>840</v>
       </c>
       <c r="B788" s="32"/>
       <c r="C788" s="33"/>
@@ -12136,7 +12157,7 @@
     </row>
     <row r="789" spans="1:6">
       <c r="A789" s="32" t="s">
-        <v>841</v>
+        <v>483</v>
       </c>
       <c r="B789" s="32"/>
       <c r="C789" s="33"/>
@@ -12146,7 +12167,7 @@
     </row>
     <row r="790" spans="1:6">
       <c r="A790" s="32" t="s">
-        <v>484</v>
+        <v>841</v>
       </c>
       <c r="B790" s="32"/>
       <c r="C790" s="33"/>
@@ -12156,7 +12177,7 @@
     </row>
     <row r="791" spans="1:6">
       <c r="A791" s="32" t="s">
-        <v>842</v>
+        <v>484</v>
       </c>
       <c r="B791" s="32"/>
       <c r="C791" s="33"/>
@@ -12166,7 +12187,7 @@
     </row>
     <row r="792" spans="1:6">
       <c r="A792" s="32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B792" s="32"/>
       <c r="C792" s="33"/>
@@ -12176,7 +12197,7 @@
     </row>
     <row r="793" spans="1:6">
       <c r="A793" s="32" t="s">
-        <v>486</v>
+        <v>843</v>
       </c>
       <c r="B793" s="32"/>
       <c r="C793" s="33"/>
@@ -12186,7 +12207,7 @@
     </row>
     <row r="794" spans="1:6">
       <c r="A794" s="32" t="s">
-        <v>844</v>
+        <v>486</v>
       </c>
       <c r="B794" s="32"/>
       <c r="C794" s="33"/>
@@ -12196,7 +12217,7 @@
     </row>
     <row r="795" spans="1:6">
       <c r="A795" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B795" s="32"/>
       <c r="C795" s="33"/>
@@ -12206,7 +12227,7 @@
     </row>
     <row r="796" spans="1:6">
       <c r="A796" s="32" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B796" s="32"/>
       <c r="C796" s="33"/>
@@ -12216,7 +12237,7 @@
     </row>
     <row r="797" spans="1:6">
       <c r="A797" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B797" s="32"/>
       <c r="C797" s="33"/>
@@ -12226,7 +12247,7 @@
     </row>
     <row r="798" spans="1:6">
       <c r="A798" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B798" s="32"/>
       <c r="C798" s="33"/>
@@ -12236,7 +12257,7 @@
     </row>
     <row r="799" spans="1:6">
       <c r="A799" s="32" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B799" s="32"/>
       <c r="C799" s="33"/>
@@ -12246,7 +12267,7 @@
     </row>
     <row r="800" spans="1:6">
       <c r="A800" s="32" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B800" s="32"/>
       <c r="C800" s="33"/>
@@ -12256,7 +12277,7 @@
     </row>
     <row r="801" spans="1:6">
       <c r="A801" s="32" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B801" s="32"/>
       <c r="C801" s="33"/>
@@ -12266,7 +12287,7 @@
     </row>
     <row r="802" spans="1:6">
       <c r="A802" s="32" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B802" s="32"/>
       <c r="C802" s="33"/>
@@ -12276,7 +12297,7 @@
     </row>
     <row r="803" spans="1:6">
       <c r="A803" s="32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B803" s="32"/>
       <c r="C803" s="33"/>
@@ -12286,7 +12307,7 @@
     </row>
     <row r="804" spans="1:6">
       <c r="A804" s="32" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B804" s="32"/>
       <c r="C804" s="33"/>
@@ -12296,7 +12317,7 @@
     </row>
     <row r="805" spans="1:6">
       <c r="A805" s="32" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B805" s="32"/>
       <c r="C805" s="33"/>
@@ -12306,7 +12327,7 @@
     </row>
     <row r="806" spans="1:6">
       <c r="A806" s="32" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B806" s="32"/>
       <c r="C806" s="33"/>
@@ -12316,7 +12337,7 @@
     </row>
     <row r="807" spans="1:6">
       <c r="A807" s="32" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B807" s="32"/>
       <c r="C807" s="33"/>
@@ -12324,18 +12345,28 @@
       <c r="E807" s="32"/>
       <c r="F807" s="32"/>
     </row>
+    <row r="808" spans="1:6">
+      <c r="A808" s="32" t="s">
+        <v>857</v>
+      </c>
+      <c r="B808" s="32"/>
+      <c r="C808" s="33"/>
+      <c r="D808" s="32"/>
+      <c r="E808" s="32"/>
+      <c r="F808" s="32"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84:A91">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A85:A92">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A83:A91">
-      <formula1>LEN(A83)=LEN(SUBSTITUTE(A83," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A84:A92">
+      <formula1>LEN(A84)=LEN(SUBSTITUTE(A84," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B83 B85:B94"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B84 B86:B95"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Templates/Template.xlsx
+++ b/Templates/Template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Applications\Survey123Community\Survey123Community\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/John/Documents/Survey123Community/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="6383" windowWidth="33743" windowHeight="19103" tabRatio="318"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="318"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="917">
   <si>
     <t>type</t>
   </si>
@@ -2779,13 +2782,16 @@
   </si>
   <si>
     <t>Applies to image fields. Allows user to open a canvas window to sketch on. Also supports annotation on images.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3045,31 +3051,7 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3119,6 +3101,14 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3202,15 +3192,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Z153" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Z153" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:Z153"/>
   <tableColumns count="26">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="7"/>
-    <tableColumn id="4" name="hint" dataDxfId="6"/>
+    <tableColumn id="3" name="label" dataDxfId="4"/>
+    <tableColumn id="4" name="hint" dataDxfId="3"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="5"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="2"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
     <tableColumn id="8" name="appearance"/>
@@ -3546,7 +3536,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3588,7 +3578,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3612,18 +3602,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.46484375" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="19.46484375" customWidth="1"/>
-    <col min="3" max="3" width="32.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.46484375" style="1"/>
-    <col min="6" max="6" width="24.46484375" style="1"/>
+    <col min="1" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1"/>
+    <col min="6" max="6" width="24.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="26" customFormat="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:32" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3709,12 +3699,12 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>916</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>57</v>
@@ -3723,7 +3713,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="B2:B150">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <dataValidations xWindow="732" yWindow="283" count="22">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint" prompt="Can be used with integer and decimal types. Limit the range of numbers that can be entered (e.g., .&gt;0 and .&lt;100). " sqref="E154:E1048576"/>
@@ -3803,15 +3793,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.46484375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" customWidth="1"/>
-    <col min="2" max="2" width="17.46484375" customWidth="1"/>
-    <col min="3" max="3" width="16.46484375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -3828,7 +3818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>902</v>
       </c>
@@ -3839,7 +3829,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
         <v>902</v>
       </c>
@@ -3850,7 +3840,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>906</v>
       </c>
@@ -3861,7 +3851,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>906</v>
       </c>
@@ -3872,7 +3862,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>906</v>
       </c>
@@ -3883,7 +3873,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>906</v>
       </c>
@@ -3894,7 +3884,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
         <v>906</v>
       </c>
@@ -3924,16 +3914,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.46484375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.46484375" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" customWidth="1"/>
-    <col min="4" max="4" width="24.46484375" customWidth="1"/>
-    <col min="5" max="5" width="21.1328125" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -3956,7 +3946,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>912</v>
       </c>
@@ -3974,14 +3964,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.46484375" customWidth="1"/>
-    <col min="2" max="2" width="74.46484375" customWidth="1"/>
-    <col min="3" max="3" width="52.796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="C1" s="33"/>
@@ -3989,7 +3979,7 @@
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:6" ht="13.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>39</v>
       </c>
@@ -3999,7 +3989,7 @@
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
         <v>20</v>
       </c>
@@ -4011,7 +4001,7 @@
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>19</v>
       </c>
@@ -4025,7 +4015,7 @@
       </c>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="34" t="s">
         <v>16</v>
       </c>
@@ -4039,7 +4029,7 @@
       </c>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" ht="25.5">
+    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
         <v>41</v>
       </c>
@@ -4053,7 +4043,7 @@
       </c>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" ht="25.5">
+    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="34" t="s">
         <v>42</v>
       </c>
@@ -4067,7 +4057,7 @@
       </c>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
         <v>24</v>
       </c>
@@ -4081,7 +4071,7 @@
       </c>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>17</v>
       </c>
@@ -4093,7 +4083,7 @@
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -4105,7 +4095,7 @@
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="34" t="s">
         <v>28</v>
       </c>
@@ -4117,7 +4107,7 @@
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="34" t="s">
         <v>247</v>
       </c>
@@ -4129,7 +4119,7 @@
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="34" t="s">
         <v>10</v>
       </c>
@@ -4141,7 +4131,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="34" t="s">
         <v>31</v>
       </c>
@@ -4153,7 +4143,7 @@
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="34" t="s">
         <v>32</v>
       </c>
@@ -4165,7 +4155,7 @@
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="34" t="s">
         <v>33</v>
       </c>
@@ -4177,7 +4167,7 @@
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="34" t="s">
         <v>34</v>
       </c>
@@ -4189,7 +4179,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" ht="25.5">
+    <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A18" s="34" t="s">
         <v>111</v>
       </c>
@@ -4201,7 +4191,7 @@
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" ht="25.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="34" t="s">
         <v>216</v>
       </c>
@@ -4213,7 +4203,7 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" ht="25.5">
+    <row r="20" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A20" s="34" t="s">
         <v>217</v>
       </c>
@@ -4225,7 +4215,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" ht="38.25">
+    <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="34" t="s">
         <v>228</v>
       </c>
@@ -4237,7 +4227,7 @@
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="34" t="s">
         <v>244</v>
       </c>
@@ -4249,7 +4239,7 @@
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="34" t="s">
         <v>210</v>
       </c>
@@ -4261,7 +4251,7 @@
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="34" t="s">
         <v>211</v>
       </c>
@@ -4273,7 +4263,7 @@
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="34" t="s">
         <v>889</v>
       </c>
@@ -4285,7 +4275,7 @@
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
@@ -4293,7 +4283,7 @@
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
     </row>
-    <row r="27" spans="1:6" ht="13.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>40</v>
       </c>
@@ -4303,7 +4293,7 @@
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
       <c r="B28" s="34" t="s">
         <v>47</v>
@@ -4313,7 +4303,7 @@
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="32" t="s">
         <v>11</v>
       </c>
@@ -4325,7 +4315,7 @@
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="32"/>
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
@@ -4333,7 +4323,7 @@
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
     </row>
-    <row r="31" spans="1:6" ht="13.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>103</v>
       </c>
@@ -4343,7 +4333,7 @@
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="32"/>
       <c r="B32" s="34" t="s">
         <v>104</v>
@@ -4353,7 +4343,7 @@
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>11</v>
       </c>
@@ -4365,7 +4355,7 @@
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
@@ -4373,7 +4363,7 @@
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
     </row>
-    <row r="35" spans="1:6" ht="13.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>45</v>
       </c>
@@ -4383,7 +4373,7 @@
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="24" t="s">
         <v>227</v>
       </c>
@@ -4395,7 +4385,7 @@
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1">
+    <row r="37" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="24" t="s">
         <v>892</v>
       </c>
@@ -4404,7 +4394,7 @@
       </c>
       <c r="C37" s="33"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="24" t="s">
         <v>913</v>
       </c>
@@ -4416,7 +4406,7 @@
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="32" t="s">
         <v>46</v>
       </c>
@@ -4428,7 +4418,7 @@
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>114</v>
       </c>
@@ -4440,7 +4430,7 @@
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>238</v>
       </c>
@@ -4452,7 +4442,7 @@
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>242</v>
       </c>
@@ -4464,7 +4454,7 @@
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>243</v>
       </c>
@@ -4476,7 +4466,7 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>249</v>
       </c>
@@ -4488,7 +4478,7 @@
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
         <v>240</v>
       </c>
@@ -4500,7 +4490,7 @@
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="32" t="s">
         <v>873</v>
       </c>
@@ -4512,7 +4502,7 @@
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="32" t="s">
         <v>869</v>
       </c>
@@ -4524,7 +4514,7 @@
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="32" t="s">
         <v>870</v>
       </c>
@@ -4536,7 +4526,7 @@
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="32" t="s">
         <v>113</v>
       </c>
@@ -4548,7 +4538,7 @@
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="32" t="s">
         <v>116</v>
       </c>
@@ -4560,7 +4550,7 @@
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="32" t="s">
         <v>256</v>
       </c>
@@ -4572,7 +4562,7 @@
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
         <v>876</v>
       </c>
@@ -4584,7 +4574,7 @@
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="32" t="s">
         <v>878</v>
       </c>
@@ -4596,7 +4586,7 @@
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="32" t="s">
         <v>880</v>
       </c>
@@ -4608,7 +4598,7 @@
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="32" t="s">
         <v>893</v>
       </c>
@@ -4620,7 +4610,7 @@
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
     </row>
-    <row r="56" spans="1:6" s="31" customFormat="1">
+    <row r="56" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="33"/>
@@ -4628,7 +4618,7 @@
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
     </row>
-    <row r="57" spans="1:6" ht="13.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
         <v>107</v>
       </c>
@@ -4638,7 +4628,7 @@
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="32" t="s">
         <v>108</v>
       </c>
@@ -4650,7 +4640,7 @@
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="32" t="s">
         <v>882</v>
       </c>
@@ -4662,7 +4652,7 @@
       <c r="E59" s="32"/>
       <c r="F59" s="32"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="32" t="s">
         <v>109</v>
       </c>
@@ -4674,7 +4664,7 @@
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="32"/>
       <c r="B61" s="32"/>
       <c r="C61" s="33"/>
@@ -4682,7 +4672,7 @@
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
     </row>
-    <row r="62" spans="1:6" s="8" customFormat="1" ht="13.15">
+    <row r="62" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="13" t="s">
         <v>231</v>
       </c>
@@ -4694,7 +4684,7 @@
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="32"/>
       <c r="B63" s="32" t="s">
         <v>233</v>
@@ -4704,7 +4694,7 @@
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
     </row>
-    <row r="64" spans="1:6" ht="13.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
       <c r="B64" s="32"/>
       <c r="C64" s="33"/>
@@ -4712,7 +4702,7 @@
       <c r="E64" s="32"/>
       <c r="F64" s="32"/>
     </row>
-    <row r="65" spans="1:6" ht="13.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="13" t="s">
         <v>98</v>
       </c>
@@ -4724,7 +4714,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>55</v>
       </c>
@@ -4738,7 +4728,7 @@
       <c r="E66" s="32"/>
       <c r="F66" s="32"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="34" t="s">
         <v>58</v>
       </c>
@@ -4752,7 +4742,7 @@
       <c r="E67" s="32"/>
       <c r="F67" s="32"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="34" t="s">
         <v>61</v>
       </c>
@@ -4766,7 +4756,7 @@
       <c r="E68" s="32"/>
       <c r="F68" s="32"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="34" t="s">
         <v>64</v>
       </c>
@@ -4780,7 +4770,7 @@
       <c r="E69" s="32"/>
       <c r="F69" s="32"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="34" t="s">
         <v>66</v>
       </c>
@@ -4794,7 +4784,7 @@
       <c r="E70" s="32"/>
       <c r="F70" s="32"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="34" t="s">
         <v>69</v>
       </c>
@@ -4808,7 +4798,7 @@
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="34" t="s">
         <v>72</v>
       </c>
@@ -4822,7 +4812,7 @@
       <c r="E72" s="32"/>
       <c r="F72" s="32"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="34" t="s">
         <v>75</v>
       </c>
@@ -4836,7 +4826,7 @@
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="34" t="s">
         <v>78</v>
       </c>
@@ -4850,7 +4840,7 @@
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="34" t="s">
         <v>81</v>
       </c>
@@ -4864,7 +4854,7 @@
       <c r="E75" s="32"/>
       <c r="F75" s="32"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="34" t="s">
         <v>84</v>
       </c>
@@ -4878,7 +4868,7 @@
       <c r="E76" s="32"/>
       <c r="F76" s="32"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="34" t="s">
         <v>87</v>
       </c>
@@ -4892,7 +4882,7 @@
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="34" t="s">
         <v>90</v>
       </c>
@@ -4906,7 +4896,7 @@
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
     </row>
-    <row r="79" spans="1:6" s="21" customFormat="1">
+    <row r="79" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="34" t="s">
         <v>92</v>
       </c>
@@ -4920,7 +4910,7 @@
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="34" t="s">
         <v>94</v>
       </c>
@@ -4934,7 +4924,7 @@
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="34"/>
       <c r="B81" s="34"/>
       <c r="C81" s="6"/>
@@ -4942,7 +4932,7 @@
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
     </row>
-    <row r="82" spans="1:6" ht="13.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="14" t="s">
         <v>202</v>
       </c>
@@ -4952,7 +4942,7 @@
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="19" t="s">
         <v>203</v>
       </c>
@@ -4964,7 +4954,7 @@
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
         <v>186</v>
       </c>
@@ -4976,7 +4966,7 @@
       <c r="E84" s="32"/>
       <c r="F84" s="32"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
         <v>295</v>
       </c>
@@ -4988,7 +4978,7 @@
       <c r="E85" s="32"/>
       <c r="F85" s="32"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
         <v>189</v>
       </c>
@@ -5000,7 +4990,7 @@
       <c r="E86" s="32"/>
       <c r="F86" s="32"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
         <v>191</v>
       </c>
@@ -5012,7 +5002,7 @@
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
         <v>192</v>
       </c>
@@ -5024,7 +5014,7 @@
       <c r="E88" s="32"/>
       <c r="F88" s="32"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
         <v>194</v>
       </c>
@@ -5036,7 +5026,7 @@
       <c r="E89" s="32"/>
       <c r="F89" s="32"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="16" t="s">
         <v>196</v>
       </c>
@@ -5048,7 +5038,7 @@
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
         <v>198</v>
       </c>
@@ -5060,7 +5050,7 @@
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
         <v>200</v>
       </c>
@@ -5072,7 +5062,7 @@
       <c r="E92" s="32"/>
       <c r="F92" s="32"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A93" s="18" t="s">
         <v>207</v>
       </c>
@@ -5084,7 +5074,7 @@
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A94" s="18" t="s">
         <v>208</v>
       </c>
@@ -5096,7 +5086,7 @@
       <c r="E94" s="32"/>
       <c r="F94" s="32"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A95" s="18" t="s">
         <v>297</v>
       </c>
@@ -5108,7 +5098,7 @@
       <c r="E95" s="32"/>
       <c r="F95" s="32"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
       <c r="B96" s="32"/>
       <c r="C96" s="33"/>
@@ -5116,7 +5106,7 @@
       <c r="E96" s="32"/>
       <c r="F96" s="32"/>
     </row>
-    <row r="97" spans="1:6" ht="13.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="14" t="s">
         <v>185</v>
       </c>
@@ -5126,7 +5116,7 @@
       <c r="E97" s="32"/>
       <c r="F97" s="32"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
         <v>118</v>
       </c>
@@ -5138,7 +5128,7 @@
       <c r="E98" s="32"/>
       <c r="F98" s="32"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="34" t="s">
         <v>120</v>
       </c>
@@ -5150,7 +5140,7 @@
       <c r="E99" s="32"/>
       <c r="F99" s="32"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="34" t="s">
         <v>122</v>
       </c>
@@ -5162,7 +5152,7 @@
       <c r="E100" s="32"/>
       <c r="F100" s="32"/>
     </row>
-    <row r="101" spans="1:6" ht="25.5">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="34" t="s">
         <v>124</v>
       </c>
@@ -5174,7 +5164,7 @@
       <c r="E101" s="32"/>
       <c r="F101" s="32"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="34" t="s">
         <v>126</v>
       </c>
@@ -5186,7 +5176,7 @@
       <c r="E102" s="32"/>
       <c r="F102" s="32"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="34" t="s">
         <v>128</v>
       </c>
@@ -5198,7 +5188,7 @@
       <c r="E103" s="32"/>
       <c r="F103" s="32"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="34" t="s">
         <v>130</v>
       </c>
@@ -5210,7 +5200,7 @@
       <c r="E104" s="32"/>
       <c r="F104" s="32"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="34" t="s">
         <v>132</v>
       </c>
@@ -5222,7 +5212,7 @@
       <c r="E105" s="32"/>
       <c r="F105" s="32"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="34" t="s">
         <v>134</v>
       </c>
@@ -5234,7 +5224,7 @@
       <c r="E106" s="32"/>
       <c r="F106" s="32"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="34" t="s">
         <v>136</v>
       </c>
@@ -5246,7 +5236,7 @@
       <c r="E107" s="32"/>
       <c r="F107" s="32"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="34" t="s">
         <v>138</v>
       </c>
@@ -5258,7 +5248,7 @@
       <c r="E108" s="32"/>
       <c r="F108" s="32"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="34" t="s">
         <v>140</v>
       </c>
@@ -5270,7 +5260,7 @@
       <c r="E109" s="32"/>
       <c r="F109" s="32"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="34" t="s">
         <v>142</v>
       </c>
@@ -5282,7 +5272,7 @@
       <c r="E110" s="32"/>
       <c r="F110" s="32"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="34" t="s">
         <v>144</v>
       </c>
@@ -5294,7 +5284,7 @@
       <c r="E111" s="32"/>
       <c r="F111" s="32"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="34" t="s">
         <v>146</v>
       </c>
@@ -5306,7 +5296,7 @@
       <c r="E112" s="32"/>
       <c r="F112" s="32"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="34" t="s">
         <v>148</v>
       </c>
@@ -5318,7 +5308,7 @@
       <c r="E113" s="32"/>
       <c r="F113" s="32"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="34" t="s">
         <v>150</v>
       </c>
@@ -5330,7 +5320,7 @@
       <c r="E114" s="32"/>
       <c r="F114" s="32"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="34" t="s">
         <v>152</v>
       </c>
@@ -5342,7 +5332,7 @@
       <c r="E115" s="32"/>
       <c r="F115" s="32"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="34" t="s">
         <v>154</v>
       </c>
@@ -5354,7 +5344,7 @@
       <c r="E116" s="32"/>
       <c r="F116" s="32"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="34" t="s">
         <v>156</v>
       </c>
@@ -5366,7 +5356,7 @@
       <c r="E117" s="32"/>
       <c r="F117" s="32"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="34" t="s">
         <v>158</v>
       </c>
@@ -5378,7 +5368,7 @@
       <c r="E118" s="32"/>
       <c r="F118" s="32"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="34" t="s">
         <v>160</v>
       </c>
@@ -5390,7 +5380,7 @@
       <c r="E119" s="32"/>
       <c r="F119" s="32"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="34" t="s">
         <v>162</v>
       </c>
@@ -5402,7 +5392,7 @@
       <c r="E120" s="32"/>
       <c r="F120" s="32"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="34" t="s">
         <v>164</v>
       </c>
@@ -5414,7 +5404,7 @@
       <c r="E121" s="32"/>
       <c r="F121" s="32"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="34" t="s">
         <v>166</v>
       </c>
@@ -5426,7 +5416,7 @@
       <c r="E122" s="32"/>
       <c r="F122" s="32"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="34" t="s">
         <v>130</v>
       </c>
@@ -5438,7 +5428,7 @@
       <c r="E123" s="32"/>
       <c r="F123" s="32"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="34" t="s">
         <v>134</v>
       </c>
@@ -5450,7 +5440,7 @@
       <c r="E124" s="32"/>
       <c r="F124" s="32"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="34" t="s">
         <v>132</v>
       </c>
@@ -5462,7 +5452,7 @@
       <c r="E125" s="32"/>
       <c r="F125" s="32"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="34" t="s">
         <v>171</v>
       </c>
@@ -5474,7 +5464,7 @@
       <c r="E126" s="32"/>
       <c r="F126" s="32"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="34" t="s">
         <v>173</v>
       </c>
@@ -5486,7 +5476,7 @@
       <c r="E127" s="32"/>
       <c r="F127" s="32"/>
     </row>
-    <row r="128" spans="1:6" ht="25.5">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="34" t="s">
         <v>175</v>
       </c>
@@ -5498,7 +5488,7 @@
       <c r="E128" s="32"/>
       <c r="F128" s="32"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="34" t="s">
         <v>177</v>
       </c>
@@ -5510,7 +5500,7 @@
       <c r="E129" s="32"/>
       <c r="F129" s="32"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="34" t="s">
         <v>179</v>
       </c>
@@ -5522,7 +5512,7 @@
       <c r="E130" s="32"/>
       <c r="F130" s="32"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="34" t="s">
         <v>181</v>
       </c>
@@ -5534,7 +5524,7 @@
       <c r="E131" s="32"/>
       <c r="F131" s="32"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="34" t="s">
         <v>183</v>
       </c>
@@ -5546,7 +5536,7 @@
       <c r="E132" s="32"/>
       <c r="F132" s="32"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="32"/>
       <c r="B133" s="32"/>
       <c r="C133" s="33"/>
@@ -5554,7 +5544,7 @@
       <c r="E133" s="32"/>
       <c r="F133" s="32"/>
     </row>
-    <row r="134" spans="1:6" ht="13.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="14" t="s">
         <v>218</v>
       </c>
@@ -5564,7 +5554,7 @@
       <c r="E134" s="32"/>
       <c r="F134" s="32"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="34" t="s">
         <v>219</v>
       </c>
@@ -5576,7 +5566,7 @@
       <c r="E135" s="32"/>
       <c r="F135" s="32"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="34" t="s">
         <v>896</v>
       </c>
@@ -5588,7 +5578,7 @@
       <c r="E136" s="32"/>
       <c r="F136" s="32"/>
     </row>
-    <row r="137" spans="1:6" s="32" customFormat="1">
+    <row r="137" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="34" t="s">
         <v>221</v>
       </c>
@@ -5597,7 +5587,7 @@
       </c>
       <c r="C137" s="33"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="34" t="s">
         <v>222</v>
       </c>
@@ -5609,7 +5599,7 @@
       <c r="E138" s="32"/>
       <c r="F138" s="32"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="34" t="s">
         <v>898</v>
       </c>
@@ -5621,7 +5611,7 @@
       <c r="E139" s="32"/>
       <c r="F139" s="32"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="34" t="s">
         <v>223</v>
       </c>
@@ -5633,7 +5623,7 @@
       <c r="E140" s="32"/>
       <c r="F140" s="32"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="34" t="s">
         <v>866</v>
       </c>
@@ -5645,7 +5635,7 @@
       <c r="E141" s="32"/>
       <c r="F141" s="32"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="34" t="s">
         <v>884</v>
       </c>
@@ -5657,7 +5647,7 @@
       <c r="E142" s="32"/>
       <c r="F142" s="32"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="34" t="s">
         <v>900</v>
       </c>
@@ -5669,7 +5659,7 @@
       <c r="E143" s="32"/>
       <c r="F143" s="32"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="32"/>
       <c r="B144" s="32"/>
       <c r="C144" s="33"/>
@@ -5677,7 +5667,7 @@
       <c r="E144" s="32"/>
       <c r="F144" s="32"/>
     </row>
-    <row r="145" spans="1:6" ht="13.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="13" t="s">
         <v>259</v>
       </c>
@@ -5687,7 +5677,7 @@
       <c r="E145" s="32"/>
       <c r="F145" s="32"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="21" t="s">
         <v>55</v>
       </c>
@@ -5699,7 +5689,7 @@
       <c r="E146" s="32"/>
       <c r="F146" s="32"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="34" t="s">
         <v>261</v>
       </c>
@@ -5711,7 +5701,7 @@
       <c r="E147" s="32"/>
       <c r="F147" s="32"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="34" t="s">
         <v>263</v>
       </c>
@@ -5723,7 +5713,7 @@
       <c r="E148" s="32"/>
       <c r="F148" s="32"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="34" t="s">
         <v>265</v>
       </c>
@@ -5735,7 +5725,7 @@
       <c r="E149" s="32"/>
       <c r="F149" s="32"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="34" t="s">
         <v>267</v>
       </c>
@@ -5747,7 +5737,7 @@
       <c r="E150" s="32"/>
       <c r="F150" s="32"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="34" t="s">
         <v>269</v>
       </c>
@@ -5759,7 +5749,7 @@
       <c r="E151" s="32"/>
       <c r="F151" s="32"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="34" t="s">
         <v>271</v>
       </c>
@@ -5771,7 +5761,7 @@
       <c r="E152" s="32"/>
       <c r="F152" s="32"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="34" t="s">
         <v>273</v>
       </c>
@@ -5783,7 +5773,7 @@
       <c r="E153" s="32"/>
       <c r="F153" s="32"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="34" t="s">
         <v>275</v>
       </c>
@@ -5795,7 +5785,7 @@
       <c r="E154" s="32"/>
       <c r="F154" s="32"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="34" t="s">
         <v>276</v>
       </c>
@@ -5807,7 +5797,7 @@
       <c r="E155" s="32"/>
       <c r="F155" s="32"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="34" t="s">
         <v>278</v>
       </c>
@@ -5819,7 +5809,7 @@
       <c r="E156" s="32"/>
       <c r="F156" s="32"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="34" t="s">
         <v>280</v>
       </c>
@@ -5831,7 +5821,7 @@
       <c r="E157" s="32"/>
       <c r="F157" s="32"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="34" t="s">
         <v>282</v>
       </c>
@@ -5843,7 +5833,7 @@
       <c r="E158" s="32"/>
       <c r="F158" s="32"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="34" t="s">
         <v>284</v>
       </c>
@@ -5855,7 +5845,7 @@
       <c r="E159" s="32"/>
       <c r="F159" s="32"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="34" t="s">
         <v>286</v>
       </c>
@@ -5867,7 +5857,7 @@
       <c r="E160" s="32"/>
       <c r="F160" s="32"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="34" t="s">
         <v>287</v>
       </c>
@@ -5879,7 +5869,7 @@
       <c r="E161" s="32"/>
       <c r="F161" s="32"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="34" t="s">
         <v>288</v>
       </c>
@@ -5891,7 +5881,7 @@
       <c r="E162" s="32"/>
       <c r="F162" s="32"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="34" t="s">
         <v>290</v>
       </c>
@@ -5903,7 +5893,7 @@
       <c r="E163" s="32"/>
       <c r="F163" s="32"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="34" t="s">
         <v>292</v>
       </c>
@@ -5915,7 +5905,7 @@
       <c r="E164" s="32"/>
       <c r="F164" s="32"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="32"/>
       <c r="B165" s="32"/>
       <c r="C165" s="33"/>
@@ -5923,7 +5913,7 @@
       <c r="E165" s="32"/>
       <c r="F165" s="32"/>
     </row>
-    <row r="166" spans="1:6" ht="13.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="13" t="s">
         <v>858</v>
       </c>
@@ -5935,7 +5925,7 @@
       <c r="E166" s="32"/>
       <c r="F166" s="32"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="30" t="s">
         <v>860</v>
       </c>
@@ -5945,7 +5935,7 @@
       <c r="E167" s="32"/>
       <c r="F167" s="32"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="30" t="s">
         <v>861</v>
       </c>
@@ -5955,7 +5945,7 @@
       <c r="E168" s="32"/>
       <c r="F168" s="32"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="30" t="s">
         <v>862</v>
       </c>
@@ -5965,7 +5955,7 @@
       <c r="E169" s="32"/>
       <c r="F169" s="32"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="30" t="s">
         <v>64</v>
       </c>
@@ -5975,7 +5965,7 @@
       <c r="E170" s="32"/>
       <c r="F170" s="32"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="30" t="s">
         <v>863</v>
       </c>
@@ -5985,7 +5975,7 @@
       <c r="E171" s="32"/>
       <c r="F171" s="32"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="30" t="s">
         <v>122</v>
       </c>
@@ -5995,7 +5985,7 @@
       <c r="E172" s="32"/>
       <c r="F172" s="32"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="30" t="s">
         <v>124</v>
       </c>
@@ -6005,7 +5995,7 @@
       <c r="E173" s="32"/>
       <c r="F173" s="32"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="30" t="s">
         <v>864</v>
       </c>
@@ -6015,7 +6005,7 @@
       <c r="E174" s="32"/>
       <c r="F174" s="32"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="30" t="s">
         <v>865</v>
       </c>
@@ -6025,7 +6015,7 @@
       <c r="E175" s="32"/>
       <c r="F175" s="32"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="32"/>
       <c r="B176" s="32"/>
       <c r="C176" s="33"/>
@@ -6033,7 +6023,7 @@
       <c r="E176" s="32"/>
       <c r="F176" s="32"/>
     </row>
-    <row r="177" spans="1:6" ht="13.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="14" t="s">
         <v>301</v>
       </c>
@@ -6045,7 +6035,7 @@
       <c r="E177" s="32"/>
       <c r="F177" s="32"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="34" t="s">
         <v>303</v>
       </c>
@@ -6055,7 +6045,7 @@
       <c r="E178" s="32"/>
       <c r="F178" s="32"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="32" t="s">
         <v>304</v>
       </c>
@@ -6065,7 +6055,7 @@
       <c r="E179" s="32"/>
       <c r="F179" s="32"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="32" t="s">
         <v>305</v>
       </c>
@@ -6075,7 +6065,7 @@
       <c r="E180" s="32"/>
       <c r="F180" s="32"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="32" t="s">
         <v>306</v>
       </c>
@@ -6085,7 +6075,7 @@
       <c r="E181" s="32"/>
       <c r="F181" s="32"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="32" t="s">
         <v>307</v>
       </c>
@@ -6095,7 +6085,7 @@
       <c r="E182" s="32"/>
       <c r="F182" s="32"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="32" t="s">
         <v>308</v>
       </c>
@@ -6105,7 +6095,7 @@
       <c r="E183" s="32"/>
       <c r="F183" s="32"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="32" t="s">
         <v>309</v>
       </c>
@@ -6115,7 +6105,7 @@
       <c r="E184" s="32"/>
       <c r="F184" s="32"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="32" t="s">
         <v>310</v>
       </c>
@@ -6125,7 +6115,7 @@
       <c r="E185" s="32"/>
       <c r="F185" s="32"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="32" t="s">
         <v>311</v>
       </c>
@@ -6135,7 +6125,7 @@
       <c r="E186" s="32"/>
       <c r="F186" s="32"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="32" t="s">
         <v>312</v>
       </c>
@@ -6145,7 +6135,7 @@
       <c r="E187" s="32"/>
       <c r="F187" s="32"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="32" t="s">
         <v>313</v>
       </c>
@@ -6155,7 +6145,7 @@
       <c r="E188" s="32"/>
       <c r="F188" s="32"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="32" t="s">
         <v>314</v>
       </c>
@@ -6165,7 +6155,7 @@
       <c r="E189" s="32"/>
       <c r="F189" s="32"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="32" t="s">
         <v>315</v>
       </c>
@@ -6175,7 +6165,7 @@
       <c r="E190" s="32"/>
       <c r="F190" s="32"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="32" t="s">
         <v>316</v>
       </c>
@@ -6185,7 +6175,7 @@
       <c r="E191" s="32"/>
       <c r="F191" s="32"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="32" t="s">
         <v>317</v>
       </c>
@@ -6195,7 +6185,7 @@
       <c r="E192" s="32"/>
       <c r="F192" s="32"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="32" t="s">
         <v>318</v>
       </c>
@@ -6205,7 +6195,7 @@
       <c r="E193" s="32"/>
       <c r="F193" s="32"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="32" t="s">
         <v>319</v>
       </c>
@@ -6215,7 +6205,7 @@
       <c r="E194" s="32"/>
       <c r="F194" s="32"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" s="32" t="s">
         <v>320</v>
       </c>
@@ -6225,7 +6215,7 @@
       <c r="E195" s="32"/>
       <c r="F195" s="32"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" s="32" t="s">
         <v>321</v>
       </c>
@@ -6235,7 +6225,7 @@
       <c r="E196" s="32"/>
       <c r="F196" s="32"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="32" t="s">
         <v>322</v>
       </c>
@@ -6245,7 +6235,7 @@
       <c r="E197" s="32"/>
       <c r="F197" s="32"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="32" t="s">
         <v>323</v>
       </c>
@@ -6255,7 +6245,7 @@
       <c r="E198" s="32"/>
       <c r="F198" s="32"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="32" t="s">
         <v>324</v>
       </c>
@@ -6265,7 +6255,7 @@
       <c r="E199" s="32"/>
       <c r="F199" s="32"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="32" t="s">
         <v>325</v>
       </c>
@@ -6275,7 +6265,7 @@
       <c r="E200" s="32"/>
       <c r="F200" s="32"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="32" t="s">
         <v>326</v>
       </c>
@@ -6285,7 +6275,7 @@
       <c r="E201" s="32"/>
       <c r="F201" s="32"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="32" t="s">
         <v>327</v>
       </c>
@@ -6295,7 +6285,7 @@
       <c r="E202" s="32"/>
       <c r="F202" s="32"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" s="32" t="s">
         <v>328</v>
       </c>
@@ -6305,7 +6295,7 @@
       <c r="E203" s="32"/>
       <c r="F203" s="32"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" s="32" t="s">
         <v>329</v>
       </c>
@@ -6315,7 +6305,7 @@
       <c r="E204" s="32"/>
       <c r="F204" s="32"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" s="32" t="s">
         <v>330</v>
       </c>
@@ -6325,7 +6315,7 @@
       <c r="E205" s="32"/>
       <c r="F205" s="32"/>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" s="32" t="s">
         <v>331</v>
       </c>
@@ -6335,7 +6325,7 @@
       <c r="E206" s="32"/>
       <c r="F206" s="32"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" s="32" t="s">
         <v>332</v>
       </c>
@@ -6345,7 +6335,7 @@
       <c r="E207" s="32"/>
       <c r="F207" s="32"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" s="32" t="s">
         <v>333</v>
       </c>
@@ -6355,7 +6345,7 @@
       <c r="E208" s="32"/>
       <c r="F208" s="32"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" s="32" t="s">
         <v>334</v>
       </c>
@@ -6365,7 +6355,7 @@
       <c r="E209" s="32"/>
       <c r="F209" s="32"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="32" t="s">
         <v>335</v>
       </c>
@@ -6375,7 +6365,7 @@
       <c r="E210" s="32"/>
       <c r="F210" s="32"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" s="32" t="s">
         <v>336</v>
       </c>
@@ -6385,7 +6375,7 @@
       <c r="E211" s="32"/>
       <c r="F211" s="32"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" s="32" t="s">
         <v>337</v>
       </c>
@@ -6395,7 +6385,7 @@
       <c r="E212" s="32"/>
       <c r="F212" s="32"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" s="32" t="s">
         <v>338</v>
       </c>
@@ -6405,7 +6395,7 @@
       <c r="E213" s="32"/>
       <c r="F213" s="32"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" s="32" t="s">
         <v>339</v>
       </c>
@@ -6415,7 +6405,7 @@
       <c r="E214" s="32"/>
       <c r="F214" s="32"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" s="32" t="s">
         <v>340</v>
       </c>
@@ -6425,7 +6415,7 @@
       <c r="E215" s="32"/>
       <c r="F215" s="32"/>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="32" t="s">
         <v>341</v>
       </c>
@@ -6435,7 +6425,7 @@
       <c r="E216" s="32"/>
       <c r="F216" s="32"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" s="32" t="s">
         <v>342</v>
       </c>
@@ -6445,7 +6435,7 @@
       <c r="E217" s="32"/>
       <c r="F217" s="32"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="32" t="s">
         <v>343</v>
       </c>
@@ -6455,7 +6445,7 @@
       <c r="E218" s="32"/>
       <c r="F218" s="32"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" s="32" t="s">
         <v>344</v>
       </c>
@@ -6465,7 +6455,7 @@
       <c r="E219" s="32"/>
       <c r="F219" s="32"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" s="32" t="s">
         <v>345</v>
       </c>
@@ -6475,7 +6465,7 @@
       <c r="E220" s="32"/>
       <c r="F220" s="32"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221" s="32" t="s">
         <v>346</v>
       </c>
@@ -6485,7 +6475,7 @@
       <c r="E221" s="32"/>
       <c r="F221" s="32"/>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" s="32" t="s">
         <v>347</v>
       </c>
@@ -6495,7 +6485,7 @@
       <c r="E222" s="32"/>
       <c r="F222" s="32"/>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" s="32" t="s">
         <v>348</v>
       </c>
@@ -6505,7 +6495,7 @@
       <c r="E223" s="32"/>
       <c r="F223" s="32"/>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224" s="32" t="s">
         <v>349</v>
       </c>
@@ -6515,7 +6505,7 @@
       <c r="E224" s="32"/>
       <c r="F224" s="32"/>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" s="32" t="s">
         <v>350</v>
       </c>
@@ -6525,7 +6515,7 @@
       <c r="E225" s="32"/>
       <c r="F225" s="32"/>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226" s="32" t="s">
         <v>351</v>
       </c>
@@ -6535,7 +6525,7 @@
       <c r="E226" s="32"/>
       <c r="F226" s="32"/>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227" s="32" t="s">
         <v>352</v>
       </c>
@@ -6545,7 +6535,7 @@
       <c r="E227" s="32"/>
       <c r="F227" s="32"/>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228" s="32" t="s">
         <v>353</v>
       </c>
@@ -6555,7 +6545,7 @@
       <c r="E228" s="32"/>
       <c r="F228" s="32"/>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229" s="32" t="s">
         <v>354</v>
       </c>
@@ -6565,7 +6555,7 @@
       <c r="E229" s="32"/>
       <c r="F229" s="32"/>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230" s="32" t="s">
         <v>355</v>
       </c>
@@ -6575,7 +6565,7 @@
       <c r="E230" s="32"/>
       <c r="F230" s="32"/>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231" s="32" t="s">
         <v>356</v>
       </c>
@@ -6585,7 +6575,7 @@
       <c r="E231" s="32"/>
       <c r="F231" s="32"/>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232" s="32" t="s">
         <v>357</v>
       </c>
@@ -6595,7 +6585,7 @@
       <c r="E232" s="32"/>
       <c r="F232" s="32"/>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233" s="32" t="s">
         <v>358</v>
       </c>
@@ -6605,7 +6595,7 @@
       <c r="E233" s="32"/>
       <c r="F233" s="32"/>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234" s="32" t="s">
         <v>359</v>
       </c>
@@ -6615,7 +6605,7 @@
       <c r="E234" s="32"/>
       <c r="F234" s="32"/>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235" s="32" t="s">
         <v>360</v>
       </c>
@@ -6625,7 +6615,7 @@
       <c r="E235" s="32"/>
       <c r="F235" s="32"/>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236" s="32" t="s">
         <v>361</v>
       </c>
@@ -6635,7 +6625,7 @@
       <c r="E236" s="32"/>
       <c r="F236" s="32"/>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237" s="32" t="s">
         <v>362</v>
       </c>
@@ -6645,7 +6635,7 @@
       <c r="E237" s="32"/>
       <c r="F237" s="32"/>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238" s="32" t="s">
         <v>363</v>
       </c>
@@ -6655,7 +6645,7 @@
       <c r="E238" s="32"/>
       <c r="F238" s="32"/>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239" s="32" t="s">
         <v>364</v>
       </c>
@@ -6665,7 +6655,7 @@
       <c r="E239" s="32"/>
       <c r="F239" s="32"/>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240" s="32" t="s">
         <v>365</v>
       </c>
@@ -6675,7 +6665,7 @@
       <c r="E240" s="32"/>
       <c r="F240" s="32"/>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241" s="32" t="s">
         <v>366</v>
       </c>
@@ -6685,7 +6675,7 @@
       <c r="E241" s="32"/>
       <c r="F241" s="32"/>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242" s="32" t="s">
         <v>367</v>
       </c>
@@ -6695,7 +6685,7 @@
       <c r="E242" s="32"/>
       <c r="F242" s="32"/>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243" s="32" t="s">
         <v>368</v>
       </c>
@@ -6705,7 +6695,7 @@
       <c r="E243" s="32"/>
       <c r="F243" s="32"/>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244" s="32" t="s">
         <v>369</v>
       </c>
@@ -6715,7 +6705,7 @@
       <c r="E244" s="32"/>
       <c r="F244" s="32"/>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245" s="32" t="s">
         <v>370</v>
       </c>
@@ -6725,7 +6715,7 @@
       <c r="E245" s="32"/>
       <c r="F245" s="32"/>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246" s="32" t="s">
         <v>371</v>
       </c>
@@ -6735,7 +6725,7 @@
       <c r="E246" s="32"/>
       <c r="F246" s="32"/>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247" s="32" t="s">
         <v>372</v>
       </c>
@@ -6745,7 +6735,7 @@
       <c r="E247" s="32"/>
       <c r="F247" s="32"/>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248" s="32" t="s">
         <v>373</v>
       </c>
@@ -6755,7 +6745,7 @@
       <c r="E248" s="32"/>
       <c r="F248" s="32"/>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249" s="32" t="s">
         <v>374</v>
       </c>
@@ -6765,7 +6755,7 @@
       <c r="E249" s="32"/>
       <c r="F249" s="32"/>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250" s="32" t="s">
         <v>375</v>
       </c>
@@ -6775,7 +6765,7 @@
       <c r="E250" s="32"/>
       <c r="F250" s="32"/>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251" s="32" t="s">
         <v>376</v>
       </c>
@@ -6785,7 +6775,7 @@
       <c r="E251" s="32"/>
       <c r="F251" s="32"/>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252" s="32" t="s">
         <v>377</v>
       </c>
@@ -6795,7 +6785,7 @@
       <c r="E252" s="32"/>
       <c r="F252" s="32"/>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253" s="32" t="s">
         <v>378</v>
       </c>
@@ -6805,7 +6795,7 @@
       <c r="E253" s="32"/>
       <c r="F253" s="32"/>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A254" s="32" t="s">
         <v>379</v>
       </c>
@@ -6815,7 +6805,7 @@
       <c r="E254" s="32"/>
       <c r="F254" s="32"/>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255" s="32" t="s">
         <v>380</v>
       </c>
@@ -6825,7 +6815,7 @@
       <c r="E255" s="32"/>
       <c r="F255" s="32"/>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256" s="32" t="s">
         <v>381</v>
       </c>
@@ -6835,7 +6825,7 @@
       <c r="E256" s="32"/>
       <c r="F256" s="32"/>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A257" s="32" t="s">
         <v>382</v>
       </c>
@@ -6845,7 +6835,7 @@
       <c r="E257" s="32"/>
       <c r="F257" s="32"/>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258" s="32" t="s">
         <v>383</v>
       </c>
@@ -6855,7 +6845,7 @@
       <c r="E258" s="32"/>
       <c r="F258" s="32"/>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259" s="32" t="s">
         <v>384</v>
       </c>
@@ -6865,7 +6855,7 @@
       <c r="E259" s="32"/>
       <c r="F259" s="32"/>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260" s="32" t="s">
         <v>385</v>
       </c>
@@ -6875,7 +6865,7 @@
       <c r="E260" s="32"/>
       <c r="F260" s="32"/>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A261" s="32" t="s">
         <v>386</v>
       </c>
@@ -6885,7 +6875,7 @@
       <c r="E261" s="32"/>
       <c r="F261" s="32"/>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A262" s="32" t="s">
         <v>387</v>
       </c>
@@ -6895,7 +6885,7 @@
       <c r="E262" s="32"/>
       <c r="F262" s="32"/>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263" s="32" t="s">
         <v>388</v>
       </c>
@@ -6905,7 +6895,7 @@
       <c r="E263" s="32"/>
       <c r="F263" s="32"/>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264" s="32" t="s">
         <v>389</v>
       </c>
@@ -6915,7 +6905,7 @@
       <c r="E264" s="32"/>
       <c r="F264" s="32"/>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A265" s="32" t="s">
         <v>390</v>
       </c>
@@ -6925,7 +6915,7 @@
       <c r="E265" s="32"/>
       <c r="F265" s="32"/>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A266" s="32" t="s">
         <v>391</v>
       </c>
@@ -6935,7 +6925,7 @@
       <c r="E266" s="32"/>
       <c r="F266" s="32"/>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A267" s="32" t="s">
         <v>392</v>
       </c>
@@ -6945,7 +6935,7 @@
       <c r="E267" s="32"/>
       <c r="F267" s="32"/>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A268" s="32" t="s">
         <v>393</v>
       </c>
@@ -6955,7 +6945,7 @@
       <c r="E268" s="32"/>
       <c r="F268" s="32"/>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A269" s="32" t="s">
         <v>394</v>
       </c>
@@ -6965,7 +6955,7 @@
       <c r="E269" s="32"/>
       <c r="F269" s="32"/>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A270" s="32" t="s">
         <v>395</v>
       </c>
@@ -6975,7 +6965,7 @@
       <c r="E270" s="32"/>
       <c r="F270" s="32"/>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A271" s="32" t="s">
         <v>396</v>
       </c>
@@ -6985,7 +6975,7 @@
       <c r="E271" s="32"/>
       <c r="F271" s="32"/>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272" s="32" t="s">
         <v>397</v>
       </c>
@@ -6995,7 +6985,7 @@
       <c r="E272" s="32"/>
       <c r="F272" s="32"/>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273" s="32" t="s">
         <v>398</v>
       </c>
@@ -7005,7 +6995,7 @@
       <c r="E273" s="32"/>
       <c r="F273" s="32"/>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A274" s="32" t="s">
         <v>399</v>
       </c>
@@ -7015,7 +7005,7 @@
       <c r="E274" s="32"/>
       <c r="F274" s="32"/>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A275" s="32" t="s">
         <v>400</v>
       </c>
@@ -7025,7 +7015,7 @@
       <c r="E275" s="32"/>
       <c r="F275" s="32"/>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A276" s="32" t="s">
         <v>401</v>
       </c>
@@ -7035,7 +7025,7 @@
       <c r="E276" s="32"/>
       <c r="F276" s="32"/>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A277" s="32" t="s">
         <v>402</v>
       </c>
@@ -7045,7 +7035,7 @@
       <c r="E277" s="32"/>
       <c r="F277" s="32"/>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A278" s="32" t="s">
         <v>403</v>
       </c>
@@ -7055,7 +7045,7 @@
       <c r="E278" s="32"/>
       <c r="F278" s="32"/>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279" s="32" t="s">
         <v>404</v>
       </c>
@@ -7065,7 +7055,7 @@
       <c r="E279" s="32"/>
       <c r="F279" s="32"/>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280" s="32" t="s">
         <v>405</v>
       </c>
@@ -7075,7 +7065,7 @@
       <c r="E280" s="32"/>
       <c r="F280" s="32"/>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281" s="32" t="s">
         <v>406</v>
       </c>
@@ -7085,7 +7075,7 @@
       <c r="E281" s="32"/>
       <c r="F281" s="32"/>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282" s="32" t="s">
         <v>407</v>
       </c>
@@ -7095,7 +7085,7 @@
       <c r="E282" s="32"/>
       <c r="F282" s="32"/>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283" s="32" t="s">
         <v>408</v>
       </c>
@@ -7105,7 +7095,7 @@
       <c r="E283" s="32"/>
       <c r="F283" s="32"/>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284" s="32" t="s">
         <v>409</v>
       </c>
@@ -7115,7 +7105,7 @@
       <c r="E284" s="32"/>
       <c r="F284" s="32"/>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285" s="32" t="s">
         <v>410</v>
       </c>
@@ -7125,7 +7115,7 @@
       <c r="E285" s="32"/>
       <c r="F285" s="32"/>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286" s="32" t="s">
         <v>411</v>
       </c>
@@ -7135,7 +7125,7 @@
       <c r="E286" s="32"/>
       <c r="F286" s="32"/>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287" s="32" t="s">
         <v>412</v>
       </c>
@@ -7145,7 +7135,7 @@
       <c r="E287" s="32"/>
       <c r="F287" s="32"/>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288" s="32" t="s">
         <v>413</v>
       </c>
@@ -7155,7 +7145,7 @@
       <c r="E288" s="32"/>
       <c r="F288" s="32"/>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289" s="32" t="s">
         <v>414</v>
       </c>
@@ -7165,7 +7155,7 @@
       <c r="E289" s="32"/>
       <c r="F289" s="32"/>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290" s="32" t="s">
         <v>415</v>
       </c>
@@ -7175,7 +7165,7 @@
       <c r="E290" s="32"/>
       <c r="F290" s="32"/>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291" s="32" t="s">
         <v>416</v>
       </c>
@@ -7185,7 +7175,7 @@
       <c r="E291" s="32"/>
       <c r="F291" s="32"/>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292" s="32" t="s">
         <v>417</v>
       </c>
@@ -7195,7 +7185,7 @@
       <c r="E292" s="32"/>
       <c r="F292" s="32"/>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293" s="32" t="s">
         <v>418</v>
       </c>
@@ -7205,7 +7195,7 @@
       <c r="E293" s="32"/>
       <c r="F293" s="32"/>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294" s="32" t="s">
         <v>419</v>
       </c>
@@ -7215,7 +7205,7 @@
       <c r="E294" s="32"/>
       <c r="F294" s="32"/>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295" s="32" t="s">
         <v>420</v>
       </c>
@@ -7225,7 +7215,7 @@
       <c r="E295" s="32"/>
       <c r="F295" s="32"/>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296" s="32" t="s">
         <v>421</v>
       </c>
@@ -7235,7 +7225,7 @@
       <c r="E296" s="32"/>
       <c r="F296" s="32"/>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297" s="32" t="s">
         <v>422</v>
       </c>
@@ -7245,7 +7235,7 @@
       <c r="E297" s="32"/>
       <c r="F297" s="32"/>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298" s="32" t="s">
         <v>423</v>
       </c>
@@ -7255,7 +7245,7 @@
       <c r="E298" s="32"/>
       <c r="F298" s="32"/>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299" s="32" t="s">
         <v>424</v>
       </c>
@@ -7265,7 +7255,7 @@
       <c r="E299" s="32"/>
       <c r="F299" s="32"/>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300" s="32" t="s">
         <v>425</v>
       </c>
@@ -7275,7 +7265,7 @@
       <c r="E300" s="32"/>
       <c r="F300" s="32"/>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301" s="32" t="s">
         <v>426</v>
       </c>
@@ -7285,7 +7275,7 @@
       <c r="E301" s="32"/>
       <c r="F301" s="32"/>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302" s="32" t="s">
         <v>427</v>
       </c>
@@ -7295,7 +7285,7 @@
       <c r="E302" s="32"/>
       <c r="F302" s="32"/>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303" s="33" t="s">
         <v>428</v>
       </c>
@@ -7305,7 +7295,7 @@
       <c r="E303" s="32"/>
       <c r="F303" s="32"/>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304" s="33" t="s">
         <v>429</v>
       </c>
@@ -7315,7 +7305,7 @@
       <c r="E304" s="32"/>
       <c r="F304" s="32"/>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A305" s="33" t="s">
         <v>430</v>
       </c>
@@ -7325,7 +7315,7 @@
       <c r="E305" s="32"/>
       <c r="F305" s="32"/>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A306" s="33" t="s">
         <v>431</v>
       </c>
@@ -7335,7 +7325,7 @@
       <c r="E306" s="32"/>
       <c r="F306" s="32"/>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307" s="33" t="s">
         <v>432</v>
       </c>
@@ -7345,7 +7335,7 @@
       <c r="E307" s="32"/>
       <c r="F307" s="32"/>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308" s="33" t="s">
         <v>433</v>
       </c>
@@ -7355,7 +7345,7 @@
       <c r="E308" s="32"/>
       <c r="F308" s="32"/>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309" s="33" t="s">
         <v>434</v>
       </c>
@@ -7365,7 +7355,7 @@
       <c r="E309" s="32"/>
       <c r="F309" s="32"/>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310" s="33" t="s">
         <v>435</v>
       </c>
@@ -7375,7 +7365,7 @@
       <c r="E310" s="32"/>
       <c r="F310" s="32"/>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311" s="33" t="s">
         <v>436</v>
       </c>
@@ -7385,7 +7375,7 @@
       <c r="E311" s="32"/>
       <c r="F311" s="32"/>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A312" s="33" t="s">
         <v>437</v>
       </c>
@@ -7395,7 +7385,7 @@
       <c r="E312" s="32"/>
       <c r="F312" s="32"/>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313" s="33" t="s">
         <v>438</v>
       </c>
@@ -7405,7 +7395,7 @@
       <c r="E313" s="32"/>
       <c r="F313" s="32"/>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314" s="33" t="s">
         <v>439</v>
       </c>
@@ -7415,7 +7405,7 @@
       <c r="E314" s="32"/>
       <c r="F314" s="32"/>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A315" s="33" t="s">
         <v>440</v>
       </c>
@@ -7425,7 +7415,7 @@
       <c r="E315" s="32"/>
       <c r="F315" s="32"/>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A316" s="33" t="s">
         <v>441</v>
       </c>
@@ -7435,7 +7425,7 @@
       <c r="E316" s="32"/>
       <c r="F316" s="32"/>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A317" s="33" t="s">
         <v>442</v>
       </c>
@@ -7445,7 +7435,7 @@
       <c r="E317" s="32"/>
       <c r="F317" s="32"/>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A318" s="33" t="s">
         <v>443</v>
       </c>
@@ -7455,7 +7445,7 @@
       <c r="E318" s="32"/>
       <c r="F318" s="32"/>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A319" s="33" t="s">
         <v>444</v>
       </c>
@@ -7465,7 +7455,7 @@
       <c r="E319" s="32"/>
       <c r="F319" s="32"/>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A320" s="33" t="s">
         <v>445</v>
       </c>
@@ -7475,7 +7465,7 @@
       <c r="E320" s="32"/>
       <c r="F320" s="32"/>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A321" s="33" t="s">
         <v>446</v>
       </c>
@@ -7485,7 +7475,7 @@
       <c r="E321" s="32"/>
       <c r="F321" s="32"/>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A322" s="33" t="s">
         <v>447</v>
       </c>
@@ -7495,7 +7485,7 @@
       <c r="E322" s="32"/>
       <c r="F322" s="32"/>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A323" s="33" t="s">
         <v>448</v>
       </c>
@@ -7505,7 +7495,7 @@
       <c r="E323" s="32"/>
       <c r="F323" s="32"/>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A324" s="33" t="s">
         <v>449</v>
       </c>
@@ -7515,7 +7505,7 @@
       <c r="E324" s="32"/>
       <c r="F324" s="32"/>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A325" s="33" t="s">
         <v>450</v>
       </c>
@@ -7525,7 +7515,7 @@
       <c r="E325" s="32"/>
       <c r="F325" s="32"/>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A326" s="33" t="s">
         <v>451</v>
       </c>
@@ -7535,7 +7525,7 @@
       <c r="E326" s="32"/>
       <c r="F326" s="32"/>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A327" s="33" t="s">
         <v>452</v>
       </c>
@@ -7545,7 +7535,7 @@
       <c r="E327" s="32"/>
       <c r="F327" s="32"/>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328" s="33" t="s">
         <v>453</v>
       </c>
@@ -7555,7 +7545,7 @@
       <c r="E328" s="32"/>
       <c r="F328" s="32"/>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A329" s="33" t="s">
         <v>454</v>
       </c>
@@ -7565,7 +7555,7 @@
       <c r="E329" s="32"/>
       <c r="F329" s="32"/>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330" s="33" t="s">
         <v>455</v>
       </c>
@@ -7575,7 +7565,7 @@
       <c r="E330" s="32"/>
       <c r="F330" s="32"/>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A331" s="33" t="s">
         <v>456</v>
       </c>
@@ -7585,7 +7575,7 @@
       <c r="E331" s="32"/>
       <c r="F331" s="32"/>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A332" s="33" t="s">
         <v>457</v>
       </c>
@@ -7595,7 +7585,7 @@
       <c r="E332" s="32"/>
       <c r="F332" s="32"/>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A333" s="33" t="s">
         <v>458</v>
       </c>
@@ -7605,7 +7595,7 @@
       <c r="E333" s="32"/>
       <c r="F333" s="32"/>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A334" s="33" t="s">
         <v>459</v>
       </c>
@@ -7615,7 +7605,7 @@
       <c r="E334" s="32"/>
       <c r="F334" s="32"/>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A335" s="33" t="s">
         <v>460</v>
       </c>
@@ -7625,7 +7615,7 @@
       <c r="E335" s="32"/>
       <c r="F335" s="32"/>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A336" s="33" t="s">
         <v>461</v>
       </c>
@@ -7635,7 +7625,7 @@
       <c r="E336" s="32"/>
       <c r="F336" s="32"/>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A337" s="33" t="s">
         <v>462</v>
       </c>
@@ -7645,7 +7635,7 @@
       <c r="E337" s="32"/>
       <c r="F337" s="32"/>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A338" s="33" t="s">
         <v>463</v>
       </c>
@@ -7655,7 +7645,7 @@
       <c r="E338" s="32"/>
       <c r="F338" s="32"/>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A339" s="33" t="s">
         <v>464</v>
       </c>
@@ -7665,7 +7655,7 @@
       <c r="E339" s="32"/>
       <c r="F339" s="32"/>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A340" s="33" t="s">
         <v>465</v>
       </c>
@@ -7675,7 +7665,7 @@
       <c r="E340" s="32"/>
       <c r="F340" s="32"/>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A341" s="33" t="s">
         <v>466</v>
       </c>
@@ -7685,7 +7675,7 @@
       <c r="E341" s="32"/>
       <c r="F341" s="32"/>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A342" s="33" t="s">
         <v>467</v>
       </c>
@@ -7695,7 +7685,7 @@
       <c r="E342" s="32"/>
       <c r="F342" s="32"/>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A343" s="33" t="s">
         <v>468</v>
       </c>
@@ -7705,7 +7695,7 @@
       <c r="E343" s="32"/>
       <c r="F343" s="32"/>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A344" s="33" t="s">
         <v>469</v>
       </c>
@@ -7715,7 +7705,7 @@
       <c r="E344" s="32"/>
       <c r="F344" s="32"/>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A345" s="33" t="s">
         <v>470</v>
       </c>
@@ -7725,7 +7715,7 @@
       <c r="E345" s="32"/>
       <c r="F345" s="32"/>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A346" s="33" t="s">
         <v>471</v>
       </c>
@@ -7735,7 +7725,7 @@
       <c r="E346" s="32"/>
       <c r="F346" s="32"/>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347" s="33" t="s">
         <v>472</v>
       </c>
@@ -7745,7 +7735,7 @@
       <c r="E347" s="32"/>
       <c r="F347" s="32"/>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348" s="33" t="s">
         <v>473</v>
       </c>
@@ -7755,7 +7745,7 @@
       <c r="E348" s="32"/>
       <c r="F348" s="32"/>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A349" s="33" t="s">
         <v>474</v>
       </c>
@@ -7765,7 +7755,7 @@
       <c r="E349" s="32"/>
       <c r="F349" s="32"/>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A350" s="33" t="s">
         <v>475</v>
       </c>
@@ -7775,7 +7765,7 @@
       <c r="E350" s="32"/>
       <c r="F350" s="32"/>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A351" s="33" t="s">
         <v>476</v>
       </c>
@@ -7785,7 +7775,7 @@
       <c r="E351" s="32"/>
       <c r="F351" s="32"/>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A352" s="33" t="s">
         <v>477</v>
       </c>
@@ -7795,7 +7785,7 @@
       <c r="E352" s="32"/>
       <c r="F352" s="32"/>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A353" s="33" t="s">
         <v>478</v>
       </c>
@@ -7805,7 +7795,7 @@
       <c r="E353" s="32"/>
       <c r="F353" s="32"/>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A354" s="33" t="s">
         <v>479</v>
       </c>
@@ -7815,7 +7805,7 @@
       <c r="E354" s="32"/>
       <c r="F354" s="32"/>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A355" s="33" t="s">
         <v>480</v>
       </c>
@@ -7825,7 +7815,7 @@
       <c r="E355" s="32"/>
       <c r="F355" s="32"/>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A356" s="33" t="s">
         <v>481</v>
       </c>
@@ -7835,7 +7825,7 @@
       <c r="E356" s="32"/>
       <c r="F356" s="32"/>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A357" s="33" t="s">
         <v>482</v>
       </c>
@@ -7845,7 +7835,7 @@
       <c r="E357" s="32"/>
       <c r="F357" s="32"/>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A358" s="33" t="s">
         <v>483</v>
       </c>
@@ -7855,7 +7845,7 @@
       <c r="E358" s="32"/>
       <c r="F358" s="32"/>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A359" s="33" t="s">
         <v>484</v>
       </c>
@@ -7865,7 +7855,7 @@
       <c r="E359" s="32"/>
       <c r="F359" s="32"/>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A360" s="33" t="s">
         <v>485</v>
       </c>
@@ -7875,7 +7865,7 @@
       <c r="E360" s="32"/>
       <c r="F360" s="32"/>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A361" s="33" t="s">
         <v>486</v>
       </c>
@@ -7885,7 +7875,7 @@
       <c r="E361" s="32"/>
       <c r="F361" s="32"/>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A362" s="33" t="s">
         <v>487</v>
       </c>
@@ -7895,7 +7885,7 @@
       <c r="E362" s="32"/>
       <c r="F362" s="32"/>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A363" s="33" t="s">
         <v>488</v>
       </c>
@@ -7905,7 +7895,7 @@
       <c r="E363" s="32"/>
       <c r="F363" s="32"/>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A364" s="32" t="s">
         <v>489</v>
       </c>
@@ -7915,7 +7905,7 @@
       <c r="E364" s="32"/>
       <c r="F364" s="32"/>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A365" s="32" t="s">
         <v>490</v>
       </c>
@@ -7925,7 +7915,7 @@
       <c r="E365" s="32"/>
       <c r="F365" s="32"/>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A366" s="32" t="s">
         <v>491</v>
       </c>
@@ -7935,7 +7925,7 @@
       <c r="E366" s="32"/>
       <c r="F366" s="32"/>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A367" s="32" t="s">
         <v>492</v>
       </c>
@@ -7945,7 +7935,7 @@
       <c r="E367" s="32"/>
       <c r="F367" s="32"/>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A368" s="32" t="s">
         <v>493</v>
       </c>
@@ -7955,7 +7945,7 @@
       <c r="E368" s="32"/>
       <c r="F368" s="32"/>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A369" s="32" t="s">
         <v>305</v>
       </c>
@@ -7965,7 +7955,7 @@
       <c r="E369" s="32"/>
       <c r="F369" s="32"/>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A370" s="32" t="s">
         <v>494</v>
       </c>
@@ -7975,7 +7965,7 @@
       <c r="E370" s="32"/>
       <c r="F370" s="32"/>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A371" s="32" t="s">
         <v>495</v>
       </c>
@@ -7985,7 +7975,7 @@
       <c r="E371" s="32"/>
       <c r="F371" s="32"/>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A372" s="32" t="s">
         <v>496</v>
       </c>
@@ -7995,7 +7985,7 @@
       <c r="E372" s="32"/>
       <c r="F372" s="32"/>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A373" s="32" t="s">
         <v>307</v>
       </c>
@@ -8005,7 +7995,7 @@
       <c r="E373" s="32"/>
       <c r="F373" s="32"/>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A374" s="32" t="s">
         <v>308</v>
       </c>
@@ -8015,7 +8005,7 @@
       <c r="E374" s="32"/>
       <c r="F374" s="32"/>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A375" s="32" t="s">
         <v>497</v>
       </c>
@@ -8025,7 +8015,7 @@
       <c r="E375" s="32"/>
       <c r="F375" s="32"/>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A376" s="32" t="s">
         <v>498</v>
       </c>
@@ -8035,7 +8025,7 @@
       <c r="E376" s="32"/>
       <c r="F376" s="32"/>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377" s="32" t="s">
         <v>499</v>
       </c>
@@ -8045,7 +8035,7 @@
       <c r="E377" s="32"/>
       <c r="F377" s="32"/>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378" s="32" t="s">
         <v>500</v>
       </c>
@@ -8055,7 +8045,7 @@
       <c r="E378" s="32"/>
       <c r="F378" s="32"/>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A379" s="32" t="s">
         <v>309</v>
       </c>
@@ -8065,7 +8055,7 @@
       <c r="E379" s="32"/>
       <c r="F379" s="32"/>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A380" s="32" t="s">
         <v>310</v>
       </c>
@@ -8075,7 +8065,7 @@
       <c r="E380" s="32"/>
       <c r="F380" s="32"/>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A381" s="32" t="s">
         <v>501</v>
       </c>
@@ -8085,7 +8075,7 @@
       <c r="E381" s="32"/>
       <c r="F381" s="32"/>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A382" s="32" t="s">
         <v>502</v>
       </c>
@@ -8095,7 +8085,7 @@
       <c r="E382" s="32"/>
       <c r="F382" s="32"/>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A383" s="32" t="s">
         <v>503</v>
       </c>
@@ -8105,7 +8095,7 @@
       <c r="E383" s="32"/>
       <c r="F383" s="32"/>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A384" s="32" t="s">
         <v>504</v>
       </c>
@@ -8115,7 +8105,7 @@
       <c r="E384" s="32"/>
       <c r="F384" s="32"/>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A385" s="32" t="s">
         <v>311</v>
       </c>
@@ -8125,7 +8115,7 @@
       <c r="E385" s="32"/>
       <c r="F385" s="32"/>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A386" s="32" t="s">
         <v>505</v>
       </c>
@@ -8135,7 +8125,7 @@
       <c r="E386" s="32"/>
       <c r="F386" s="32"/>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A387" s="32" t="s">
         <v>506</v>
       </c>
@@ -8145,7 +8135,7 @@
       <c r="E387" s="32"/>
       <c r="F387" s="32"/>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A388" s="32" t="s">
         <v>507</v>
       </c>
@@ -8155,7 +8145,7 @@
       <c r="E388" s="32"/>
       <c r="F388" s="32"/>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A389" s="32" t="s">
         <v>508</v>
       </c>
@@ -8165,7 +8155,7 @@
       <c r="E389" s="32"/>
       <c r="F389" s="32"/>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A390" s="32" t="s">
         <v>509</v>
       </c>
@@ -8175,7 +8165,7 @@
       <c r="E390" s="32"/>
       <c r="F390" s="32"/>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A391" s="32" t="s">
         <v>510</v>
       </c>
@@ -8185,7 +8175,7 @@
       <c r="E391" s="32"/>
       <c r="F391" s="32"/>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A392" s="32" t="s">
         <v>511</v>
       </c>
@@ -8195,7 +8185,7 @@
       <c r="E392" s="32"/>
       <c r="F392" s="32"/>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A393" s="32" t="s">
         <v>512</v>
       </c>
@@ -8205,7 +8195,7 @@
       <c r="E393" s="32"/>
       <c r="F393" s="32"/>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A394" s="32" t="s">
         <v>513</v>
       </c>
@@ -8215,7 +8205,7 @@
       <c r="E394" s="32"/>
       <c r="F394" s="32"/>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A395" s="32" t="s">
         <v>514</v>
       </c>
@@ -8225,7 +8215,7 @@
       <c r="E395" s="32"/>
       <c r="F395" s="32"/>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A396" s="32" t="s">
         <v>515</v>
       </c>
@@ -8235,7 +8225,7 @@
       <c r="E396" s="32"/>
       <c r="F396" s="32"/>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A397" s="32" t="s">
         <v>516</v>
       </c>
@@ -8245,7 +8235,7 @@
       <c r="E397" s="32"/>
       <c r="F397" s="32"/>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A398" s="32" t="s">
         <v>517</v>
       </c>
@@ -8255,7 +8245,7 @@
       <c r="E398" s="32"/>
       <c r="F398" s="32"/>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A399" s="32" t="s">
         <v>518</v>
       </c>
@@ -8265,7 +8255,7 @@
       <c r="E399" s="32"/>
       <c r="F399" s="32"/>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A400" s="32" t="s">
         <v>519</v>
       </c>
@@ -8275,7 +8265,7 @@
       <c r="E400" s="32"/>
       <c r="F400" s="32"/>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A401" s="32" t="s">
         <v>320</v>
       </c>
@@ -8285,7 +8275,7 @@
       <c r="E401" s="32"/>
       <c r="F401" s="32"/>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A402" s="32" t="s">
         <v>520</v>
       </c>
@@ -8295,7 +8285,7 @@
       <c r="E402" s="32"/>
       <c r="F402" s="32"/>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A403" s="32" t="s">
         <v>521</v>
       </c>
@@ -8305,7 +8295,7 @@
       <c r="E403" s="32"/>
       <c r="F403" s="32"/>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A404" s="32" t="s">
         <v>522</v>
       </c>
@@ -8315,7 +8305,7 @@
       <c r="E404" s="32"/>
       <c r="F404" s="32"/>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A405" s="32" t="s">
         <v>523</v>
       </c>
@@ -8325,7 +8315,7 @@
       <c r="E405" s="32"/>
       <c r="F405" s="32"/>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A406" s="32" t="s">
         <v>524</v>
       </c>
@@ -8335,7 +8325,7 @@
       <c r="E406" s="32"/>
       <c r="F406" s="32"/>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A407" s="32" t="s">
         <v>525</v>
       </c>
@@ -8345,7 +8335,7 @@
       <c r="E407" s="32"/>
       <c r="F407" s="32"/>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A408" s="32" t="s">
         <v>526</v>
       </c>
@@ -8355,7 +8345,7 @@
       <c r="E408" s="32"/>
       <c r="F408" s="32"/>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A409" s="32" t="s">
         <v>527</v>
       </c>
@@ -8365,7 +8355,7 @@
       <c r="E409" s="32"/>
       <c r="F409" s="32"/>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A410" s="32" t="s">
         <v>528</v>
       </c>
@@ -8375,7 +8365,7 @@
       <c r="E410" s="32"/>
       <c r="F410" s="32"/>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A411" s="32" t="s">
         <v>529</v>
       </c>
@@ -8385,7 +8375,7 @@
       <c r="E411" s="32"/>
       <c r="F411" s="32"/>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A412" s="32" t="s">
         <v>321</v>
       </c>
@@ -8395,7 +8385,7 @@
       <c r="E412" s="32"/>
       <c r="F412" s="32"/>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413" s="32" t="s">
         <v>530</v>
       </c>
@@ -8405,7 +8395,7 @@
       <c r="E413" s="32"/>
       <c r="F413" s="32"/>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A414" s="32" t="s">
         <v>531</v>
       </c>
@@ -8415,7 +8405,7 @@
       <c r="E414" s="32"/>
       <c r="F414" s="32"/>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A415" s="32" t="s">
         <v>532</v>
       </c>
@@ -8425,7 +8415,7 @@
       <c r="E415" s="32"/>
       <c r="F415" s="32"/>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A416" s="32" t="s">
         <v>326</v>
       </c>
@@ -8435,7 +8425,7 @@
       <c r="E416" s="32"/>
       <c r="F416" s="32"/>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A417" s="32" t="s">
         <v>533</v>
       </c>
@@ -8445,7 +8435,7 @@
       <c r="E417" s="32"/>
       <c r="F417" s="32"/>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A418" s="32" t="s">
         <v>534</v>
       </c>
@@ -8455,7 +8445,7 @@
       <c r="E418" s="32"/>
       <c r="F418" s="32"/>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A419" s="32" t="s">
         <v>535</v>
       </c>
@@ -8465,7 +8455,7 @@
       <c r="E419" s="32"/>
       <c r="F419" s="32"/>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A420" s="32" t="s">
         <v>536</v>
       </c>
@@ -8475,7 +8465,7 @@
       <c r="E420" s="32"/>
       <c r="F420" s="32"/>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A421" s="32" t="s">
         <v>537</v>
       </c>
@@ -8485,7 +8475,7 @@
       <c r="E421" s="32"/>
       <c r="F421" s="32"/>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A422" s="32" t="s">
         <v>327</v>
       </c>
@@ -8495,7 +8485,7 @@
       <c r="E422" s="32"/>
       <c r="F422" s="32"/>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A423" s="32" t="s">
         <v>538</v>
       </c>
@@ -8505,7 +8495,7 @@
       <c r="E423" s="32"/>
       <c r="F423" s="32"/>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A424" s="32" t="s">
         <v>539</v>
       </c>
@@ -8515,7 +8505,7 @@
       <c r="E424" s="32"/>
       <c r="F424" s="32"/>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A425" s="32" t="s">
         <v>540</v>
       </c>
@@ -8525,7 +8515,7 @@
       <c r="E425" s="32"/>
       <c r="F425" s="32"/>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A426" s="32" t="s">
         <v>541</v>
       </c>
@@ -8535,7 +8525,7 @@
       <c r="E426" s="32"/>
       <c r="F426" s="32"/>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A427" s="32" t="s">
         <v>542</v>
       </c>
@@ -8545,7 +8535,7 @@
       <c r="E427" s="32"/>
       <c r="F427" s="32"/>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A428" s="32" t="s">
         <v>543</v>
       </c>
@@ -8555,7 +8545,7 @@
       <c r="E428" s="32"/>
       <c r="F428" s="32"/>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A429" s="32" t="s">
         <v>544</v>
       </c>
@@ -8565,7 +8555,7 @@
       <c r="E429" s="32"/>
       <c r="F429" s="32"/>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A430" s="32" t="s">
         <v>545</v>
       </c>
@@ -8575,7 +8565,7 @@
       <c r="E430" s="32"/>
       <c r="F430" s="32"/>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A431" s="32" t="s">
         <v>546</v>
       </c>
@@ -8585,7 +8575,7 @@
       <c r="E431" s="32"/>
       <c r="F431" s="32"/>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A432" s="32" t="s">
         <v>330</v>
       </c>
@@ -8595,7 +8585,7 @@
       <c r="E432" s="32"/>
       <c r="F432" s="32"/>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A433" s="32" t="s">
         <v>547</v>
       </c>
@@ -8605,7 +8595,7 @@
       <c r="E433" s="32"/>
       <c r="F433" s="32"/>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A434" s="32" t="s">
         <v>548</v>
       </c>
@@ -8615,7 +8605,7 @@
       <c r="E434" s="32"/>
       <c r="F434" s="32"/>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A435" s="32" t="s">
         <v>549</v>
       </c>
@@ -8625,7 +8615,7 @@
       <c r="E435" s="32"/>
       <c r="F435" s="32"/>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A436" s="32" t="s">
         <v>550</v>
       </c>
@@ -8635,7 +8625,7 @@
       <c r="E436" s="32"/>
       <c r="F436" s="32"/>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A437" s="32" t="s">
         <v>331</v>
       </c>
@@ -8645,7 +8635,7 @@
       <c r="E437" s="32"/>
       <c r="F437" s="32"/>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A438" s="32" t="s">
         <v>551</v>
       </c>
@@ -8655,7 +8645,7 @@
       <c r="E438" s="32"/>
       <c r="F438" s="32"/>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A439" s="32" t="s">
         <v>334</v>
       </c>
@@ -8665,7 +8655,7 @@
       <c r="E439" s="32"/>
       <c r="F439" s="32"/>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A440" s="32" t="s">
         <v>552</v>
       </c>
@@ -8675,7 +8665,7 @@
       <c r="E440" s="32"/>
       <c r="F440" s="32"/>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A441" s="32" t="s">
         <v>553</v>
       </c>
@@ -8685,7 +8675,7 @@
       <c r="E441" s="32"/>
       <c r="F441" s="32"/>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A442" s="32" t="s">
         <v>554</v>
       </c>
@@ -8695,7 +8685,7 @@
       <c r="E442" s="32"/>
       <c r="F442" s="32"/>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A443" s="32" t="s">
         <v>555</v>
       </c>
@@ -8705,7 +8695,7 @@
       <c r="E443" s="32"/>
       <c r="F443" s="32"/>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A444" s="32" t="s">
         <v>556</v>
       </c>
@@ -8715,7 +8705,7 @@
       <c r="E444" s="32"/>
       <c r="F444" s="32"/>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A445" s="32" t="s">
         <v>335</v>
       </c>
@@ -8725,7 +8715,7 @@
       <c r="E445" s="32"/>
       <c r="F445" s="32"/>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A446" s="32" t="s">
         <v>336</v>
       </c>
@@ -8735,7 +8725,7 @@
       <c r="E446" s="32"/>
       <c r="F446" s="32"/>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A447" s="32" t="s">
         <v>557</v>
       </c>
@@ -8745,7 +8735,7 @@
       <c r="E447" s="32"/>
       <c r="F447" s="32"/>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A448" s="32" t="s">
         <v>558</v>
       </c>
@@ -8755,7 +8745,7 @@
       <c r="E448" s="32"/>
       <c r="F448" s="32"/>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A449" s="32" t="s">
         <v>559</v>
       </c>
@@ -8765,7 +8755,7 @@
       <c r="E449" s="32"/>
       <c r="F449" s="32"/>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A450" s="32" t="s">
         <v>338</v>
       </c>
@@ -8775,7 +8765,7 @@
       <c r="E450" s="32"/>
       <c r="F450" s="32"/>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A451" s="32" t="s">
         <v>560</v>
       </c>
@@ -8785,7 +8775,7 @@
       <c r="E451" s="32"/>
       <c r="F451" s="32"/>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A452" s="32" t="s">
         <v>561</v>
       </c>
@@ -8795,7 +8785,7 @@
       <c r="E452" s="32"/>
       <c r="F452" s="32"/>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A453" s="32" t="s">
         <v>562</v>
       </c>
@@ -8805,7 +8795,7 @@
       <c r="E453" s="32"/>
       <c r="F453" s="32"/>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A454" s="32" t="s">
         <v>563</v>
       </c>
@@ -8815,7 +8805,7 @@
       <c r="E454" s="32"/>
       <c r="F454" s="32"/>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A455" s="32" t="s">
         <v>564</v>
       </c>
@@ -8825,7 +8815,7 @@
       <c r="E455" s="32"/>
       <c r="F455" s="32"/>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A456" s="32" t="s">
         <v>339</v>
       </c>
@@ -8835,7 +8825,7 @@
       <c r="E456" s="32"/>
       <c r="F456" s="32"/>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A457" s="32" t="s">
         <v>340</v>
       </c>
@@ -8845,7 +8835,7 @@
       <c r="E457" s="32"/>
       <c r="F457" s="32"/>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A458" s="32" t="s">
         <v>565</v>
       </c>
@@ -8855,7 +8845,7 @@
       <c r="E458" s="32"/>
       <c r="F458" s="32"/>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A459" s="32" t="s">
         <v>341</v>
       </c>
@@ -8865,7 +8855,7 @@
       <c r="E459" s="32"/>
       <c r="F459" s="32"/>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A460" s="32" t="s">
         <v>566</v>
       </c>
@@ -8875,7 +8865,7 @@
       <c r="E460" s="32"/>
       <c r="F460" s="32"/>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A461" s="32" t="s">
         <v>567</v>
       </c>
@@ -8885,7 +8875,7 @@
       <c r="E461" s="32"/>
       <c r="F461" s="32"/>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A462" s="32" t="s">
         <v>568</v>
       </c>
@@ -8895,7 +8885,7 @@
       <c r="E462" s="32"/>
       <c r="F462" s="32"/>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A463" s="32" t="s">
         <v>569</v>
       </c>
@@ -8905,7 +8895,7 @@
       <c r="E463" s="32"/>
       <c r="F463" s="32"/>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A464" s="32" t="s">
         <v>570</v>
       </c>
@@ -8915,7 +8905,7 @@
       <c r="E464" s="32"/>
       <c r="F464" s="32"/>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A465" s="32" t="s">
         <v>571</v>
       </c>
@@ -8925,7 +8915,7 @@
       <c r="E465" s="32"/>
       <c r="F465" s="32"/>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A466" s="32" t="s">
         <v>347</v>
       </c>
@@ -8935,7 +8925,7 @@
       <c r="E466" s="32"/>
       <c r="F466" s="32"/>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A467" s="32" t="s">
         <v>572</v>
       </c>
@@ -8945,7 +8935,7 @@
       <c r="E467" s="32"/>
       <c r="F467" s="32"/>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A468" s="32" t="s">
         <v>573</v>
       </c>
@@ -8955,7 +8945,7 @@
       <c r="E468" s="32"/>
       <c r="F468" s="32"/>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A469" s="32" t="s">
         <v>574</v>
       </c>
@@ -8965,7 +8955,7 @@
       <c r="E469" s="32"/>
       <c r="F469" s="32"/>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A470" s="32" t="s">
         <v>575</v>
       </c>
@@ -8975,7 +8965,7 @@
       <c r="E470" s="32"/>
       <c r="F470" s="32"/>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A471" s="32" t="s">
         <v>576</v>
       </c>
@@ -8985,7 +8975,7 @@
       <c r="E471" s="32"/>
       <c r="F471" s="32"/>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A472" s="32" t="s">
         <v>577</v>
       </c>
@@ -8995,7 +8985,7 @@
       <c r="E472" s="32"/>
       <c r="F472" s="32"/>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A473" s="32" t="s">
         <v>578</v>
       </c>
@@ -9005,7 +8995,7 @@
       <c r="E473" s="32"/>
       <c r="F473" s="32"/>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A474" s="32" t="s">
         <v>350</v>
       </c>
@@ -9015,7 +9005,7 @@
       <c r="E474" s="32"/>
       <c r="F474" s="32"/>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A475" s="32" t="s">
         <v>579</v>
       </c>
@@ -9025,7 +9015,7 @@
       <c r="E475" s="32"/>
       <c r="F475" s="32"/>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A476" s="32" t="s">
         <v>580</v>
       </c>
@@ -9035,7 +9025,7 @@
       <c r="E476" s="32"/>
       <c r="F476" s="32"/>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A477" s="32" t="s">
         <v>581</v>
       </c>
@@ -9045,7 +9035,7 @@
       <c r="E477" s="32"/>
       <c r="F477" s="32"/>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A478" s="32" t="s">
         <v>582</v>
       </c>
@@ -9055,7 +9045,7 @@
       <c r="E478" s="32"/>
       <c r="F478" s="32"/>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A479" s="32" t="s">
         <v>583</v>
       </c>
@@ -9065,7 +9055,7 @@
       <c r="E479" s="32"/>
       <c r="F479" s="32"/>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A480" s="32" t="s">
         <v>584</v>
       </c>
@@ -9075,7 +9065,7 @@
       <c r="E480" s="32"/>
       <c r="F480" s="32"/>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A481" s="32" t="s">
         <v>352</v>
       </c>
@@ -9085,7 +9075,7 @@
       <c r="E481" s="32"/>
       <c r="F481" s="32"/>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A482" s="32" t="s">
         <v>585</v>
       </c>
@@ -9095,7 +9085,7 @@
       <c r="E482" s="32"/>
       <c r="F482" s="32"/>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A483" s="32" t="s">
         <v>586</v>
       </c>
@@ -9105,7 +9095,7 @@
       <c r="E483" s="32"/>
       <c r="F483" s="32"/>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A484" s="32" t="s">
         <v>587</v>
       </c>
@@ -9115,7 +9105,7 @@
       <c r="E484" s="32"/>
       <c r="F484" s="32"/>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A485" s="32" t="s">
         <v>588</v>
       </c>
@@ -9125,7 +9115,7 @@
       <c r="E485" s="32"/>
       <c r="F485" s="32"/>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A486" s="32" t="s">
         <v>589</v>
       </c>
@@ -9135,7 +9125,7 @@
       <c r="E486" s="32"/>
       <c r="F486" s="32"/>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A487" s="32" t="s">
         <v>590</v>
       </c>
@@ -9145,7 +9135,7 @@
       <c r="E487" s="32"/>
       <c r="F487" s="32"/>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A488" s="32" t="s">
         <v>591</v>
       </c>
@@ -9155,7 +9145,7 @@
       <c r="E488" s="32"/>
       <c r="F488" s="32"/>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A489" s="32" t="s">
         <v>592</v>
       </c>
@@ -9165,7 +9155,7 @@
       <c r="E489" s="32"/>
       <c r="F489" s="32"/>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A490" s="32" t="s">
         <v>593</v>
       </c>
@@ -9175,7 +9165,7 @@
       <c r="E490" s="32"/>
       <c r="F490" s="32"/>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A491" s="32" t="s">
         <v>594</v>
       </c>
@@ -9185,7 +9175,7 @@
       <c r="E491" s="32"/>
       <c r="F491" s="32"/>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A492" s="32" t="s">
         <v>595</v>
       </c>
@@ -9195,7 +9185,7 @@
       <c r="E492" s="32"/>
       <c r="F492" s="32"/>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A493" s="32" t="s">
         <v>596</v>
       </c>
@@ -9205,7 +9195,7 @@
       <c r="E493" s="32"/>
       <c r="F493" s="32"/>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A494" s="32" t="s">
         <v>597</v>
       </c>
@@ -9215,7 +9205,7 @@
       <c r="E494" s="32"/>
       <c r="F494" s="32"/>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A495" s="32" t="s">
         <v>598</v>
       </c>
@@ -9225,7 +9215,7 @@
       <c r="E495" s="32"/>
       <c r="F495" s="32"/>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A496" s="32" t="s">
         <v>599</v>
       </c>
@@ -9235,7 +9225,7 @@
       <c r="E496" s="32"/>
       <c r="F496" s="32"/>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A497" s="32" t="s">
         <v>600</v>
       </c>
@@ -9245,7 +9235,7 @@
       <c r="E497" s="32"/>
       <c r="F497" s="32"/>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A498" s="32" t="s">
         <v>357</v>
       </c>
@@ -9255,7 +9245,7 @@
       <c r="E498" s="32"/>
       <c r="F498" s="32"/>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A499" s="32" t="s">
         <v>601</v>
       </c>
@@ -9265,7 +9255,7 @@
       <c r="E499" s="32"/>
       <c r="F499" s="32"/>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A500" s="32" t="s">
         <v>358</v>
       </c>
@@ -9275,7 +9265,7 @@
       <c r="E500" s="32"/>
       <c r="F500" s="32"/>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A501" s="32" t="s">
         <v>602</v>
       </c>
@@ -9285,7 +9275,7 @@
       <c r="E501" s="32"/>
       <c r="F501" s="32"/>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A502" s="32" t="s">
         <v>603</v>
       </c>
@@ -9295,7 +9285,7 @@
       <c r="E502" s="32"/>
       <c r="F502" s="32"/>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A503" s="32" t="s">
         <v>604</v>
       </c>
@@ -9305,7 +9295,7 @@
       <c r="E503" s="32"/>
       <c r="F503" s="32"/>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A504" s="32" t="s">
         <v>605</v>
       </c>
@@ -9315,7 +9305,7 @@
       <c r="E504" s="32"/>
       <c r="F504" s="32"/>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A505" s="32" t="s">
         <v>606</v>
       </c>
@@ -9325,7 +9315,7 @@
       <c r="E505" s="32"/>
       <c r="F505" s="32"/>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A506" s="32" t="s">
         <v>607</v>
       </c>
@@ -9335,7 +9325,7 @@
       <c r="E506" s="32"/>
       <c r="F506" s="32"/>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A507" s="32" t="s">
         <v>361</v>
       </c>
@@ -9345,7 +9335,7 @@
       <c r="E507" s="32"/>
       <c r="F507" s="32"/>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A508" s="32" t="s">
         <v>608</v>
       </c>
@@ -9355,7 +9345,7 @@
       <c r="E508" s="32"/>
       <c r="F508" s="32"/>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A509" s="32" t="s">
         <v>362</v>
       </c>
@@ -9365,7 +9355,7 @@
       <c r="E509" s="32"/>
       <c r="F509" s="32"/>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A510" s="32" t="s">
         <v>609</v>
       </c>
@@ -9375,7 +9365,7 @@
       <c r="E510" s="32"/>
       <c r="F510" s="32"/>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A511" s="32" t="s">
         <v>610</v>
       </c>
@@ -9385,7 +9375,7 @@
       <c r="E511" s="32"/>
       <c r="F511" s="32"/>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A512" s="29" t="b">
         <v>0</v>
       </c>
@@ -9395,7 +9385,7 @@
       <c r="E512" s="32"/>
       <c r="F512" s="32"/>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A513" s="32" t="s">
         <v>367</v>
       </c>
@@ -9405,7 +9395,7 @@
       <c r="E513" s="32"/>
       <c r="F513" s="32"/>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A514" s="32" t="s">
         <v>368</v>
       </c>
@@ -9415,7 +9405,7 @@
       <c r="E514" s="32"/>
       <c r="F514" s="32"/>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A515" s="32" t="s">
         <v>611</v>
       </c>
@@ -9425,7 +9415,7 @@
       <c r="E515" s="32"/>
       <c r="F515" s="32"/>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A516" s="32" t="s">
         <v>612</v>
       </c>
@@ -9435,7 +9425,7 @@
       <c r="E516" s="32"/>
       <c r="F516" s="32"/>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A517" s="32" t="s">
         <v>613</v>
       </c>
@@ -9445,7 +9435,7 @@
       <c r="E517" s="32"/>
       <c r="F517" s="32"/>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A518" s="32" t="s">
         <v>614</v>
       </c>
@@ -9455,7 +9445,7 @@
       <c r="E518" s="32"/>
       <c r="F518" s="32"/>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A519" s="32" t="s">
         <v>615</v>
       </c>
@@ -9465,7 +9455,7 @@
       <c r="E519" s="32"/>
       <c r="F519" s="32"/>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A520" s="32" t="s">
         <v>370</v>
       </c>
@@ -9475,7 +9465,7 @@
       <c r="E520" s="32"/>
       <c r="F520" s="32"/>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A521" s="32" t="s">
         <v>371</v>
       </c>
@@ -9485,7 +9475,7 @@
       <c r="E521" s="32"/>
       <c r="F521" s="32"/>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A522" s="32" t="s">
         <v>616</v>
       </c>
@@ -9495,7 +9485,7 @@
       <c r="E522" s="32"/>
       <c r="F522" s="32"/>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A523" s="32" t="s">
         <v>617</v>
       </c>
@@ -9505,7 +9495,7 @@
       <c r="E523" s="32"/>
       <c r="F523" s="32"/>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A524" s="32" t="s">
         <v>618</v>
       </c>
@@ -9515,7 +9505,7 @@
       <c r="E524" s="32"/>
       <c r="F524" s="32"/>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A525" s="32" t="s">
         <v>619</v>
       </c>
@@ -9525,7 +9515,7 @@
       <c r="E525" s="32"/>
       <c r="F525" s="32"/>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A526" s="32" t="s">
         <v>620</v>
       </c>
@@ -9535,7 +9525,7 @@
       <c r="E526" s="32"/>
       <c r="F526" s="32"/>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A527" s="32" t="s">
         <v>374</v>
       </c>
@@ -9545,7 +9535,7 @@
       <c r="E527" s="32"/>
       <c r="F527" s="32"/>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A528" s="32" t="s">
         <v>621</v>
       </c>
@@ -9555,7 +9545,7 @@
       <c r="E528" s="32"/>
       <c r="F528" s="32"/>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A529" s="32" t="s">
         <v>375</v>
       </c>
@@ -9565,7 +9555,7 @@
       <c r="E529" s="32"/>
       <c r="F529" s="32"/>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A530" s="32" t="s">
         <v>622</v>
       </c>
@@ -9575,7 +9565,7 @@
       <c r="E530" s="32"/>
       <c r="F530" s="32"/>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A531" s="32" t="s">
         <v>623</v>
       </c>
@@ -9585,7 +9575,7 @@
       <c r="E531" s="32"/>
       <c r="F531" s="32"/>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A532" s="32" t="s">
         <v>624</v>
       </c>
@@ -9595,7 +9585,7 @@
       <c r="E532" s="32"/>
       <c r="F532" s="32"/>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A533" s="32" t="s">
         <v>625</v>
       </c>
@@ -9605,7 +9595,7 @@
       <c r="E533" s="32"/>
       <c r="F533" s="32"/>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A534" s="32" t="s">
         <v>626</v>
       </c>
@@ -9615,7 +9605,7 @@
       <c r="E534" s="32"/>
       <c r="F534" s="32"/>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A535" s="32" t="s">
         <v>627</v>
       </c>
@@ -9625,7 +9615,7 @@
       <c r="E535" s="32"/>
       <c r="F535" s="32"/>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A536" s="32" t="s">
         <v>377</v>
       </c>
@@ -9635,7 +9625,7 @@
       <c r="E536" s="32"/>
       <c r="F536" s="32"/>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A537" s="32" t="s">
         <v>378</v>
       </c>
@@ -9645,7 +9635,7 @@
       <c r="E537" s="32"/>
       <c r="F537" s="32"/>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A538" s="32" t="s">
         <v>379</v>
       </c>
@@ -9655,7 +9645,7 @@
       <c r="E538" s="32"/>
       <c r="F538" s="32"/>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A539" s="32" t="s">
         <v>628</v>
       </c>
@@ -9665,7 +9655,7 @@
       <c r="E539" s="32"/>
       <c r="F539" s="32"/>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A540" s="32" t="s">
         <v>629</v>
       </c>
@@ -9675,7 +9665,7 @@
       <c r="E540" s="32"/>
       <c r="F540" s="32"/>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A541" s="32" t="s">
         <v>380</v>
       </c>
@@ -9685,7 +9675,7 @@
       <c r="E541" s="32"/>
       <c r="F541" s="32"/>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A542" s="32" t="s">
         <v>630</v>
       </c>
@@ -9695,7 +9685,7 @@
       <c r="E542" s="32"/>
       <c r="F542" s="32"/>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A543" s="32" t="s">
         <v>631</v>
       </c>
@@ -9705,7 +9695,7 @@
       <c r="E543" s="32"/>
       <c r="F543" s="32"/>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A544" s="32" t="s">
         <v>632</v>
       </c>
@@ -9715,7 +9705,7 @@
       <c r="E544" s="32"/>
       <c r="F544" s="32"/>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A545" s="32" t="s">
         <v>633</v>
       </c>
@@ -9725,7 +9715,7 @@
       <c r="E545" s="32"/>
       <c r="F545" s="32"/>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A546" s="32" t="s">
         <v>634</v>
       </c>
@@ -9735,7 +9725,7 @@
       <c r="E546" s="32"/>
       <c r="F546" s="32"/>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A547" s="32" t="s">
         <v>635</v>
       </c>
@@ -9745,7 +9735,7 @@
       <c r="E547" s="32"/>
       <c r="F547" s="32"/>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A548" s="32" t="s">
         <v>636</v>
       </c>
@@ -9755,7 +9745,7 @@
       <c r="E548" s="32"/>
       <c r="F548" s="32"/>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A549" s="32" t="s">
         <v>637</v>
       </c>
@@ -9765,7 +9755,7 @@
       <c r="E549" s="32"/>
       <c r="F549" s="32"/>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A550" s="32" t="s">
         <v>386</v>
       </c>
@@ -9775,7 +9765,7 @@
       <c r="E550" s="32"/>
       <c r="F550" s="32"/>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A551" s="32" t="s">
         <v>638</v>
       </c>
@@ -9785,7 +9775,7 @@
       <c r="E551" s="32"/>
       <c r="F551" s="32"/>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A552" s="32" t="s">
         <v>639</v>
       </c>
@@ -9795,7 +9785,7 @@
       <c r="E552" s="32"/>
       <c r="F552" s="32"/>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A553" s="32" t="s">
         <v>640</v>
       </c>
@@ -9805,7 +9795,7 @@
       <c r="E553" s="32"/>
       <c r="F553" s="32"/>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A554" s="32" t="s">
         <v>388</v>
       </c>
@@ -9815,7 +9805,7 @@
       <c r="E554" s="32"/>
       <c r="F554" s="32"/>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A555" s="32" t="s">
         <v>641</v>
       </c>
@@ -9825,7 +9815,7 @@
       <c r="E555" s="32"/>
       <c r="F555" s="32"/>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A556" s="32" t="s">
         <v>642</v>
       </c>
@@ -9835,7 +9825,7 @@
       <c r="E556" s="32"/>
       <c r="F556" s="32"/>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A557" s="32" t="s">
         <v>643</v>
       </c>
@@ -9845,7 +9835,7 @@
       <c r="E557" s="32"/>
       <c r="F557" s="32"/>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A558" s="32" t="s">
         <v>390</v>
       </c>
@@ -9855,7 +9845,7 @@
       <c r="E558" s="32"/>
       <c r="F558" s="32"/>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A559" s="32" t="s">
         <v>644</v>
       </c>
@@ -9865,7 +9855,7 @@
       <c r="E559" s="32"/>
       <c r="F559" s="32"/>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A560" s="32" t="s">
         <v>391</v>
       </c>
@@ -9875,7 +9865,7 @@
       <c r="E560" s="32"/>
       <c r="F560" s="32"/>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A561" s="32" t="s">
         <v>392</v>
       </c>
@@ -9885,7 +9875,7 @@
       <c r="E561" s="32"/>
       <c r="F561" s="32"/>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A562" s="32" t="s">
         <v>645</v>
       </c>
@@ -9895,7 +9885,7 @@
       <c r="E562" s="32"/>
       <c r="F562" s="32"/>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A563" s="32" t="s">
         <v>393</v>
       </c>
@@ -9905,7 +9895,7 @@
       <c r="E563" s="32"/>
       <c r="F563" s="32"/>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A564" s="32" t="s">
         <v>646</v>
       </c>
@@ -9915,7 +9905,7 @@
       <c r="E564" s="32"/>
       <c r="F564" s="32"/>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A565" s="32" t="s">
         <v>647</v>
       </c>
@@ -9925,7 +9915,7 @@
       <c r="E565" s="32"/>
       <c r="F565" s="32"/>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A566" s="32" t="s">
         <v>648</v>
       </c>
@@ -9935,7 +9925,7 @@
       <c r="E566" s="32"/>
       <c r="F566" s="32"/>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A567" s="32" t="s">
         <v>649</v>
       </c>
@@ -9945,7 +9935,7 @@
       <c r="E567" s="32"/>
       <c r="F567" s="32"/>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A568" s="32" t="s">
         <v>650</v>
       </c>
@@ -9955,7 +9945,7 @@
       <c r="E568" s="32"/>
       <c r="F568" s="32"/>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A569" s="32" t="s">
         <v>651</v>
       </c>
@@ -9965,7 +9955,7 @@
       <c r="E569" s="32"/>
       <c r="F569" s="32"/>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A570" s="32" t="s">
         <v>652</v>
       </c>
@@ -9975,7 +9965,7 @@
       <c r="E570" s="32"/>
       <c r="F570" s="32"/>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A571" s="32" t="s">
         <v>653</v>
       </c>
@@ -9985,7 +9975,7 @@
       <c r="E571" s="32"/>
       <c r="F571" s="32"/>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A572" s="32" t="s">
         <v>396</v>
       </c>
@@ -9995,7 +9985,7 @@
       <c r="E572" s="32"/>
       <c r="F572" s="32"/>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A573" s="32" t="s">
         <v>654</v>
       </c>
@@ -10005,7 +9995,7 @@
       <c r="E573" s="32"/>
       <c r="F573" s="32"/>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A574" s="32" t="s">
         <v>655</v>
       </c>
@@ -10015,7 +10005,7 @@
       <c r="E574" s="32"/>
       <c r="F574" s="32"/>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A575" s="32" t="s">
         <v>397</v>
       </c>
@@ -10025,7 +10015,7 @@
       <c r="E575" s="32"/>
       <c r="F575" s="32"/>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A576" s="32" t="s">
         <v>656</v>
       </c>
@@ -10035,7 +10025,7 @@
       <c r="E576" s="32"/>
       <c r="F576" s="32"/>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A577" s="32" t="s">
         <v>657</v>
       </c>
@@ -10045,7 +10035,7 @@
       <c r="E577" s="32"/>
       <c r="F577" s="32"/>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A578" s="32" t="s">
         <v>658</v>
       </c>
@@ -10055,7 +10045,7 @@
       <c r="E578" s="32"/>
       <c r="F578" s="32"/>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A579" s="32" t="s">
         <v>659</v>
       </c>
@@ -10065,7 +10055,7 @@
       <c r="E579" s="32"/>
       <c r="F579" s="32"/>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A580" s="32" t="s">
         <v>660</v>
       </c>
@@ -10075,7 +10065,7 @@
       <c r="E580" s="32"/>
       <c r="F580" s="32"/>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A581" s="32" t="s">
         <v>661</v>
       </c>
@@ -10085,7 +10075,7 @@
       <c r="E581" s="32"/>
       <c r="F581" s="32"/>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A582" s="32" t="s">
         <v>662</v>
       </c>
@@ -10095,7 +10085,7 @@
       <c r="E582" s="32"/>
       <c r="F582" s="32"/>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A583" s="32" t="s">
         <v>663</v>
       </c>
@@ -10105,7 +10095,7 @@
       <c r="E583" s="32"/>
       <c r="F583" s="32"/>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A584" s="32" t="s">
         <v>664</v>
       </c>
@@ -10115,7 +10105,7 @@
       <c r="E584" s="32"/>
       <c r="F584" s="32"/>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A585" s="32" t="s">
         <v>665</v>
       </c>
@@ -10125,7 +10115,7 @@
       <c r="E585" s="32"/>
       <c r="F585" s="32"/>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A586" s="32" t="s">
         <v>666</v>
       </c>
@@ -10135,7 +10125,7 @@
       <c r="E586" s="32"/>
       <c r="F586" s="32"/>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A587" s="32" t="s">
         <v>667</v>
       </c>
@@ -10145,7 +10135,7 @@
       <c r="E587" s="32"/>
       <c r="F587" s="32"/>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A588" s="32" t="s">
         <v>668</v>
       </c>
@@ -10155,7 +10145,7 @@
       <c r="E588" s="32"/>
       <c r="F588" s="32"/>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A589" s="32" t="s">
         <v>669</v>
       </c>
@@ -10165,7 +10155,7 @@
       <c r="E589" s="32"/>
       <c r="F589" s="32"/>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A590" s="32" t="s">
         <v>400</v>
       </c>
@@ -10175,7 +10165,7 @@
       <c r="E590" s="32"/>
       <c r="F590" s="32"/>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A591" s="32" t="s">
         <v>670</v>
       </c>
@@ -10185,7 +10175,7 @@
       <c r="E591" s="32"/>
       <c r="F591" s="32"/>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A592" s="32" t="s">
         <v>671</v>
       </c>
@@ -10195,7 +10185,7 @@
       <c r="E592" s="32"/>
       <c r="F592" s="32"/>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A593" s="32" t="s">
         <v>672</v>
       </c>
@@ -10205,7 +10195,7 @@
       <c r="E593" s="32"/>
       <c r="F593" s="32"/>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A594" s="32" t="s">
         <v>673</v>
       </c>
@@ -10215,7 +10205,7 @@
       <c r="E594" s="32"/>
       <c r="F594" s="32"/>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A595" s="32" t="s">
         <v>674</v>
       </c>
@@ -10225,7 +10215,7 @@
       <c r="E595" s="32"/>
       <c r="F595" s="32"/>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A596" s="32" t="s">
         <v>675</v>
       </c>
@@ -10235,7 +10225,7 @@
       <c r="E596" s="32"/>
       <c r="F596" s="32"/>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A597" s="32" t="s">
         <v>676</v>
       </c>
@@ -10245,7 +10235,7 @@
       <c r="E597" s="32"/>
       <c r="F597" s="32"/>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A598" s="32" t="s">
         <v>677</v>
       </c>
@@ -10255,7 +10245,7 @@
       <c r="E598" s="32"/>
       <c r="F598" s="32"/>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A599" s="32" t="s">
         <v>678</v>
       </c>
@@ -10265,7 +10255,7 @@
       <c r="E599" s="32"/>
       <c r="F599" s="32"/>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A600" s="32" t="s">
         <v>679</v>
       </c>
@@ -10275,7 +10265,7 @@
       <c r="E600" s="32"/>
       <c r="F600" s="32"/>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A601" s="32" t="s">
         <v>680</v>
       </c>
@@ -10285,7 +10275,7 @@
       <c r="E601" s="32"/>
       <c r="F601" s="32"/>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A602" s="32" t="s">
         <v>681</v>
       </c>
@@ -10295,7 +10285,7 @@
       <c r="E602" s="32"/>
       <c r="F602" s="32"/>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A603" s="32" t="s">
         <v>682</v>
       </c>
@@ -10305,7 +10295,7 @@
       <c r="E603" s="32"/>
       <c r="F603" s="32"/>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A604" s="32" t="s">
         <v>683</v>
       </c>
@@ -10315,7 +10305,7 @@
       <c r="E604" s="32"/>
       <c r="F604" s="32"/>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A605" s="32" t="s">
         <v>684</v>
       </c>
@@ -10325,7 +10315,7 @@
       <c r="E605" s="32"/>
       <c r="F605" s="32"/>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A606" s="32" t="s">
         <v>685</v>
       </c>
@@ -10335,7 +10325,7 @@
       <c r="E606" s="32"/>
       <c r="F606" s="32"/>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A607" s="32" t="s">
         <v>686</v>
       </c>
@@ -10345,7 +10335,7 @@
       <c r="E607" s="32"/>
       <c r="F607" s="32"/>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A608" s="32" t="s">
         <v>687</v>
       </c>
@@ -10355,7 +10345,7 @@
       <c r="E608" s="32"/>
       <c r="F608" s="32"/>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A609" s="32" t="s">
         <v>688</v>
       </c>
@@ -10365,7 +10355,7 @@
       <c r="E609" s="32"/>
       <c r="F609" s="32"/>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A610" s="32" t="s">
         <v>689</v>
       </c>
@@ -10375,7 +10365,7 @@
       <c r="E610" s="32"/>
       <c r="F610" s="32"/>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A611" s="32" t="s">
         <v>690</v>
       </c>
@@ -10385,7 +10375,7 @@
       <c r="E611" s="32"/>
       <c r="F611" s="32"/>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A612" s="32" t="s">
         <v>691</v>
       </c>
@@ -10395,7 +10385,7 @@
       <c r="E612" s="32"/>
       <c r="F612" s="32"/>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A613" s="32" t="s">
         <v>692</v>
       </c>
@@ -10405,7 +10395,7 @@
       <c r="E613" s="32"/>
       <c r="F613" s="32"/>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A614" s="32" t="s">
         <v>404</v>
       </c>
@@ -10415,7 +10405,7 @@
       <c r="E614" s="32"/>
       <c r="F614" s="32"/>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A615" s="32" t="s">
         <v>693</v>
       </c>
@@ -10425,7 +10415,7 @@
       <c r="E615" s="32"/>
       <c r="F615" s="32"/>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A616" s="32" t="s">
         <v>694</v>
       </c>
@@ -10435,7 +10425,7 @@
       <c r="E616" s="32"/>
       <c r="F616" s="32"/>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A617" s="32" t="s">
         <v>695</v>
       </c>
@@ -10445,7 +10435,7 @@
       <c r="E617" s="32"/>
       <c r="F617" s="32"/>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A618" s="32" t="s">
         <v>405</v>
       </c>
@@ -10455,7 +10445,7 @@
       <c r="E618" s="32"/>
       <c r="F618" s="32"/>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A619" s="32" t="s">
         <v>696</v>
       </c>
@@ -10465,7 +10455,7 @@
       <c r="E619" s="32"/>
       <c r="F619" s="32"/>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A620" s="32" t="s">
         <v>697</v>
       </c>
@@ -10475,7 +10465,7 @@
       <c r="E620" s="32"/>
       <c r="F620" s="32"/>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A621" s="32" t="s">
         <v>698</v>
       </c>
@@ -10485,7 +10475,7 @@
       <c r="E621" s="32"/>
       <c r="F621" s="32"/>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A622" s="32" t="s">
         <v>699</v>
       </c>
@@ -10495,7 +10485,7 @@
       <c r="E622" s="32"/>
       <c r="F622" s="32"/>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A623" s="32" t="s">
         <v>700</v>
       </c>
@@ -10505,7 +10495,7 @@
       <c r="E623" s="32"/>
       <c r="F623" s="32"/>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A624" s="32" t="s">
         <v>701</v>
       </c>
@@ -10515,7 +10505,7 @@
       <c r="E624" s="32"/>
       <c r="F624" s="32"/>
     </row>
-    <row r="625" spans="1:6">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A625" s="32" t="s">
         <v>702</v>
       </c>
@@ -10525,7 +10515,7 @@
       <c r="E625" s="32"/>
       <c r="F625" s="32"/>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A626" s="32" t="s">
         <v>410</v>
       </c>
@@ -10535,7 +10525,7 @@
       <c r="E626" s="32"/>
       <c r="F626" s="32"/>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A627" s="32" t="s">
         <v>703</v>
       </c>
@@ -10545,7 +10535,7 @@
       <c r="E627" s="32"/>
       <c r="F627" s="32"/>
     </row>
-    <row r="628" spans="1:6">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A628" s="32" t="s">
         <v>411</v>
       </c>
@@ -10555,7 +10545,7 @@
       <c r="E628" s="32"/>
       <c r="F628" s="32"/>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A629" s="32" t="s">
         <v>417</v>
       </c>
@@ -10565,7 +10555,7 @@
       <c r="E629" s="32"/>
       <c r="F629" s="32"/>
     </row>
-    <row r="630" spans="1:6">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A630" s="32" t="s">
         <v>418</v>
       </c>
@@ -10575,7 +10565,7 @@
       <c r="E630" s="32"/>
       <c r="F630" s="32"/>
     </row>
-    <row r="631" spans="1:6">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A631" s="32" t="s">
         <v>704</v>
       </c>
@@ -10585,7 +10575,7 @@
       <c r="E631" s="32"/>
       <c r="F631" s="32"/>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A632" s="32" t="s">
         <v>705</v>
       </c>
@@ -10595,7 +10585,7 @@
       <c r="E632" s="32"/>
       <c r="F632" s="32"/>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A633" s="32" t="s">
         <v>706</v>
       </c>
@@ -10605,7 +10595,7 @@
       <c r="E633" s="32"/>
       <c r="F633" s="32"/>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A634" s="32" t="s">
         <v>419</v>
       </c>
@@ -10615,7 +10605,7 @@
       <c r="E634" s="32"/>
       <c r="F634" s="32"/>
     </row>
-    <row r="635" spans="1:6">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A635" s="32" t="s">
         <v>707</v>
       </c>
@@ -10625,7 +10615,7 @@
       <c r="E635" s="32"/>
       <c r="F635" s="32"/>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A636" s="32" t="s">
         <v>420</v>
       </c>
@@ -10635,7 +10625,7 @@
       <c r="E636" s="32"/>
       <c r="F636" s="32"/>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A637" s="32" t="s">
         <v>708</v>
       </c>
@@ -10645,7 +10635,7 @@
       <c r="E637" s="32"/>
       <c r="F637" s="32"/>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A638" s="32" t="s">
         <v>709</v>
       </c>
@@ -10655,7 +10645,7 @@
       <c r="E638" s="32"/>
       <c r="F638" s="32"/>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A639" s="32" t="s">
         <v>710</v>
       </c>
@@ -10665,7 +10655,7 @@
       <c r="E639" s="32"/>
       <c r="F639" s="32"/>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A640" s="32" t="s">
         <v>711</v>
       </c>
@@ -10675,7 +10665,7 @@
       <c r="E640" s="32"/>
       <c r="F640" s="32"/>
     </row>
-    <row r="641" spans="1:6">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A641" s="32" t="s">
         <v>712</v>
       </c>
@@ -10685,7 +10675,7 @@
       <c r="E641" s="32"/>
       <c r="F641" s="32"/>
     </row>
-    <row r="642" spans="1:6">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A642" s="32" t="s">
         <v>713</v>
       </c>
@@ -10695,7 +10685,7 @@
       <c r="E642" s="32"/>
       <c r="F642" s="32"/>
     </row>
-    <row r="643" spans="1:6">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A643" s="32" t="s">
         <v>714</v>
       </c>
@@ -10705,7 +10695,7 @@
       <c r="E643" s="32"/>
       <c r="F643" s="32"/>
     </row>
-    <row r="644" spans="1:6">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A644" s="32" t="s">
         <v>715</v>
       </c>
@@ -10715,7 +10705,7 @@
       <c r="E644" s="32"/>
       <c r="F644" s="32"/>
     </row>
-    <row r="645" spans="1:6">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A645" s="32" t="s">
         <v>716</v>
       </c>
@@ -10725,7 +10715,7 @@
       <c r="E645" s="32"/>
       <c r="F645" s="32"/>
     </row>
-    <row r="646" spans="1:6">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A646" s="32" t="s">
         <v>717</v>
       </c>
@@ -10735,7 +10725,7 @@
       <c r="E646" s="32"/>
       <c r="F646" s="32"/>
     </row>
-    <row r="647" spans="1:6">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A647" s="32" t="s">
         <v>718</v>
       </c>
@@ -10745,7 +10735,7 @@
       <c r="E647" s="32"/>
       <c r="F647" s="32"/>
     </row>
-    <row r="648" spans="1:6">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A648" s="32" t="s">
         <v>719</v>
       </c>
@@ -10755,7 +10745,7 @@
       <c r="E648" s="32"/>
       <c r="F648" s="32"/>
     </row>
-    <row r="649" spans="1:6">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A649" s="32" t="s">
         <v>720</v>
       </c>
@@ -10765,7 +10755,7 @@
       <c r="E649" s="32"/>
       <c r="F649" s="32"/>
     </row>
-    <row r="650" spans="1:6">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A650" s="32" t="s">
         <v>721</v>
       </c>
@@ -10775,7 +10765,7 @@
       <c r="E650" s="32"/>
       <c r="F650" s="32"/>
     </row>
-    <row r="651" spans="1:6">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A651" s="32" t="s">
         <v>421</v>
       </c>
@@ -10785,7 +10775,7 @@
       <c r="E651" s="32"/>
       <c r="F651" s="32"/>
     </row>
-    <row r="652" spans="1:6">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A652" s="32" t="s">
         <v>722</v>
       </c>
@@ -10795,7 +10785,7 @@
       <c r="E652" s="32"/>
       <c r="F652" s="32"/>
     </row>
-    <row r="653" spans="1:6">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A653" s="32" t="s">
         <v>723</v>
       </c>
@@ -10805,7 +10795,7 @@
       <c r="E653" s="32"/>
       <c r="F653" s="32"/>
     </row>
-    <row r="654" spans="1:6">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A654" s="32" t="s">
         <v>724</v>
       </c>
@@ -10815,7 +10805,7 @@
       <c r="E654" s="32"/>
       <c r="F654" s="32"/>
     </row>
-    <row r="655" spans="1:6">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A655" s="32" t="s">
         <v>725</v>
       </c>
@@ -10825,7 +10815,7 @@
       <c r="E655" s="32"/>
       <c r="F655" s="32"/>
     </row>
-    <row r="656" spans="1:6">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A656" s="32" t="s">
         <v>726</v>
       </c>
@@ -10835,7 +10825,7 @@
       <c r="E656" s="32"/>
       <c r="F656" s="32"/>
     </row>
-    <row r="657" spans="1:6">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A657" s="32" t="s">
         <v>727</v>
       </c>
@@ -10845,7 +10835,7 @@
       <c r="E657" s="32"/>
       <c r="F657" s="32"/>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A658" s="32" t="s">
         <v>728</v>
       </c>
@@ -10855,7 +10845,7 @@
       <c r="E658" s="32"/>
       <c r="F658" s="32"/>
     </row>
-    <row r="659" spans="1:6">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A659" s="32" t="s">
         <v>729</v>
       </c>
@@ -10865,7 +10855,7 @@
       <c r="E659" s="32"/>
       <c r="F659" s="32"/>
     </row>
-    <row r="660" spans="1:6">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A660" s="32" t="s">
         <v>730</v>
       </c>
@@ -10875,7 +10865,7 @@
       <c r="E660" s="32"/>
       <c r="F660" s="32"/>
     </row>
-    <row r="661" spans="1:6">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A661" s="32" t="s">
         <v>731</v>
       </c>
@@ -10885,7 +10875,7 @@
       <c r="E661" s="32"/>
       <c r="F661" s="32"/>
     </row>
-    <row r="662" spans="1:6">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A662" s="32" t="s">
         <v>732</v>
       </c>
@@ -10895,7 +10885,7 @@
       <c r="E662" s="32"/>
       <c r="F662" s="32"/>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A663" s="32" t="s">
         <v>425</v>
       </c>
@@ -10905,7 +10895,7 @@
       <c r="E663" s="32"/>
       <c r="F663" s="32"/>
     </row>
-    <row r="664" spans="1:6">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A664" s="32" t="s">
         <v>429</v>
       </c>
@@ -10915,7 +10905,7 @@
       <c r="E664" s="32"/>
       <c r="F664" s="32"/>
     </row>
-    <row r="665" spans="1:6">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A665" s="32" t="s">
         <v>733</v>
       </c>
@@ -10925,7 +10915,7 @@
       <c r="E665" s="32"/>
       <c r="F665" s="32"/>
     </row>
-    <row r="666" spans="1:6">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A666" s="32" t="s">
         <v>734</v>
       </c>
@@ -10935,7 +10925,7 @@
       <c r="E666" s="32"/>
       <c r="F666" s="32"/>
     </row>
-    <row r="667" spans="1:6">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A667" s="32" t="s">
         <v>735</v>
       </c>
@@ -10945,7 +10935,7 @@
       <c r="E667" s="32"/>
       <c r="F667" s="32"/>
     </row>
-    <row r="668" spans="1:6">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A668" s="32" t="s">
         <v>434</v>
       </c>
@@ -10955,7 +10945,7 @@
       <c r="E668" s="32"/>
       <c r="F668" s="32"/>
     </row>
-    <row r="669" spans="1:6">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A669" s="32" t="s">
         <v>736</v>
       </c>
@@ -10965,7 +10955,7 @@
       <c r="E669" s="32"/>
       <c r="F669" s="32"/>
     </row>
-    <row r="670" spans="1:6">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A670" s="32" t="s">
         <v>737</v>
       </c>
@@ -10975,7 +10965,7 @@
       <c r="E670" s="32"/>
       <c r="F670" s="32"/>
     </row>
-    <row r="671" spans="1:6">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A671" s="32" t="s">
         <v>738</v>
       </c>
@@ -10985,7 +10975,7 @@
       <c r="E671" s="32"/>
       <c r="F671" s="32"/>
     </row>
-    <row r="672" spans="1:6">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A672" s="32" t="s">
         <v>739</v>
       </c>
@@ -10995,7 +10985,7 @@
       <c r="E672" s="32"/>
       <c r="F672" s="32"/>
     </row>
-    <row r="673" spans="1:6">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A673" s="32" t="s">
         <v>740</v>
       </c>
@@ -11005,7 +10995,7 @@
       <c r="E673" s="32"/>
       <c r="F673" s="32"/>
     </row>
-    <row r="674" spans="1:6">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A674" s="32" t="s">
         <v>741</v>
       </c>
@@ -11015,7 +11005,7 @@
       <c r="E674" s="32"/>
       <c r="F674" s="32"/>
     </row>
-    <row r="675" spans="1:6">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A675" s="32" t="s">
         <v>742</v>
       </c>
@@ -11025,7 +11015,7 @@
       <c r="E675" s="32"/>
       <c r="F675" s="32"/>
     </row>
-    <row r="676" spans="1:6">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A676" s="32" t="s">
         <v>743</v>
       </c>
@@ -11035,7 +11025,7 @@
       <c r="E676" s="32"/>
       <c r="F676" s="32"/>
     </row>
-    <row r="677" spans="1:6">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A677" s="32" t="s">
         <v>744</v>
       </c>
@@ -11045,7 +11035,7 @@
       <c r="E677" s="32"/>
       <c r="F677" s="32"/>
     </row>
-    <row r="678" spans="1:6">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A678" s="32" t="s">
         <v>745</v>
       </c>
@@ -11055,7 +11045,7 @@
       <c r="E678" s="32"/>
       <c r="F678" s="32"/>
     </row>
-    <row r="679" spans="1:6">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A679" s="32" t="s">
         <v>746</v>
       </c>
@@ -11065,7 +11055,7 @@
       <c r="E679" s="32"/>
       <c r="F679" s="32"/>
     </row>
-    <row r="680" spans="1:6">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A680" s="32" t="s">
         <v>747</v>
       </c>
@@ -11075,7 +11065,7 @@
       <c r="E680" s="32"/>
       <c r="F680" s="32"/>
     </row>
-    <row r="681" spans="1:6">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A681" s="32" t="s">
         <v>436</v>
       </c>
@@ -11085,7 +11075,7 @@
       <c r="E681" s="32"/>
       <c r="F681" s="32"/>
     </row>
-    <row r="682" spans="1:6">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A682" s="32" t="s">
         <v>748</v>
       </c>
@@ -11095,7 +11085,7 @@
       <c r="E682" s="32"/>
       <c r="F682" s="32"/>
     </row>
-    <row r="683" spans="1:6">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A683" s="32" t="s">
         <v>438</v>
       </c>
@@ -11105,7 +11095,7 @@
       <c r="E683" s="32"/>
       <c r="F683" s="32"/>
     </row>
-    <row r="684" spans="1:6">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A684" s="32" t="s">
         <v>749</v>
       </c>
@@ -11115,7 +11105,7 @@
       <c r="E684" s="32"/>
       <c r="F684" s="32"/>
     </row>
-    <row r="685" spans="1:6">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A685" s="32" t="s">
         <v>750</v>
       </c>
@@ -11125,7 +11115,7 @@
       <c r="E685" s="32"/>
       <c r="F685" s="32"/>
     </row>
-    <row r="686" spans="1:6">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A686" s="32" t="s">
         <v>751</v>
       </c>
@@ -11135,7 +11125,7 @@
       <c r="E686" s="32"/>
       <c r="F686" s="32"/>
     </row>
-    <row r="687" spans="1:6">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A687" s="32" t="s">
         <v>752</v>
       </c>
@@ -11145,7 +11135,7 @@
       <c r="E687" s="32"/>
       <c r="F687" s="32"/>
     </row>
-    <row r="688" spans="1:6">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A688" s="32" t="s">
         <v>753</v>
       </c>
@@ -11155,7 +11145,7 @@
       <c r="E688" s="32"/>
       <c r="F688" s="32"/>
     </row>
-    <row r="689" spans="1:6">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A689" s="32" t="s">
         <v>441</v>
       </c>
@@ -11165,7 +11155,7 @@
       <c r="E689" s="32"/>
       <c r="F689" s="32"/>
     </row>
-    <row r="690" spans="1:6">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A690" s="32" t="s">
         <v>754</v>
       </c>
@@ -11175,7 +11165,7 @@
       <c r="E690" s="32"/>
       <c r="F690" s="32"/>
     </row>
-    <row r="691" spans="1:6">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A691" s="32" t="s">
         <v>755</v>
       </c>
@@ -11185,7 +11175,7 @@
       <c r="E691" s="32"/>
       <c r="F691" s="32"/>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A692" s="32" t="s">
         <v>756</v>
       </c>
@@ -11195,7 +11185,7 @@
       <c r="E692" s="32"/>
       <c r="F692" s="32"/>
     </row>
-    <row r="693" spans="1:6">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A693" s="32" t="s">
         <v>757</v>
       </c>
@@ -11205,7 +11195,7 @@
       <c r="E693" s="32"/>
       <c r="F693" s="32"/>
     </row>
-    <row r="694" spans="1:6">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A694" s="32" t="s">
         <v>758</v>
       </c>
@@ -11215,7 +11205,7 @@
       <c r="E694" s="32"/>
       <c r="F694" s="32"/>
     </row>
-    <row r="695" spans="1:6">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A695" s="32" t="s">
         <v>759</v>
       </c>
@@ -11225,7 +11215,7 @@
       <c r="E695" s="32"/>
       <c r="F695" s="32"/>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A696" s="32" t="s">
         <v>760</v>
       </c>
@@ -11235,7 +11225,7 @@
       <c r="E696" s="32"/>
       <c r="F696" s="32"/>
     </row>
-    <row r="697" spans="1:6">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A697" s="32" t="s">
         <v>761</v>
       </c>
@@ -11245,7 +11235,7 @@
       <c r="E697" s="32"/>
       <c r="F697" s="32"/>
     </row>
-    <row r="698" spans="1:6">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A698" s="32" t="s">
         <v>762</v>
       </c>
@@ -11255,7 +11245,7 @@
       <c r="E698" s="32"/>
       <c r="F698" s="32"/>
     </row>
-    <row r="699" spans="1:6">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A699" s="32" t="s">
         <v>763</v>
       </c>
@@ -11265,7 +11255,7 @@
       <c r="E699" s="32"/>
       <c r="F699" s="32"/>
     </row>
-    <row r="700" spans="1:6">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A700" s="32" t="s">
         <v>764</v>
       </c>
@@ -11275,7 +11265,7 @@
       <c r="E700" s="32"/>
       <c r="F700" s="32"/>
     </row>
-    <row r="701" spans="1:6">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A701" s="32" t="s">
         <v>765</v>
       </c>
@@ -11285,7 +11275,7 @@
       <c r="E701" s="32"/>
       <c r="F701" s="32"/>
     </row>
-    <row r="702" spans="1:6">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A702" s="32" t="s">
         <v>766</v>
       </c>
@@ -11295,7 +11285,7 @@
       <c r="E702" s="32"/>
       <c r="F702" s="32"/>
     </row>
-    <row r="703" spans="1:6">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A703" s="32" t="s">
         <v>767</v>
       </c>
@@ -11305,7 +11295,7 @@
       <c r="E703" s="32"/>
       <c r="F703" s="32"/>
     </row>
-    <row r="704" spans="1:6">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A704" s="32" t="s">
         <v>449</v>
       </c>
@@ -11315,7 +11305,7 @@
       <c r="E704" s="32"/>
       <c r="F704" s="32"/>
     </row>
-    <row r="705" spans="1:6">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A705" s="32" t="s">
         <v>768</v>
       </c>
@@ -11325,7 +11315,7 @@
       <c r="E705" s="32"/>
       <c r="F705" s="32"/>
     </row>
-    <row r="706" spans="1:6">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A706" s="32" t="s">
         <v>769</v>
       </c>
@@ -11335,7 +11325,7 @@
       <c r="E706" s="32"/>
       <c r="F706" s="32"/>
     </row>
-    <row r="707" spans="1:6">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A707" s="32" t="s">
         <v>770</v>
       </c>
@@ -11345,7 +11335,7 @@
       <c r="E707" s="32"/>
       <c r="F707" s="32"/>
     </row>
-    <row r="708" spans="1:6">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A708" s="32" t="s">
         <v>771</v>
       </c>
@@ -11355,7 +11345,7 @@
       <c r="E708" s="32"/>
       <c r="F708" s="32"/>
     </row>
-    <row r="709" spans="1:6">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A709" s="32" t="s">
         <v>453</v>
       </c>
@@ -11365,7 +11355,7 @@
       <c r="E709" s="32"/>
       <c r="F709" s="32"/>
     </row>
-    <row r="710" spans="1:6">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A710" s="32" t="s">
         <v>772</v>
       </c>
@@ -11375,7 +11365,7 @@
       <c r="E710" s="32"/>
       <c r="F710" s="32"/>
     </row>
-    <row r="711" spans="1:6">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A711" s="32" t="s">
         <v>773</v>
       </c>
@@ -11385,7 +11375,7 @@
       <c r="E711" s="32"/>
       <c r="F711" s="32"/>
     </row>
-    <row r="712" spans="1:6">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A712" s="32" t="s">
         <v>774</v>
       </c>
@@ -11395,7 +11385,7 @@
       <c r="E712" s="32"/>
       <c r="F712" s="32"/>
     </row>
-    <row r="713" spans="1:6">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A713" s="32" t="s">
         <v>457</v>
       </c>
@@ -11405,7 +11395,7 @@
       <c r="E713" s="32"/>
       <c r="F713" s="32"/>
     </row>
-    <row r="714" spans="1:6">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A714" s="32" t="s">
         <v>775</v>
       </c>
@@ -11415,7 +11405,7 @@
       <c r="E714" s="32"/>
       <c r="F714" s="32"/>
     </row>
-    <row r="715" spans="1:6">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A715" s="32" t="s">
         <v>776</v>
       </c>
@@ -11425,7 +11415,7 @@
       <c r="E715" s="32"/>
       <c r="F715" s="32"/>
     </row>
-    <row r="716" spans="1:6">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A716" s="32" t="s">
         <v>777</v>
       </c>
@@ -11435,7 +11425,7 @@
       <c r="E716" s="32"/>
       <c r="F716" s="32"/>
     </row>
-    <row r="717" spans="1:6">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A717" s="32" t="s">
         <v>778</v>
       </c>
@@ -11445,7 +11435,7 @@
       <c r="E717" s="32"/>
       <c r="F717" s="32"/>
     </row>
-    <row r="718" spans="1:6">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A718" s="32" t="s">
         <v>779</v>
       </c>
@@ -11455,7 +11445,7 @@
       <c r="E718" s="32"/>
       <c r="F718" s="32"/>
     </row>
-    <row r="719" spans="1:6">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A719" s="32" t="s">
         <v>780</v>
       </c>
@@ -11465,7 +11455,7 @@
       <c r="E719" s="32"/>
       <c r="F719" s="32"/>
     </row>
-    <row r="720" spans="1:6">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A720" s="32" t="s">
         <v>781</v>
       </c>
@@ -11475,7 +11465,7 @@
       <c r="E720" s="32"/>
       <c r="F720" s="32"/>
     </row>
-    <row r="721" spans="1:6">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A721" s="32" t="s">
         <v>782</v>
       </c>
@@ -11485,7 +11475,7 @@
       <c r="E721" s="32"/>
       <c r="F721" s="32"/>
     </row>
-    <row r="722" spans="1:6">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A722" s="32" t="s">
         <v>783</v>
       </c>
@@ -11495,7 +11485,7 @@
       <c r="E722" s="32"/>
       <c r="F722" s="32"/>
     </row>
-    <row r="723" spans="1:6">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A723" s="32" t="s">
         <v>784</v>
       </c>
@@ -11505,7 +11495,7 @@
       <c r="E723" s="32"/>
       <c r="F723" s="32"/>
     </row>
-    <row r="724" spans="1:6">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A724" s="32" t="s">
         <v>785</v>
       </c>
@@ -11515,7 +11505,7 @@
       <c r="E724" s="32"/>
       <c r="F724" s="32"/>
     </row>
-    <row r="725" spans="1:6">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A725" s="32" t="s">
         <v>786</v>
       </c>
@@ -11525,7 +11515,7 @@
       <c r="E725" s="32"/>
       <c r="F725" s="32"/>
     </row>
-    <row r="726" spans="1:6">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A726" s="32" t="s">
         <v>787</v>
       </c>
@@ -11535,7 +11525,7 @@
       <c r="E726" s="32"/>
       <c r="F726" s="32"/>
     </row>
-    <row r="727" spans="1:6">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A727" s="32" t="s">
         <v>788</v>
       </c>
@@ -11545,7 +11535,7 @@
       <c r="E727" s="32"/>
       <c r="F727" s="32"/>
     </row>
-    <row r="728" spans="1:6">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A728" s="32" t="s">
         <v>789</v>
       </c>
@@ -11555,7 +11545,7 @@
       <c r="E728" s="32"/>
       <c r="F728" s="32"/>
     </row>
-    <row r="729" spans="1:6">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A729" s="32" t="s">
         <v>790</v>
       </c>
@@ -11565,7 +11555,7 @@
       <c r="E729" s="32"/>
       <c r="F729" s="32"/>
     </row>
-    <row r="730" spans="1:6">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A730" s="32" t="s">
         <v>791</v>
       </c>
@@ -11575,7 +11565,7 @@
       <c r="E730" s="32"/>
       <c r="F730" s="32"/>
     </row>
-    <row r="731" spans="1:6">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A731" s="32" t="s">
         <v>792</v>
       </c>
@@ -11585,7 +11575,7 @@
       <c r="E731" s="32"/>
       <c r="F731" s="32"/>
     </row>
-    <row r="732" spans="1:6">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A732" s="32" t="s">
         <v>793</v>
       </c>
@@ -11595,7 +11585,7 @@
       <c r="E732" s="32"/>
       <c r="F732" s="32"/>
     </row>
-    <row r="733" spans="1:6">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A733" s="32" t="s">
         <v>794</v>
       </c>
@@ -11605,7 +11595,7 @@
       <c r="E733" s="32"/>
       <c r="F733" s="32"/>
     </row>
-    <row r="734" spans="1:6">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A734" s="32" t="s">
         <v>795</v>
       </c>
@@ -11615,7 +11605,7 @@
       <c r="E734" s="32"/>
       <c r="F734" s="32"/>
     </row>
-    <row r="735" spans="1:6">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A735" s="32" t="s">
         <v>796</v>
       </c>
@@ -11625,7 +11615,7 @@
       <c r="E735" s="32"/>
       <c r="F735" s="32"/>
     </row>
-    <row r="736" spans="1:6">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A736" s="32" t="s">
         <v>797</v>
       </c>
@@ -11635,7 +11625,7 @@
       <c r="E736" s="32"/>
       <c r="F736" s="32"/>
     </row>
-    <row r="737" spans="1:6">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A737" s="32" t="s">
         <v>798</v>
       </c>
@@ -11645,7 +11635,7 @@
       <c r="E737" s="32"/>
       <c r="F737" s="32"/>
     </row>
-    <row r="738" spans="1:6">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A738" s="32" t="s">
         <v>799</v>
       </c>
@@ -11655,7 +11645,7 @@
       <c r="E738" s="32"/>
       <c r="F738" s="32"/>
     </row>
-    <row r="739" spans="1:6">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A739" s="32" t="s">
         <v>459</v>
       </c>
@@ -11665,7 +11655,7 @@
       <c r="E739" s="32"/>
       <c r="F739" s="32"/>
     </row>
-    <row r="740" spans="1:6">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A740" s="32" t="s">
         <v>800</v>
       </c>
@@ -11675,7 +11665,7 @@
       <c r="E740" s="32"/>
       <c r="F740" s="32"/>
     </row>
-    <row r="741" spans="1:6">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A741" s="32" t="s">
         <v>460</v>
       </c>
@@ -11685,7 +11675,7 @@
       <c r="E741" s="32"/>
       <c r="F741" s="32"/>
     </row>
-    <row r="742" spans="1:6">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A742" s="32" t="s">
         <v>461</v>
       </c>
@@ -11695,7 +11685,7 @@
       <c r="E742" s="32"/>
       <c r="F742" s="32"/>
     </row>
-    <row r="743" spans="1:6">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A743" s="32" t="s">
         <v>801</v>
       </c>
@@ -11705,7 +11695,7 @@
       <c r="E743" s="32"/>
       <c r="F743" s="32"/>
     </row>
-    <row r="744" spans="1:6">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A744" s="32" t="s">
         <v>463</v>
       </c>
@@ -11715,7 +11705,7 @@
       <c r="E744" s="32"/>
       <c r="F744" s="32"/>
     </row>
-    <row r="745" spans="1:6">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A745" s="32" t="s">
         <v>802</v>
       </c>
@@ -11725,7 +11715,7 @@
       <c r="E745" s="32"/>
       <c r="F745" s="32"/>
     </row>
-    <row r="746" spans="1:6">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A746" s="32" t="s">
         <v>803</v>
       </c>
@@ -11735,7 +11725,7 @@
       <c r="E746" s="32"/>
       <c r="F746" s="32"/>
     </row>
-    <row r="747" spans="1:6">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A747" s="32" t="s">
         <v>804</v>
       </c>
@@ -11745,7 +11735,7 @@
       <c r="E747" s="32"/>
       <c r="F747" s="32"/>
     </row>
-    <row r="748" spans="1:6">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A748" s="32" t="s">
         <v>464</v>
       </c>
@@ -11755,7 +11745,7 @@
       <c r="E748" s="32"/>
       <c r="F748" s="32"/>
     </row>
-    <row r="749" spans="1:6">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A749" s="32" t="s">
         <v>805</v>
       </c>
@@ -11765,7 +11755,7 @@
       <c r="E749" s="32"/>
       <c r="F749" s="32"/>
     </row>
-    <row r="750" spans="1:6">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A750" s="32" t="s">
         <v>806</v>
       </c>
@@ -11775,7 +11765,7 @@
       <c r="E750" s="32"/>
       <c r="F750" s="32"/>
     </row>
-    <row r="751" spans="1:6">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A751" s="32" t="s">
         <v>807</v>
       </c>
@@ -11785,7 +11775,7 @@
       <c r="E751" s="32"/>
       <c r="F751" s="32"/>
     </row>
-    <row r="752" spans="1:6">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A752" s="32" t="s">
         <v>808</v>
       </c>
@@ -11795,7 +11785,7 @@
       <c r="E752" s="32"/>
       <c r="F752" s="32"/>
     </row>
-    <row r="753" spans="1:6">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A753" s="32" t="s">
         <v>809</v>
       </c>
@@ -11805,7 +11795,7 @@
       <c r="E753" s="32"/>
       <c r="F753" s="32"/>
     </row>
-    <row r="754" spans="1:6">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A754" s="32" t="s">
         <v>810</v>
       </c>
@@ -11815,7 +11805,7 @@
       <c r="E754" s="32"/>
       <c r="F754" s="32"/>
     </row>
-    <row r="755" spans="1:6">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A755" s="32" t="s">
         <v>811</v>
       </c>
@@ -11825,7 +11815,7 @@
       <c r="E755" s="32"/>
       <c r="F755" s="32"/>
     </row>
-    <row r="756" spans="1:6">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A756" s="32" t="s">
         <v>812</v>
       </c>
@@ -11835,7 +11825,7 @@
       <c r="E756" s="32"/>
       <c r="F756" s="32"/>
     </row>
-    <row r="757" spans="1:6">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A757" s="32" t="s">
         <v>813</v>
       </c>
@@ -11845,7 +11835,7 @@
       <c r="E757" s="32"/>
       <c r="F757" s="32"/>
     </row>
-    <row r="758" spans="1:6">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A758" s="32" t="s">
         <v>814</v>
       </c>
@@ -11855,7 +11845,7 @@
       <c r="E758" s="32"/>
       <c r="F758" s="32"/>
     </row>
-    <row r="759" spans="1:6">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A759" s="32" t="s">
         <v>815</v>
       </c>
@@ -11865,7 +11855,7 @@
       <c r="E759" s="32"/>
       <c r="F759" s="32"/>
     </row>
-    <row r="760" spans="1:6">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A760" s="32" t="s">
         <v>816</v>
       </c>
@@ -11875,7 +11865,7 @@
       <c r="E760" s="32"/>
       <c r="F760" s="32"/>
     </row>
-    <row r="761" spans="1:6">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A761" s="32" t="s">
         <v>817</v>
       </c>
@@ -11885,7 +11875,7 @@
       <c r="E761" s="32"/>
       <c r="F761" s="32"/>
     </row>
-    <row r="762" spans="1:6">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A762" s="32" t="s">
         <v>818</v>
       </c>
@@ -11895,7 +11885,7 @@
       <c r="E762" s="32"/>
       <c r="F762" s="32"/>
     </row>
-    <row r="763" spans="1:6">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A763" s="32" t="s">
         <v>819</v>
       </c>
@@ -11905,7 +11895,7 @@
       <c r="E763" s="32"/>
       <c r="F763" s="32"/>
     </row>
-    <row r="764" spans="1:6">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A764" s="32" t="b">
         <v>1</v>
       </c>
@@ -11915,7 +11905,7 @@
       <c r="E764" s="32"/>
       <c r="F764" s="32"/>
     </row>
-    <row r="765" spans="1:6">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A765" s="32" t="s">
         <v>820</v>
       </c>
@@ -11925,7 +11915,7 @@
       <c r="E765" s="32"/>
       <c r="F765" s="32"/>
     </row>
-    <row r="766" spans="1:6">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A766" s="32" t="s">
         <v>821</v>
       </c>
@@ -11935,7 +11925,7 @@
       <c r="E766" s="32"/>
       <c r="F766" s="32"/>
     </row>
-    <row r="767" spans="1:6">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A767" s="32" t="s">
         <v>472</v>
       </c>
@@ -11945,7 +11935,7 @@
       <c r="E767" s="32"/>
       <c r="F767" s="32"/>
     </row>
-    <row r="768" spans="1:6">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A768" s="32" t="s">
         <v>473</v>
       </c>
@@ -11955,7 +11945,7 @@
       <c r="E768" s="32"/>
       <c r="F768" s="32"/>
     </row>
-    <row r="769" spans="1:6">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A769" s="32" t="s">
         <v>822</v>
       </c>
@@ -11965,7 +11955,7 @@
       <c r="E769" s="32"/>
       <c r="F769" s="32"/>
     </row>
-    <row r="770" spans="1:6">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A770" s="32" t="s">
         <v>823</v>
       </c>
@@ -11975,7 +11965,7 @@
       <c r="E770" s="32"/>
       <c r="F770" s="32"/>
     </row>
-    <row r="771" spans="1:6">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A771" s="32" t="s">
         <v>824</v>
       </c>
@@ -11985,7 +11975,7 @@
       <c r="E771" s="32"/>
       <c r="F771" s="32"/>
     </row>
-    <row r="772" spans="1:6">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A772" s="32" t="s">
         <v>825</v>
       </c>
@@ -11995,7 +11985,7 @@
       <c r="E772" s="32"/>
       <c r="F772" s="32"/>
     </row>
-    <row r="773" spans="1:6">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A773" s="32" t="s">
         <v>826</v>
       </c>
@@ -12005,7 +11995,7 @@
       <c r="E773" s="32"/>
       <c r="F773" s="32"/>
     </row>
-    <row r="774" spans="1:6">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A774" s="32" t="s">
         <v>827</v>
       </c>
@@ -12015,7 +12005,7 @@
       <c r="E774" s="32"/>
       <c r="F774" s="32"/>
     </row>
-    <row r="775" spans="1:6">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A775" s="32" t="s">
         <v>828</v>
       </c>
@@ -12025,7 +12015,7 @@
       <c r="E775" s="32"/>
       <c r="F775" s="32"/>
     </row>
-    <row r="776" spans="1:6">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A776" s="32" t="s">
         <v>478</v>
       </c>
@@ -12035,7 +12025,7 @@
       <c r="E776" s="32"/>
       <c r="F776" s="32"/>
     </row>
-    <row r="777" spans="1:6">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A777" s="32" t="s">
         <v>829</v>
       </c>
@@ -12045,7 +12035,7 @@
       <c r="E777" s="32"/>
       <c r="F777" s="32"/>
     </row>
-    <row r="778" spans="1:6">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A778" s="32" t="s">
         <v>830</v>
       </c>
@@ -12055,7 +12045,7 @@
       <c r="E778" s="32"/>
       <c r="F778" s="32"/>
     </row>
-    <row r="779" spans="1:6">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A779" s="32" t="s">
         <v>831</v>
       </c>
@@ -12065,7 +12055,7 @@
       <c r="E779" s="32"/>
       <c r="F779" s="32"/>
     </row>
-    <row r="780" spans="1:6">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A780" s="32" t="s">
         <v>832</v>
       </c>
@@ -12075,7 +12065,7 @@
       <c r="E780" s="32"/>
       <c r="F780" s="32"/>
     </row>
-    <row r="781" spans="1:6">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A781" s="32" t="s">
         <v>833</v>
       </c>
@@ -12085,7 +12075,7 @@
       <c r="E781" s="32"/>
       <c r="F781" s="32"/>
     </row>
-    <row r="782" spans="1:6">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A782" s="32" t="s">
         <v>834</v>
       </c>
@@ -12095,7 +12085,7 @@
       <c r="E782" s="32"/>
       <c r="F782" s="32"/>
     </row>
-    <row r="783" spans="1:6">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A783" s="32" t="s">
         <v>835</v>
       </c>
@@ -12105,7 +12095,7 @@
       <c r="E783" s="32"/>
       <c r="F783" s="32"/>
     </row>
-    <row r="784" spans="1:6">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A784" s="32" t="s">
         <v>836</v>
       </c>
@@ -12115,7 +12105,7 @@
       <c r="E784" s="32"/>
       <c r="F784" s="32"/>
     </row>
-    <row r="785" spans="1:6">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A785" s="32" t="s">
         <v>837</v>
       </c>
@@ -12125,7 +12115,7 @@
       <c r="E785" s="32"/>
       <c r="F785" s="32"/>
     </row>
-    <row r="786" spans="1:6">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A786" s="32" t="s">
         <v>838</v>
       </c>
@@ -12135,7 +12125,7 @@
       <c r="E786" s="32"/>
       <c r="F786" s="32"/>
     </row>
-    <row r="787" spans="1:6">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A787" s="32" t="s">
         <v>839</v>
       </c>
@@ -12145,7 +12135,7 @@
       <c r="E787" s="32"/>
       <c r="F787" s="32"/>
     </row>
-    <row r="788" spans="1:6">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A788" s="32" t="s">
         <v>840</v>
       </c>
@@ -12155,7 +12145,7 @@
       <c r="E788" s="32"/>
       <c r="F788" s="32"/>
     </row>
-    <row r="789" spans="1:6">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A789" s="32" t="s">
         <v>483</v>
       </c>
@@ -12165,7 +12155,7 @@
       <c r="E789" s="32"/>
       <c r="F789" s="32"/>
     </row>
-    <row r="790" spans="1:6">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A790" s="32" t="s">
         <v>841</v>
       </c>
@@ -12175,7 +12165,7 @@
       <c r="E790" s="32"/>
       <c r="F790" s="32"/>
     </row>
-    <row r="791" spans="1:6">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A791" s="32" t="s">
         <v>484</v>
       </c>
@@ -12185,7 +12175,7 @@
       <c r="E791" s="32"/>
       <c r="F791" s="32"/>
     </row>
-    <row r="792" spans="1:6">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A792" s="32" t="s">
         <v>842</v>
       </c>
@@ -12195,7 +12185,7 @@
       <c r="E792" s="32"/>
       <c r="F792" s="32"/>
     </row>
-    <row r="793" spans="1:6">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A793" s="32" t="s">
         <v>843</v>
       </c>
@@ -12205,7 +12195,7 @@
       <c r="E793" s="32"/>
       <c r="F793" s="32"/>
     </row>
-    <row r="794" spans="1:6">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A794" s="32" t="s">
         <v>486</v>
       </c>
@@ -12215,7 +12205,7 @@
       <c r="E794" s="32"/>
       <c r="F794" s="32"/>
     </row>
-    <row r="795" spans="1:6">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A795" s="32" t="s">
         <v>844</v>
       </c>
@@ -12225,7 +12215,7 @@
       <c r="E795" s="32"/>
       <c r="F795" s="32"/>
     </row>
-    <row r="796" spans="1:6">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A796" s="32" t="s">
         <v>845</v>
       </c>
@@ -12235,7 +12225,7 @@
       <c r="E796" s="32"/>
       <c r="F796" s="32"/>
     </row>
-    <row r="797" spans="1:6">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A797" s="32" t="s">
         <v>846</v>
       </c>
@@ -12245,7 +12235,7 @@
       <c r="E797" s="32"/>
       <c r="F797" s="32"/>
     </row>
-    <row r="798" spans="1:6">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A798" s="32" t="s">
         <v>847</v>
       </c>
@@ -12255,7 +12245,7 @@
       <c r="E798" s="32"/>
       <c r="F798" s="32"/>
     </row>
-    <row r="799" spans="1:6">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A799" s="32" t="s">
         <v>848</v>
       </c>
@@ -12265,7 +12255,7 @@
       <c r="E799" s="32"/>
       <c r="F799" s="32"/>
     </row>
-    <row r="800" spans="1:6">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A800" s="32" t="s">
         <v>849</v>
       </c>
@@ -12275,7 +12265,7 @@
       <c r="E800" s="32"/>
       <c r="F800" s="32"/>
     </row>
-    <row r="801" spans="1:6">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A801" s="32" t="s">
         <v>850</v>
       </c>
@@ -12285,7 +12275,7 @@
       <c r="E801" s="32"/>
       <c r="F801" s="32"/>
     </row>
-    <row r="802" spans="1:6">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A802" s="32" t="s">
         <v>851</v>
       </c>
@@ -12295,7 +12285,7 @@
       <c r="E802" s="32"/>
       <c r="F802" s="32"/>
     </row>
-    <row r="803" spans="1:6">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A803" s="32" t="s">
         <v>852</v>
       </c>
@@ -12305,7 +12295,7 @@
       <c r="E803" s="32"/>
       <c r="F803" s="32"/>
     </row>
-    <row r="804" spans="1:6">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A804" s="32" t="s">
         <v>853</v>
       </c>
@@ -12315,7 +12305,7 @@
       <c r="E804" s="32"/>
       <c r="F804" s="32"/>
     </row>
-    <row r="805" spans="1:6">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A805" s="32" t="s">
         <v>854</v>
       </c>
@@ -12325,7 +12315,7 @@
       <c r="E805" s="32"/>
       <c r="F805" s="32"/>
     </row>
-    <row r="806" spans="1:6">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A806" s="32" t="s">
         <v>855</v>
       </c>
@@ -12335,7 +12325,7 @@
       <c r="E806" s="32"/>
       <c r="F806" s="32"/>
     </row>
-    <row r="807" spans="1:6">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A807" s="32" t="s">
         <v>856</v>
       </c>
@@ -12345,7 +12335,7 @@
       <c r="E807" s="32"/>
       <c r="F807" s="32"/>
     </row>
-    <row r="808" spans="1:6">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A808" s="32" t="s">
         <v>857</v>
       </c>
@@ -12357,10 +12347,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A92">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A84:A92">
